--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A4273C-B343-4CB7-B07F-E84561196BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF58F5F-572C-4287-BA6E-D39CE2044E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="16" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,14 @@
     <sheet name="ex15d" sheetId="15" r:id="rId15"/>
     <sheet name="ex16" sheetId="16" r:id="rId16"/>
     <sheet name="ex17" sheetId="17" r:id="rId17"/>
+    <sheet name="ex18d" sheetId="18" r:id="rId18"/>
+    <sheet name="ex19" sheetId="19" r:id="rId19"/>
+    <sheet name="ex20" sheetId="20" r:id="rId20"/>
+    <sheet name="ex21d" sheetId="21" r:id="rId21"/>
+    <sheet name="ex22" sheetId="22" r:id="rId22"/>
+    <sheet name="ex23d" sheetId="23" r:id="rId23"/>
+    <sheet name="ex24" sheetId="24" r:id="rId24"/>
+    <sheet name="ex25" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="100">
   <si>
     <t>Flujo</t>
   </si>
@@ -188,13 +196,178 @@
   <si>
     <t>duda: con los mismos flujos siempre sale la misma TIR indep de las tasas?</t>
   </si>
+  <si>
+    <t>La A, ya que invierto 85% de lo que se requiere en B, pero tengo casi el mismo VPN y TIR</t>
+  </si>
+  <si>
+    <t>flujo rel</t>
+  </si>
+  <si>
+    <t>o TIR menor a la expectativa pero mayor a 0: significa que los ingresos apenas cubren los egresos del proyecto y no se generan beneficios adicionales. o TIR menor a 0: significa que los ingresos no alcanzan a cubrir los egresos, por ende, el proyecto genera pérdidas.</t>
+  </si>
+  <si>
+    <t>No hay crecimiento en la inversión (TIR 0%), los ingresos apenas cubrieron los egresos de la inversión</t>
+  </si>
+  <si>
+    <t>es aceptable, ya que el VPN es +vo y además TIR es mucho mayor que el costo de op</t>
+  </si>
+  <si>
+    <t>La A, ya que tiene mayor TIR y mayor ganancia respecto a lo que inviertes.</t>
+  </si>
+  <si>
+    <t>tajo</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>La A, ya que tiene una TIR mayor que la B y te da 3.56 veces lo que inviertes, cuando la B te da 1.18 veces lo que inviertes. Incluso la A pide inversión inicial menor.</t>
+  </si>
+  <si>
+    <t>No se que dice</t>
+  </si>
+  <si>
+    <t>suponiendo anticipado</t>
+  </si>
+  <si>
+    <t>si va aquí?</t>
+  </si>
+  <si>
+    <t>No, si se compara con construir solo la de tajo, no debe ser reemplazada, porque esto reduce la TIR de 25% a 11%, y en lugar de regresarte 3.56 veces tu inversión, sólo te regresa 1.37.</t>
+  </si>
+  <si>
+    <t>reemplazar microbuses por 5 autobuses</t>
+  </si>
+  <si>
+    <t>1 autobus = 2 microbuses</t>
+  </si>
+  <si>
+    <t>5 autobuses = 10 microbuses tienen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 autobus </t>
+  </si>
+  <si>
+    <t>5 años</t>
+  </si>
+  <si>
+    <t>1 microbus</t>
+  </si>
+  <si>
+    <t>Autobuses</t>
+  </si>
+  <si>
+    <t>Microbuses</t>
+  </si>
+  <si>
+    <t>(inf)</t>
+  </si>
+  <si>
+    <t>no se deben adquirir los autobuses, ya que al ya tenerse no requiere inversión, haciendo que la TIR sea infinito, e incluso la VPN es mayor en el caso de seguir con microbuses</t>
+  </si>
+  <si>
+    <t>con mayor razón, la misma decisión</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ganancia</t>
+  </si>
+  <si>
+    <t>B (nada)</t>
+  </si>
+  <si>
+    <t>duda: si vpn neg, tir tb neg?</t>
+  </si>
+  <si>
+    <t>VPN / i</t>
+  </si>
+  <si>
+    <t>inf neg</t>
+  </si>
+  <si>
+    <t>conviene echarla a andar, ya que ambas opciones tienen VPN neg, pero si la echamos a andar se pierde menos dinero</t>
+  </si>
+  <si>
+    <t>venta u</t>
+  </si>
+  <si>
+    <t>precio u</t>
+  </si>
+  <si>
+    <t>costo v</t>
+  </si>
+  <si>
+    <t>costo f</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>el valor máximo q se puede pagar por la inversión (o sea invertir) sin que perdamos es -27146.5</t>
+  </si>
+  <si>
+    <t>pago el curso</t>
+  </si>
+  <si>
+    <t>a 5 años</t>
+  </si>
+  <si>
+    <t>barata</t>
+  </si>
+  <si>
+    <t>cara</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>VPN(cara)</t>
+  </si>
+  <si>
+    <t>VPN(bara)</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>el gasto es 0.5 más chico que la inv</t>
+  </si>
+  <si>
+    <t>i cara</t>
+  </si>
+  <si>
+    <t>g cara</t>
+  </si>
+  <si>
+    <t>1000 + VP de 1000*0.5- 333 en 5 años</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>factor (g = i*factor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a menos q el gasto anual sea igual a la inversión inicial, siempre la VPN de la opcion barata implicará menos pérdida. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por lo tanto, a menos q el gasto anual sea igual a la inversión inicial, siempre conviene la opción barata </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -350,7 +523,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
@@ -365,12 +538,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -389,6 +564,2169 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>VPN barato y VPN caro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>cara</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ex15d!$B$30:$AE$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ex15d!$B$31:$AE$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-3184.9327231746461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3474.4720616450686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3764.0114001154911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4053.5507385859137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4343.0900770563358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4632.6294155267578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4922.1687539971799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5211.7080924676029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5501.247430938025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5790.7867694084471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-6080.3261078788701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6369.8654463492921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6659.4047848197142</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6948.9441232901372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7238.4834617605602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7528.0228002309823</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7817.5621387014044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8107.1014771718274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8396.6408156422476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8686.1801541126715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8975.7194925830936</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9265.2588310535157</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9554.7981695239378</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9844.3375079943598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10133.876846464784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10423.416184935206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10712.955523405628</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-11002.49486187605</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11292.034200346472</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-11581.573538816894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57AE-4F56-B300-4252074096B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>bara</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ex15d!$B$32:$AE$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>-1551.8713326834354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1841.4106711538579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2130.95000962428</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2420.4893480947026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2710.0286865651251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2999.5680250355472</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3289.1073635059693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3578.6467019763913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3868.1860404468143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4157.7253789172364</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4447.2647173876594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4736.8040558580815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5026.3433943285036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5315.8827327989266</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5605.4220712693495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5894.9614097397716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6184.5007482101937</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6474.0400866806167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6763.5794251510388</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7053.1187636214618</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7342.6581020918838</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-7632.1974405623041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7921.7367790327271</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8211.2761175031501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8500.8154559735722</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8790.3547944439943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9079.8941329144182</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9369.4334713848402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9658.9728098552623</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9948.5121483256844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57AE-4F56-B300-4252074096B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="818145760"/>
+        <c:axId val="571695488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="818145760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571695488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571695488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818145760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>delta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> VPN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t> =</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419"/>
+              <a:t>amaño</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" baseline="0"/>
+              <a:t> del gasto respecto a inversión</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-419"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ex15d!$A$40:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ex15d!$B$40:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-262.33199421301299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.7466827278318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>495.82535966867641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>874.9040366095212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1253.9827135503663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1633.0613904912109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012.1400674320555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2391.2187443728999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2770.297421313745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3149.3760982545896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3528.4547751954342</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3907.5334521362793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4286.6121290771234</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4665.6908060179685</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5044.7694829588127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5423.8481598996586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5802.9268368405028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6182.0055137813479</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6561.0841907221929</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6940.1628676630371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-025B-4A67-8F27-3B5D0B72417B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="919046960"/>
+        <c:axId val="945564496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="919046960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945564496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945564496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-419"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919046960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-419"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,6 +3069,78 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>432517</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146767</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F58FCE-F9E2-6B66-B61D-F1D7DFC9AC66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>245452</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560510</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDB01AA-5AF8-5C4C-7EB8-DF8ABA448324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -832,6 +3242,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F1FE5F-53B5-AED7-34AB-95695C59F7F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="608136" y="190501"/>
+          <a:ext cx="5040922" cy="1841743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>497158</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>92588</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>24844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4199E368-39C0-5372-91F9-A39F7728B6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="497158" y="32526"/>
+          <a:ext cx="5073467" cy="1516318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -870,6 +3378,388 @@
         <a:xfrm>
           <a:off x="155864" y="1138670"/>
           <a:ext cx="6477444" cy="425045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>318553</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>73603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E836CFC-5D8F-8892-D7E1-DD40DF7C16CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="318553" y="73603"/>
+          <a:ext cx="4648773" cy="1181966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199420</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFA4C05-8B6A-C6FA-ACDE-559B4941D832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="124558" y="51289"/>
+          <a:ext cx="4191000" cy="1794301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>65943</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>51287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>379000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D81042F-02D6-E5B3-C615-58472D2C8F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4322885" y="51287"/>
+          <a:ext cx="4135799" cy="1245577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289034</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446131</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8A0E1D-C266-CC45-8C16-8A470D701A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289034" y="13138"/>
+          <a:ext cx="4170735" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380967</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{220E0D5C-CA78-67AE-DB07-3F0C7C414076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="168088" y="112059"/>
+          <a:ext cx="4448703" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>399051</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>218743</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6CF27E-C09F-79F9-9CD3-849E6E610C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4666251" y="106424"/>
+          <a:ext cx="4696492" cy="1178092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>384585</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2793E705-4EF0-6408-2EC9-3F15FCFF459B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="28575"/>
+          <a:ext cx="5670960" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>240316</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA49A4D-4BD1-3A60-5D89-6CFAAF2D5E22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="72449"/>
+          <a:ext cx="4885918" cy="1741379"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1524,7 +4414,7 @@
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +4660,7 @@
         <v>-1000000</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:H20" si="5">D18/(1+D19)^(D11)</f>
+        <f t="shared" ref="D20:G20" si="5">D18/(1+D19)^(D11)</f>
         <v>0</v>
       </c>
       <c r="E20">
@@ -1918,7 +4808,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="C16:D16" si="2">$A$10</f>
+        <f t="shared" ref="D16" si="2">$A$10</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1990,7 +4880,7 @@
         <v>1000.0000000000001</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="C20:D20" si="5">D18/(1+D19)^(D11)</f>
+        <f t="shared" ref="D20" si="5">D18/(1+D19)^(D11)</f>
         <v>465.02835538752373</v>
       </c>
       <c r="E20" s="2">
@@ -2188,7 +5078,7 @@
         <v>0.2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" ref="D16:E16" si="5">$A$10</f>
+        <f t="shared" ref="D16" si="5">$A$10</f>
         <v>0.2</v>
       </c>
       <c r="G16" t="s">
@@ -3196,52 +6086,49 @@
       <c r="A11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12">
         <v>-10000</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12">
         <v>2000</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12">
         <v>12000</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="1">
         <f>$A$10</f>
         <v>0.1</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="1">
         <f t="shared" ref="C13:D13" si="0">$A$10</f>
         <v>0.1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -3259,11 +6146,11 @@
         <f t="shared" si="1"/>
         <v>9917.355371900825</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <f>SUM(B14:D14)</f>
         <v>1735.5371900826431</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>0.19999999997519199</v>
       </c>
     </row>
@@ -3285,52 +6172,49 @@
       <c r="A17" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18">
         <v>-10000</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18">
         <v>10500</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18">
         <v>20000</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="1">
         <f>$A$16</f>
         <v>0.1</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="1">
         <f t="shared" ref="C19:D19" si="2">$A$16</f>
         <v>0.1</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="1">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="23">
+      <c r="F19" s="21">
         <f>IRR(B18:D18)</f>
         <v>1.0335174841544865</v>
       </c>
@@ -3351,11 +6235,11 @@
         <f t="shared" si="3"/>
         <v>16528.925619834707</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <f>SUM(B20:D20)</f>
         <v>16074.380165289251</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>1.0335174547386701</v>
       </c>
     </row>
@@ -3377,50 +6261,46 @@
       <c r="A23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24">
         <v>-10000</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24">
         <v>12000</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="1">
         <f>$A$22</f>
         <v>0.199999944002687</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="1">
         <f t="shared" ref="C25:D25" si="4">$A$22</f>
         <v>0.199999944002687</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="1">
         <f t="shared" si="4"/>
         <v>0.199999944002687</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -3438,11 +6318,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="20">
         <f>SUM(B26:D26)</f>
         <v>4.6664429646625649E-4</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>0.199999944002687</v>
       </c>
     </row>
@@ -3454,10 +6334,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675E4367-2A6A-4CD7-9D9C-9C5B4CDF4F9C}">
-  <dimension ref="A14:L21"/>
+  <dimension ref="A14:AE59"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3519,7 +6399,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3548,7 +6428,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -3589,7 +6469,7 @@
         <v>-0.8953933847042238</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>13</v>
       </c>
@@ -3618,7 +6498,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3647,7 +6527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -3689,6 +6569,874 @@
       </c>
       <c r="L21" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>-2000</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <f>B23*0.5</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="15">
+        <f>$B$23</f>
+        <v>-2000</v>
+      </c>
+      <c r="C25" s="15">
+        <f>B23*0.5</f>
+        <v>-1000</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" ref="D25:G25" si="5">$D$23</f>
+        <v>-1000</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="5"/>
+        <v>-1000</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="5"/>
+        <v>-1000</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="5"/>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <f>B25/(1+$A$24)^(B24)</f>
+        <v>-2000</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="6">C25/(1+$A$24)^(C24)</f>
+        <v>-909.09090909090901</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>-826.44628099173542</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>-751.31480090157754</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>-683.01345536507051</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>-620.92132305915493</v>
+      </c>
+      <c r="H26">
+        <f>SUM(B26:G26)</f>
+        <v>-5790.7867694084471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="15">
+        <f>$B$23+1000</f>
+        <v>-1000</v>
+      </c>
+      <c r="C27" s="15">
+        <f>$D$23*$A$30-333</f>
+        <v>-833</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" ref="D27:G27" si="7">$D$23*$A$30-333</f>
+        <v>-833</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="7"/>
+        <v>-833</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="7"/>
+        <v>-833</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="7"/>
+        <v>-833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <f>B27/(1+$A$24)^(B24)</f>
+        <v>-1000</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:G28" si="8">C27/(1+$A$24)^(C24)</f>
+        <v>-757.27272727272725</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="8"/>
+        <v>-688.42975206611561</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="8"/>
+        <v>-625.84522915101411</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>-568.95020831910369</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>-517.22746210827609</v>
+      </c>
+      <c r="H28">
+        <f>SUM(B28:G28)</f>
+        <v>-4157.7253789172364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.5</v>
+      </c>
+      <c r="B30">
+        <v>-1100</v>
+      </c>
+      <c r="C30">
+        <v>-1200</v>
+      </c>
+      <c r="D30">
+        <v>-1300</v>
+      </c>
+      <c r="E30">
+        <v>-1400</v>
+      </c>
+      <c r="F30">
+        <v>-1500</v>
+      </c>
+      <c r="G30">
+        <v>-1600</v>
+      </c>
+      <c r="H30">
+        <v>-1700</v>
+      </c>
+      <c r="I30">
+        <v>-1800</v>
+      </c>
+      <c r="J30">
+        <v>-1900</v>
+      </c>
+      <c r="K30">
+        <v>-2000</v>
+      </c>
+      <c r="L30">
+        <v>-2100</v>
+      </c>
+      <c r="M30">
+        <v>-2200</v>
+      </c>
+      <c r="N30">
+        <v>-2300</v>
+      </c>
+      <c r="O30">
+        <v>-2400</v>
+      </c>
+      <c r="P30">
+        <v>-2500</v>
+      </c>
+      <c r="Q30">
+        <v>-2600</v>
+      </c>
+      <c r="R30">
+        <v>-2700</v>
+      </c>
+      <c r="S30">
+        <v>-2800</v>
+      </c>
+      <c r="T30">
+        <v>-2900</v>
+      </c>
+      <c r="U30">
+        <v>-3000</v>
+      </c>
+      <c r="V30">
+        <v>-3100</v>
+      </c>
+      <c r="W30">
+        <v>-3200</v>
+      </c>
+      <c r="X30">
+        <v>-3300</v>
+      </c>
+      <c r="Y30">
+        <v>-3400</v>
+      </c>
+      <c r="Z30">
+        <v>-3500</v>
+      </c>
+      <c r="AA30">
+        <v>-3600</v>
+      </c>
+      <c r="AB30">
+        <v>-3700</v>
+      </c>
+      <c r="AC30">
+        <v>-3800</v>
+      </c>
+      <c r="AD30">
+        <v>-3900</v>
+      </c>
+      <c r="AE30">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31">
+        <f>B30+(B30*$A$30)/(1+$A$24)^(1)+(B30*$A$30)/(1+$A$24)^(2)+(B30*$A$30)/(1+$A$24)^(3)+(B30*$A$30)/(1+$A$24)^(4)+(B30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-3184.9327231746461</v>
+      </c>
+      <c r="C31">
+        <f>C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-3474.4720616450686</v>
+      </c>
+      <c r="D31">
+        <f>D30+(D30*$A$30)/(1+$A$24)^(1)+(D30*$A$30)/(1+$A$24)^(2)+(D30*$A$30)/(1+$A$24)^(3)+(D30*$A$30)/(1+$A$24)^(4)+(D30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-3764.0114001154911</v>
+      </c>
+      <c r="E31">
+        <f>E30+(E30*$A$30)/(1+$A$24)^(1)+(E30*$A$30)/(1+$A$24)^(2)+(E30*$A$30)/(1+$A$24)^(3)+(E30*$A$30)/(1+$A$24)^(4)+(E30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-4053.5507385859137</v>
+      </c>
+      <c r="F31">
+        <f>F30+(F30*$A$30)/(1+$A$24)^(1)+(F30*$A$30)/(1+$A$24)^(2)+(F30*$A$30)/(1+$A$24)^(3)+(F30*$A$30)/(1+$A$24)^(4)+(F30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-4343.0900770563358</v>
+      </c>
+      <c r="G31">
+        <f>G30+(G30*$A$30)/(1+$A$24)^(1)+(G30*$A$30)/(1+$A$24)^(2)+(G30*$A$30)/(1+$A$24)^(3)+(G30*$A$30)/(1+$A$24)^(4)+(G30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-4632.6294155267578</v>
+      </c>
+      <c r="H31">
+        <f>H30+(H30*$A$30)/(1+$A$24)^(1)+(H30*$A$30)/(1+$A$24)^(2)+(H30*$A$30)/(1+$A$24)^(3)+(H30*$A$30)/(1+$A$24)^(4)+(H30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-4922.1687539971799</v>
+      </c>
+      <c r="I31">
+        <f>I30+(I30*$A$30)/(1+$A$24)^(1)+(I30*$A$30)/(1+$A$24)^(2)+(I30*$A$30)/(1+$A$24)^(3)+(I30*$A$30)/(1+$A$24)^(4)+(I30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-5211.7080924676029</v>
+      </c>
+      <c r="J31">
+        <f>J30+(J30*$A$30)/(1+$A$24)^(1)+(J30*$A$30)/(1+$A$24)^(2)+(J30*$A$30)/(1+$A$24)^(3)+(J30*$A$30)/(1+$A$24)^(4)+(J30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-5501.247430938025</v>
+      </c>
+      <c r="K31">
+        <f>K30+(K30*$A$30)/(1+$A$24)^(1)+(K30*$A$30)/(1+$A$24)^(2)+(K30*$A$30)/(1+$A$24)^(3)+(K30*$A$30)/(1+$A$24)^(4)+(K30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-5790.7867694084471</v>
+      </c>
+      <c r="L31">
+        <f>L30+(L30*$A$30)/(1+$A$24)^(1)+(L30*$A$30)/(1+$A$24)^(2)+(L30*$A$30)/(1+$A$24)^(3)+(L30*$A$30)/(1+$A$24)^(4)+(L30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-6080.3261078788701</v>
+      </c>
+      <c r="M31">
+        <f>M30+(M30*$A$30)/(1+$A$24)^(1)+(M30*$A$30)/(1+$A$24)^(2)+(M30*$A$30)/(1+$A$24)^(3)+(M30*$A$30)/(1+$A$24)^(4)+(M30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-6369.8654463492921</v>
+      </c>
+      <c r="N31">
+        <f>N30+(N30*$A$30)/(1+$A$24)^(1)+(N30*$A$30)/(1+$A$24)^(2)+(N30*$A$30)/(1+$A$24)^(3)+(N30*$A$30)/(1+$A$24)^(4)+(N30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-6659.4047848197142</v>
+      </c>
+      <c r="O31">
+        <f>O30+(O30*$A$30)/(1+$A$24)^(1)+(O30*$A$30)/(1+$A$24)^(2)+(O30*$A$30)/(1+$A$24)^(3)+(O30*$A$30)/(1+$A$24)^(4)+(O30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-6948.9441232901372</v>
+      </c>
+      <c r="P31">
+        <f>P30+(P30*$A$30)/(1+$A$24)^(1)+(P30*$A$30)/(1+$A$24)^(2)+(P30*$A$30)/(1+$A$24)^(3)+(P30*$A$30)/(1+$A$24)^(4)+(P30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-7238.4834617605602</v>
+      </c>
+      <c r="Q31">
+        <f>Q30+(Q30*$A$30)/(1+$A$24)^(1)+(Q30*$A$30)/(1+$A$24)^(2)+(Q30*$A$30)/(1+$A$24)^(3)+(Q30*$A$30)/(1+$A$24)^(4)+(Q30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-7528.0228002309823</v>
+      </c>
+      <c r="R31">
+        <f>R30+(R30*$A$30)/(1+$A$24)^(1)+(R30*$A$30)/(1+$A$24)^(2)+(R30*$A$30)/(1+$A$24)^(3)+(R30*$A$30)/(1+$A$24)^(4)+(R30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-7817.5621387014044</v>
+      </c>
+      <c r="S31">
+        <f>S30+(S30*$A$30)/(1+$A$24)^(1)+(S30*$A$30)/(1+$A$24)^(2)+(S30*$A$30)/(1+$A$24)^(3)+(S30*$A$30)/(1+$A$24)^(4)+(S30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-8107.1014771718274</v>
+      </c>
+      <c r="T31">
+        <f>T30+(T30*$A$30)/(1+$A$24)^(1)+(T30*$A$30)/(1+$A$24)^(2)+(T30*$A$30)/(1+$A$24)^(3)+(T30*$A$30)/(1+$A$24)^(4)+(T30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-8396.6408156422476</v>
+      </c>
+      <c r="U31">
+        <f>U30+(U30*$A$30)/(1+$A$24)^(1)+(U30*$A$30)/(1+$A$24)^(2)+(U30*$A$30)/(1+$A$24)^(3)+(U30*$A$30)/(1+$A$24)^(4)+(U30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-8686.1801541126715</v>
+      </c>
+      <c r="V31">
+        <f>V30+(V30*$A$30)/(1+$A$24)^(1)+(V30*$A$30)/(1+$A$24)^(2)+(V30*$A$30)/(1+$A$24)^(3)+(V30*$A$30)/(1+$A$24)^(4)+(V30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-8975.7194925830936</v>
+      </c>
+      <c r="W31">
+        <f>W30+(W30*$A$30)/(1+$A$24)^(1)+(W30*$A$30)/(1+$A$24)^(2)+(W30*$A$30)/(1+$A$24)^(3)+(W30*$A$30)/(1+$A$24)^(4)+(W30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-9265.2588310535157</v>
+      </c>
+      <c r="X31">
+        <f>X30+(X30*$A$30)/(1+$A$24)^(1)+(X30*$A$30)/(1+$A$24)^(2)+(X30*$A$30)/(1+$A$24)^(3)+(X30*$A$30)/(1+$A$24)^(4)+(X30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-9554.7981695239378</v>
+      </c>
+      <c r="Y31">
+        <f>Y30+(Y30*$A$30)/(1+$A$24)^(1)+(Y30*$A$30)/(1+$A$24)^(2)+(Y30*$A$30)/(1+$A$24)^(3)+(Y30*$A$30)/(1+$A$24)^(4)+(Y30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-9844.3375079943598</v>
+      </c>
+      <c r="Z31">
+        <f>Z30+(Z30*$A$30)/(1+$A$24)^(1)+(Z30*$A$30)/(1+$A$24)^(2)+(Z30*$A$30)/(1+$A$24)^(3)+(Z30*$A$30)/(1+$A$24)^(4)+(Z30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-10133.876846464784</v>
+      </c>
+      <c r="AA31">
+        <f>AA30+(AA30*$A$30)/(1+$A$24)^(1)+(AA30*$A$30)/(1+$A$24)^(2)+(AA30*$A$30)/(1+$A$24)^(3)+(AA30*$A$30)/(1+$A$24)^(4)+(AA30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-10423.416184935206</v>
+      </c>
+      <c r="AB31">
+        <f>AB30+(AB30*$A$30)/(1+$A$24)^(1)+(AB30*$A$30)/(1+$A$24)^(2)+(AB30*$A$30)/(1+$A$24)^(3)+(AB30*$A$30)/(1+$A$24)^(4)+(AB30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-10712.955523405628</v>
+      </c>
+      <c r="AC31">
+        <f>AC30+(AC30*$A$30)/(1+$A$24)^(1)+(AC30*$A$30)/(1+$A$24)^(2)+(AC30*$A$30)/(1+$A$24)^(3)+(AC30*$A$30)/(1+$A$24)^(4)+(AC30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-11002.49486187605</v>
+      </c>
+      <c r="AD31">
+        <f>AD30+(AD30*$A$30)/(1+$A$24)^(1)+(AD30*$A$30)/(1+$A$24)^(2)+(AD30*$A$30)/(1+$A$24)^(3)+(AD30*$A$30)/(1+$A$24)^(4)+(AD30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-11292.034200346472</v>
+      </c>
+      <c r="AE31">
+        <f>AE30+(AE30*$A$30)/(1+$A$24)^(1)+(AE30*$A$30)/(1+$A$24)^(2)+(AE30*$A$30)/(1+$A$24)^(3)+(AE30*$A$30)/(1+$A$24)^(4)+(AE30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-11581.573538816894</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:J32" si="9">(B30+1000)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
+        <v>-1551.8713326834354</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="9"/>
+        <v>-1841.4106711538579</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>-2130.95000962428</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="9"/>
+        <v>-2420.4893480947026</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="9"/>
+        <v>-2710.0286865651251</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>-2999.5680250355472</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>-3289.1073635059693</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>-3578.6467019763913</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="9"/>
+        <v>-3868.1860404468143</v>
+      </c>
+      <c r="K32">
+        <f>(K30+1000)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
+        <v>-4157.7253789172364</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32:AE32" si="10">(L30+1000)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
+        <v>-4447.2647173876594</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="10"/>
+        <v>-4736.8040558580815</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>-5026.3433943285036</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>-5315.8827327989266</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="10"/>
+        <v>-5605.4220712693495</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="10"/>
+        <v>-5894.9614097397716</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>-6184.5007482101937</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="10"/>
+        <v>-6474.0400866806167</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="10"/>
+        <v>-6763.5794251510388</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="10"/>
+        <v>-7053.1187636214618</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="10"/>
+        <v>-7342.6581020918838</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="10"/>
+        <v>-7632.1974405623041</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>-7921.7367790327271</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="10"/>
+        <v>-8211.2761175031501</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="10"/>
+        <v>-8500.8154559735722</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="10"/>
+        <v>-8790.3547944439943</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="10"/>
+        <v>-9079.8941329144182</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="10"/>
+        <v>-9369.4334713848402</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="10"/>
+        <v>-9658.9728098552623</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="10"/>
+        <v>-9948.5121483256844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <f>ABS(B31)-ABS(B32)</f>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:AE33" si="11">ABS(C31)-ABS(C32)</f>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912111</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912111</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912116</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912088</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912116</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912107</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912116</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912116</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="11"/>
+        <v>1633.0613904912097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <f>1000+(1000*$A$30-333)/(1+$A$24)^(1)+(1000*$A$30-333)/(1+$A$24)^(2)+(1000*$A$30-333)/(1+$A$24)^(3)+(1000*$A$30-333)/(1+$A$24)^(4)+(1000*$A$30-333)/(1+$A$24)^(5)</f>
+        <v>1633.0613904912109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <f>B35*A30</f>
+        <v>-550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>1000+(1000*A40-333)/(1+$A$24)^(1)+(1000*A40-333)/(1+$A$24)^(2)+(1000*A40-333)/(1+$A$24)^(3)+(1000*A40-333)/(1+$A$24)^(4)+(1000*A40-333)/(1+$A$24)^(5)</f>
+        <v>-262.33199421301299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.1</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B59" si="12">1000+(1000*A41-333)/(1+$A$24)^(1)+(1000*A41-333)/(1+$A$24)^(2)+(1000*A41-333)/(1+$A$24)^(3)+(1000*A41-333)/(1+$A$24)^(4)+(1000*A41-333)/(1+$A$24)^(5)</f>
+        <v>116.7466827278318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.2</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="12"/>
+        <v>495.82535966867641</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.3</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="12"/>
+        <v>874.9040366095212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.4</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="12"/>
+        <v>1253.9827135503663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.5</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="12"/>
+        <v>1633.0613904912109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.6</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="12"/>
+        <v>2012.1400674320555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.7</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="12"/>
+        <v>2391.2187443728999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.8</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="12"/>
+        <v>2770.297421313745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.9</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="12"/>
+        <v>3149.3760982545896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="12"/>
+        <v>3528.4547751954342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="12"/>
+        <v>3907.5334521362793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.2</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="12"/>
+        <v>4286.6121290771234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.3</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="12"/>
+        <v>4665.6908060179685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.4</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="12"/>
+        <v>5044.7694829588127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="12"/>
+        <v>5423.8481598996586</v>
+      </c>
+      <c r="D55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.6</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="12"/>
+        <v>5802.9268368405028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.7</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="12"/>
+        <v>6182.0055137813479</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.8</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="12"/>
+        <v>6561.0841907221929</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.9</v>
+      </c>
+      <c r="B59">
+        <f>1000+(1000*A59-333)/(1+$A$24)^(1)+(1000*A59-333)/(1+$A$24)^(2)+(1000*A59-333)/(1+$A$24)^(3)+(1000*A59-333)/(1+$A$24)^(4)+(1000*A59-333)/(1+$A$24)^(5)</f>
+        <v>6940.1628676630371</v>
       </c>
     </row>
   </sheetData>
@@ -3702,7 +7450,7 @@
   <dimension ref="B8:L17"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078CDAC9-A9F9-4F9F-A48B-FF2696E6D7F7}">
   <dimension ref="B10:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3968,7 +7716,7 @@
         <v>-10000</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:E14" si="1">D12/(1+D13)^(D11)</f>
+        <f t="shared" ref="D14" si="1">D12/(1+D13)^(D11)</f>
         <v>0</v>
       </c>
       <c r="E14">
@@ -4266,6 +8014,339 @@
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E52AB25-B78C-4726-B2F8-04AD68AFD30F}">
+  <dimension ref="A12:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <f>600/700</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>-600</v>
+      </c>
+      <c r="C14" s="15">
+        <v>500</v>
+      </c>
+      <c r="D14" s="15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <f>$A$12</f>
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:D15" si="0">$A$12</f>
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>B14/(1+B15)^(B13)</f>
+        <v>-600</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:D16" si="1">C14/(1+C15)^(C13)</f>
+        <v>476.19047619047615</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>544.21768707482988</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM(B16:D16)</f>
+        <v>420.40816326530603</v>
+      </c>
+      <c r="F16" s="1">
+        <f>IRR(B14:D14)</f>
+        <v>0.49999999999945532</v>
+      </c>
+      <c r="G16">
+        <f>E16/B14</f>
+        <v>-0.70068027210884343</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-700</v>
+      </c>
+      <c r="C17" s="15">
+        <v>800</v>
+      </c>
+      <c r="D17" s="15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <f>$A$12</f>
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:D18" si="2">$A$12</f>
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <f>B17/(1+B18)^(B13)</f>
+        <v>-700</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="3">C17/(1+C18)^(C13)</f>
+        <v>761.90476190476193</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>362.81179138321994</v>
+      </c>
+      <c r="E19" s="2">
+        <f>SUM(B19:D19)</f>
+        <v>424.71655328798187</v>
+      </c>
+      <c r="F19" s="1">
+        <f>IRR(B17:D17)</f>
+        <v>0.51903565438724919</v>
+      </c>
+      <c r="G19">
+        <f>E19/B17</f>
+        <v>-0.60673793326854553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <f>B17-B14</f>
+        <v>-100</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:D20" si="4">C17-C14</f>
+        <v>300</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <f>$A$12</f>
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:D21" si="5">$A$12</f>
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <f>B20/(1+B21)^(B13)</f>
+        <v>-100</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="6">C20/(1+C21)^(C13)</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>-181.40589569160997</v>
+      </c>
+      <c r="E22" s="2">
+        <f>SUM(B22:D22)</f>
+        <v>4.3083900226757521</v>
+      </c>
+      <c r="F22" s="1">
+        <f>IRR(B20:D20)</f>
+        <v>7.9936057773011271E-15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4FEAB-0657-4F05-B712-417E4927A60C}">
+  <dimension ref="A10:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>-50</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <f>$A$10</f>
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:D13" si="0">$A$10</f>
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <f>B12/(1+B13)^(B11)</f>
+        <v>-50</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="1">C12/(1+C13)^(C11)</f>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>90.702947845804985</v>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM(B14:D14)</f>
+        <v>183.56009070294783</v>
+      </c>
+      <c r="F14" s="14">
+        <f>IRR(B12:D12)</f>
+        <v>2.5615528128073795</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4568,6 +8649,4558 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA657E1F-4727-4CE7-94F3-AC92CB58CD41}">
+  <dimension ref="A9:H16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <v>-20000</v>
+      </c>
+      <c r="C11" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f>$A$9</f>
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>$A$9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <f>B11/(1+B12)^(B10)</f>
+        <v>-20000</v>
+      </c>
+      <c r="C13">
+        <f>C11/(1+C12)^(C10)</f>
+        <v>27272.727272727272</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(B13:C13)</f>
+        <v>7272.7272727272721</v>
+      </c>
+      <c r="E13" s="14">
+        <f>IRR(B11:C11)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <f>D13/B11</f>
+        <v>-0.36363636363636359</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15">
+        <v>-100000</v>
+      </c>
+      <c r="C14" s="15">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <f>$A$9</f>
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="1">
+        <f>$A$9</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>B14/(1+B15)^(B10)</f>
+        <v>-100000</v>
+      </c>
+      <c r="C16">
+        <f>C14/(1+C15)^(C10)</f>
+        <v>118181.81818181818</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(B16:C16)</f>
+        <v>18181.818181818177</v>
+      </c>
+      <c r="E16" s="14">
+        <f>IRR(B14:C14)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F16">
+        <f>D16/B14</f>
+        <v>-0.18181818181818177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69098D6C-CCF0-4E20-87FA-FD5D71473494}">
+  <dimension ref="A11:BC33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="53" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <v>19</v>
+      </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <v>21</v>
+      </c>
+      <c r="X12">
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <v>23</v>
+      </c>
+      <c r="Z12">
+        <v>24</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>26</v>
+      </c>
+      <c r="AC12">
+        <v>27</v>
+      </c>
+      <c r="AD12">
+        <v>28</v>
+      </c>
+      <c r="AE12">
+        <v>29</v>
+      </c>
+      <c r="AF12">
+        <v>30</v>
+      </c>
+      <c r="AG12">
+        <v>31</v>
+      </c>
+      <c r="AH12">
+        <v>32</v>
+      </c>
+      <c r="AI12">
+        <v>33</v>
+      </c>
+      <c r="AJ12">
+        <v>34</v>
+      </c>
+      <c r="AK12">
+        <v>35</v>
+      </c>
+      <c r="AL12">
+        <v>36</v>
+      </c>
+      <c r="AM12">
+        <v>37</v>
+      </c>
+      <c r="AN12">
+        <v>38</v>
+      </c>
+      <c r="AO12">
+        <v>39</v>
+      </c>
+      <c r="AP12">
+        <v>40</v>
+      </c>
+      <c r="AQ12">
+        <v>41</v>
+      </c>
+      <c r="AR12">
+        <v>42</v>
+      </c>
+      <c r="AS12">
+        <v>43</v>
+      </c>
+      <c r="AT12">
+        <v>44</v>
+      </c>
+      <c r="AU12">
+        <v>45</v>
+      </c>
+      <c r="AV12">
+        <v>46</v>
+      </c>
+      <c r="AW12">
+        <v>47</v>
+      </c>
+      <c r="AX12">
+        <v>48</v>
+      </c>
+      <c r="AY12">
+        <v>49</v>
+      </c>
+      <c r="AZ12">
+        <v>50</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="15">
+        <v>-60000000</v>
+      </c>
+      <c r="C13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="D13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="E13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="F13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="G13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="I13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="J13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="K13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="L13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="M13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="N13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="O13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="P13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="R13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="S13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="T13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="U13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="V13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="W13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="X13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AK13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AL13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AM13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AN13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AO13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AP13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AQ13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AR13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AS13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AT13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AU13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AV13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AW13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AX13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AY13" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="AZ13" s="15">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <f>$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:AZ14" si="0">$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AN14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AO14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AP14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AT14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AU14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AW14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AX14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AY14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="AZ14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <f>B13/(1+B14)^(B12)</f>
+        <v>-60000000</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AZ15" si="1">C13/(1+C14)^(C12)</f>
+        <v>14285714.285714285</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>13605442.176870748</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>12957563.977972141</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>12340537.121878229</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>11752892.497026885</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>11193230.949549414</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>10660219.951951822</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>10152590.430430308</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>9669133.7432669587</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>9208698.8031113893</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>8770189.3362965602</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>8352561.2726633931</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>7954820.2596794199</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>7576019.2949327826</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>7215256.4713645531</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>6871672.8298710035</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>6544450.3141628597</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>6232809.8230122468</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>5936009.3552497588</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>5653342.2430950087</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>5384135.4696142944</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>5127748.0662993286</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>4883569.5869517401</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>4651018.6542397533</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>4429541.5754664317</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>4218611.0242537446</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>4017724.7850035657</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>3826404.5571462535</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>3644194.8163297647</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>3470661.7298378721</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>3305392.1236551153</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>3147992.4987191572</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="1"/>
+        <v>2998088.0940182451</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="1"/>
+        <v>2855321.9943030905</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="1"/>
+        <v>2719354.2802886572</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="1"/>
+        <v>2589861.219322531</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="1"/>
+        <v>2466534.4945928864</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="1"/>
+        <v>2349080.4710408449</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="1"/>
+        <v>2237219.4962293757</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="1"/>
+        <v>2130685.2345041675</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="1"/>
+        <v>2029224.0328611117</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="1"/>
+        <v>1932594.3170105827</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="1"/>
+        <v>1840566.0162005546</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="1"/>
+        <v>1752920.0154290998</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="1"/>
+        <v>1669447.6337419995</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="1"/>
+        <v>1589950.1273733333</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="1"/>
+        <v>1514238.2165460312</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="1"/>
+        <v>1442131.634805744</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="1"/>
+        <v>1373458.6998149944</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="1"/>
+        <v>1308055.9045857089</v>
+      </c>
+      <c r="BA15" s="2">
+        <f>SUM(B15:AZ15)</f>
+        <v>213838881.90828577</v>
+      </c>
+      <c r="BB15" s="14">
+        <f>IRR(B13:AZ13)</f>
+        <v>0.24999643137139937</v>
+      </c>
+      <c r="BC15">
+        <f>BA15/B13</f>
+        <v>-3.5639813651380963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="15">
+        <v>-100000000</v>
+      </c>
+      <c r="C16" s="15">
+        <v>20000000</v>
+      </c>
+      <c r="D16" s="15">
+        <f>C16-2000000</f>
+        <v>18000000</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:K16" si="2">D16-2000000</f>
+        <v>16000000</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="2"/>
+        <v>14000000</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="2"/>
+        <v>12000000</v>
+      </c>
+      <c r="H16" s="15">
+        <f>G16-2000000</f>
+        <v>10000000</v>
+      </c>
+      <c r="I16" s="15">
+        <f>H16</f>
+        <v>10000000</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" ref="J16:AZ16" si="3">I16</f>
+        <v>10000000</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="O16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="R16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="V16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="W16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="X16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="Z16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AA16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AB16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AC16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AD16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AE16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AF16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AG16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AH16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AI16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AJ16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AK16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AL16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AM16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AN16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AO16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AP16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AQ16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AR16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AS16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AT16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AU16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AV16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AW16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AX16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AY16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+      <c r="AZ16" s="15">
+        <f t="shared" si="3"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <f>$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:AZ17" si="4">$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AN17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AO17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AP17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AT17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AU17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AW17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AX17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AY17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AZ17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <f>B16/(1+B17)^(B12)</f>
+        <v>-100000000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:AZ18" si="5">C16/(1+C17)^(C12)</f>
+        <v>19047619.047619049</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>16326530.612244897</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>13821401.576503616</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>11517834.647086348</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>9402313.9976215083</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>7462153.9663662771</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>7106813.3013012148</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>6768393.6202868717</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>6446089.1621779725</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>6139132.5354075935</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>5846792.8908643741</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>5568374.1817755951</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>5303213.5064529469</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>5050679.5299551887</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>4810170.9809097014</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>4581115.2199140023</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>4362966.8761085728</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>4155206.5486748316</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="5"/>
+        <v>3957339.5701665063</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>3768894.8287300058</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="5"/>
+        <v>3589423.6464095297</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="5"/>
+        <v>3418498.7108662189</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>3255713.0579678267</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="5"/>
+        <v>3100679.1028265022</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="5"/>
+        <v>2953027.716977621</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>2812407.349502496</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>2678483.1900023771</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>2550936.3714308357</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="5"/>
+        <v>2429463.2108865096</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="5"/>
+        <v>2313774.4865585812</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="5"/>
+        <v>2203594.7491034102</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="5"/>
+        <v>2098661.6658127718</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>1998725.3960121635</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="5"/>
+        <v>1903547.9962020605</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="5"/>
+        <v>1812902.8535257715</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="5"/>
+        <v>1726574.1462150207</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="5"/>
+        <v>1644356.329728591</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="5"/>
+        <v>1566053.6473605633</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="5"/>
+        <v>1491479.664152917</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="5"/>
+        <v>1420456.8230027782</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="5"/>
+        <v>1352816.0219074078</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="5"/>
+        <v>1288396.2113403883</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="5"/>
+        <v>1227044.0108003698</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="5"/>
+        <v>1168613.3436193999</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="5"/>
+        <v>1112965.0891613329</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="5"/>
+        <v>1059966.7515822221</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="5"/>
+        <v>1009492.1443640208</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="5"/>
+        <v>961421.08987049607</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="5"/>
+        <v>915639.13320999616</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="5"/>
+        <v>872037.26972380595</v>
+      </c>
+      <c r="BA18" s="2">
+        <f>SUM(B18:AZ18)</f>
+        <v>109380187.78029107</v>
+      </c>
+      <c r="BB18" s="14">
+        <f>IRR(B16:AZ16)</f>
+        <v>0.12930760823284193</v>
+      </c>
+      <c r="BC18">
+        <f>BA18/B16</f>
+        <v>-1.0938018778029106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="15">
+        <v>-100000000</v>
+      </c>
+      <c r="C23" s="15">
+        <v>20000000</v>
+      </c>
+      <c r="D23" s="15">
+        <f>C23-2000000</f>
+        <v>18000000</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" ref="E23:K23" si="6">D23-2000000</f>
+        <v>16000000</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="6"/>
+        <v>14000000</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="6"/>
+        <v>12000000</v>
+      </c>
+      <c r="H23" s="15">
+        <f>G23-2000000</f>
+        <v>10000000</v>
+      </c>
+      <c r="I23" s="15">
+        <f>H23</f>
+        <v>10000000</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" ref="J23:AZ23" si="7">I23</f>
+        <v>10000000</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="N23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="O23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="P23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="Q23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="R23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="S23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="V23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="W23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="X23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="Y23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="Z23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AA23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AB23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AC23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AD23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AE23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AF23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AG23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AH23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AI23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AJ23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AK23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AL23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AM23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AN23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AO23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AP23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AQ23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AR23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AS23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AT23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AU23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AV23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AW23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AX23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AY23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+      <c r="AZ23" s="15">
+        <f t="shared" si="7"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <f>$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:AZ24" si="8">$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AH24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AO24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AP24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AR24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AS24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AT24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AU24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AV24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AW24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AX24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AY24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="AZ24" s="1">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <f>B23/(1+B24)^(B19)</f>
+        <v>-100000000</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25" si="9">C23/(1+C24)^(C19)</f>
+        <v>20000000</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="10">D23/(1+D24)^(D19)</f>
+        <v>18000000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="11">E23/(1+E24)^(E19)</f>
+        <v>16000000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="12">F23/(1+F24)^(F19)</f>
+        <v>14000000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25" si="13">G23/(1+G24)^(G19)</f>
+        <v>12000000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25" si="14">H23/(1+H24)^(H19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="15">I23/(1+I24)^(I19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="16">J23/(1+J24)^(J19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="17">K23/(1+K24)^(K19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="18">L23/(1+L24)^(L19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25" si="19">M23/(1+M24)^(M19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25" si="20">N23/(1+N24)^(N19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25" si="21">O23/(1+O24)^(O19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25" si="22">P23/(1+P24)^(P19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25" si="23">Q23/(1+Q24)^(Q19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25" si="24">R23/(1+R24)^(R19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25" si="25">S23/(1+S24)^(S19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25" si="26">T23/(1+T24)^(T19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25" si="27">U23/(1+U24)^(U19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25" si="28">V23/(1+V24)^(V19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25" si="29">W23/(1+W24)^(W19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25" si="30">X23/(1+X24)^(X19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ref="Y25" si="31">Y23/(1+Y24)^(Y19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25" si="32">Z23/(1+Z24)^(Z19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ref="AA25" si="33">AA23/(1+AA24)^(AA19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" ref="AB25" si="34">AB23/(1+AB24)^(AB19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" ref="AC25" si="35">AC23/(1+AC24)^(AC19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" ref="AD25" si="36">AD23/(1+AD24)^(AD19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" ref="AE25" si="37">AE23/(1+AE24)^(AE19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" ref="AF25" si="38">AF23/(1+AF24)^(AF19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" ref="AG25" si="39">AG23/(1+AG24)^(AG19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" ref="AH25" si="40">AH23/(1+AH24)^(AH19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" ref="AI25" si="41">AI23/(1+AI24)^(AI19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" ref="AJ25" si="42">AJ23/(1+AJ24)^(AJ19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" ref="AK25" si="43">AK23/(1+AK24)^(AK19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" ref="AL25" si="44">AL23/(1+AL24)^(AL19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" ref="AM25" si="45">AM23/(1+AM24)^(AM19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" ref="AN25" si="46">AN23/(1+AN24)^(AN19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" ref="AO25" si="47">AO23/(1+AO24)^(AO19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" ref="AP25" si="48">AP23/(1+AP24)^(AP19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" ref="AQ25" si="49">AQ23/(1+AQ24)^(AQ19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" ref="AR25" si="50">AR23/(1+AR24)^(AR19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" ref="AS25" si="51">AS23/(1+AS24)^(AS19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" ref="AT25" si="52">AT23/(1+AT24)^(AT19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" ref="AU25" si="53">AU23/(1+AU24)^(AU19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" ref="AV25" si="54">AV23/(1+AV24)^(AV19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" ref="AW25" si="55">AW23/(1+AW24)^(AW19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" ref="AX25" si="56">AX23/(1+AX24)^(AX19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" ref="AY25" si="57">AY23/(1+AY24)^(AY19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" ref="AZ25" si="58">AZ23/(1+AZ24)^(AZ19)</f>
+        <v>10000000</v>
+      </c>
+      <c r="BA25" s="2">
+        <f>SUM(B25:AZ25)</f>
+        <v>430000000</v>
+      </c>
+      <c r="BB25" s="14">
+        <f>IRR(B23:AZ23)</f>
+        <v>0.12930760823284193</v>
+      </c>
+      <c r="BC25">
+        <f>BA25/B23</f>
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>11</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>14</v>
+      </c>
+      <c r="Q28">
+        <v>15</v>
+      </c>
+      <c r="R28">
+        <v>16</v>
+      </c>
+      <c r="S28">
+        <v>17</v>
+      </c>
+      <c r="T28">
+        <v>18</v>
+      </c>
+      <c r="U28">
+        <v>19</v>
+      </c>
+      <c r="V28">
+        <v>20</v>
+      </c>
+      <c r="W28">
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <v>22</v>
+      </c>
+      <c r="Y28">
+        <v>23</v>
+      </c>
+      <c r="Z28">
+        <v>24</v>
+      </c>
+      <c r="AA28">
+        <v>25</v>
+      </c>
+      <c r="AB28">
+        <v>26</v>
+      </c>
+      <c r="AC28">
+        <v>27</v>
+      </c>
+      <c r="AD28">
+        <v>28</v>
+      </c>
+      <c r="AE28">
+        <v>29</v>
+      </c>
+      <c r="AF28">
+        <v>30</v>
+      </c>
+      <c r="AG28">
+        <v>31</v>
+      </c>
+      <c r="AH28">
+        <v>32</v>
+      </c>
+      <c r="AI28">
+        <v>33</v>
+      </c>
+      <c r="AJ28">
+        <v>34</v>
+      </c>
+      <c r="AK28">
+        <v>35</v>
+      </c>
+      <c r="AL28">
+        <v>36</v>
+      </c>
+      <c r="AM28">
+        <v>37</v>
+      </c>
+      <c r="AN28">
+        <v>38</v>
+      </c>
+      <c r="AO28">
+        <v>39</v>
+      </c>
+      <c r="AP28">
+        <v>40</v>
+      </c>
+      <c r="AQ28">
+        <v>41</v>
+      </c>
+      <c r="AR28">
+        <v>42</v>
+      </c>
+      <c r="AS28">
+        <v>43</v>
+      </c>
+      <c r="AT28">
+        <v>44</v>
+      </c>
+      <c r="AU28">
+        <v>45</v>
+      </c>
+      <c r="AV28">
+        <v>46</v>
+      </c>
+      <c r="AW28">
+        <v>47</v>
+      </c>
+      <c r="AX28">
+        <v>48</v>
+      </c>
+      <c r="AY28">
+        <v>49</v>
+      </c>
+      <c r="AZ28">
+        <v>50</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="15">
+        <v>-60000000</v>
+      </c>
+      <c r="C29" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="D29" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="E29" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="F29" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="G29" s="15">
+        <v>15000000</v>
+      </c>
+      <c r="H29" s="15">
+        <v>-100000000</v>
+      </c>
+      <c r="I29" s="15">
+        <v>20000000</v>
+      </c>
+      <c r="J29" s="15">
+        <f>I29-2000000</f>
+        <v>18000000</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" ref="K29:AZ29" si="59">J29-2000000</f>
+        <v>16000000</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="59"/>
+        <v>14000000</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="59"/>
+        <v>12000000</v>
+      </c>
+      <c r="N29" s="15">
+        <f t="shared" si="59"/>
+        <v>10000000</v>
+      </c>
+      <c r="O29" s="15">
+        <f>N29</f>
+        <v>10000000</v>
+      </c>
+      <c r="P29" s="15">
+        <f t="shared" ref="P29:AZ29" si="60">O29</f>
+        <v>10000000</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="R29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="S29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="V29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="W29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="X29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="Y29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="Z29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AA29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AB29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AD29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AE29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AF29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AG29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AH29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AI29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AJ29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AK29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AL29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AM29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AN29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AO29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AP29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AQ29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AR29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AS29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AT29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AU29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AV29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AW29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AX29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AY29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+      <c r="AZ29" s="15">
+        <f t="shared" si="60"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <f>$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:AZ30" si="61">$A$11</f>
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AA30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AH30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AI30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AK30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AL30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AM30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AN30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AO30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AP30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AQ30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AR30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AS30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AT30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AU30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AV30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AW30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AX30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AY30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+      <c r="AZ30" s="1">
+        <f t="shared" si="61"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <f>B29/(1+B30)^(B28)</f>
+        <v>-60000000</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31" si="62">C29/(1+C30)^(C28)</f>
+        <v>14285714.285714285</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31" si="63">D29/(1+D30)^(D28)</f>
+        <v>13605442.176870748</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31" si="64">E29/(1+E30)^(E28)</f>
+        <v>12957563.977972141</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31" si="65">F29/(1+F30)^(F28)</f>
+        <v>12340537.121878229</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31" si="66">G29/(1+G30)^(G28)</f>
+        <v>11752892.497026885</v>
+      </c>
+      <c r="H31">
+        <f>H29/(1+H30)^(H28)</f>
+        <v>-74621539.663662761</v>
+      </c>
+      <c r="I31">
+        <f t="shared" ref="I31" si="67">I29/(1+I30)^(I28)</f>
+        <v>14213626.60260243</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="68">J29/(1+J30)^(J28)</f>
+        <v>12183108.516516369</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31" si="69">K29/(1+K30)^(K28)</f>
+        <v>10313742.659484757</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31" si="70">L29/(1+L30)^(L28)</f>
+        <v>8594785.5495706312</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="71">M29/(1+M30)^(M28)</f>
+        <v>7016151.4690372488</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31" si="72">N29/(1+N30)^(N28)</f>
+        <v>5568374.1817755951</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31" si="73">O29/(1+O30)^(O28)</f>
+        <v>5303213.5064529469</v>
+      </c>
+      <c r="P31">
+        <f t="shared" ref="P31" si="74">P29/(1+P30)^(P28)</f>
+        <v>5050679.5299551887</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31" si="75">Q29/(1+Q30)^(Q28)</f>
+        <v>4810170.9809097014</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31" si="76">R29/(1+R30)^(R28)</f>
+        <v>4581115.2199140023</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ref="S31" si="77">S29/(1+S30)^(S28)</f>
+        <v>4362966.8761085728</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ref="T31" si="78">T29/(1+T30)^(T28)</f>
+        <v>4155206.5486748316</v>
+      </c>
+      <c r="U31">
+        <f t="shared" ref="U31" si="79">U29/(1+U30)^(U28)</f>
+        <v>3957339.5701665063</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ref="V31" si="80">V29/(1+V30)^(V28)</f>
+        <v>3768894.8287300058</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ref="W31" si="81">W29/(1+W30)^(W28)</f>
+        <v>3589423.6464095297</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ref="X31" si="82">X29/(1+X30)^(X28)</f>
+        <v>3418498.7108662189</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ref="Y31" si="83">Y29/(1+Y30)^(Y28)</f>
+        <v>3255713.0579678267</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" ref="Z31" si="84">Z29/(1+Z30)^(Z28)</f>
+        <v>3100679.1028265022</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" ref="AA31" si="85">AA29/(1+AA30)^(AA28)</f>
+        <v>2953027.716977621</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" ref="AB31" si="86">AB29/(1+AB30)^(AB28)</f>
+        <v>2812407.349502496</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ref="AC31" si="87">AC29/(1+AC30)^(AC28)</f>
+        <v>2678483.1900023771</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" ref="AD31" si="88">AD29/(1+AD30)^(AD28)</f>
+        <v>2550936.3714308357</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" ref="AE31" si="89">AE29/(1+AE30)^(AE28)</f>
+        <v>2429463.2108865096</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" ref="AF31" si="90">AF29/(1+AF30)^(AF28)</f>
+        <v>2313774.4865585812</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" ref="AG31" si="91">AG29/(1+AG30)^(AG28)</f>
+        <v>2203594.7491034102</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" ref="AH31" si="92">AH29/(1+AH30)^(AH28)</f>
+        <v>2098661.6658127718</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" ref="AI31" si="93">AI29/(1+AI30)^(AI28)</f>
+        <v>1998725.3960121635</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" ref="AJ31" si="94">AJ29/(1+AJ30)^(AJ28)</f>
+        <v>1903547.9962020605</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" ref="AK31" si="95">AK29/(1+AK30)^(AK28)</f>
+        <v>1812902.8535257715</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" ref="AL31" si="96">AL29/(1+AL30)^(AL28)</f>
+        <v>1726574.1462150207</v>
+      </c>
+      <c r="AM31">
+        <f t="shared" ref="AM31" si="97">AM29/(1+AM30)^(AM28)</f>
+        <v>1644356.329728591</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" ref="AN31" si="98">AN29/(1+AN30)^(AN28)</f>
+        <v>1566053.6473605633</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" ref="AO31" si="99">AO29/(1+AO30)^(AO28)</f>
+        <v>1491479.664152917</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" ref="AP31" si="100">AP29/(1+AP30)^(AP28)</f>
+        <v>1420456.8230027782</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" ref="AQ31" si="101">AQ29/(1+AQ30)^(AQ28)</f>
+        <v>1352816.0219074078</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" ref="AR31" si="102">AR29/(1+AR30)^(AR28)</f>
+        <v>1288396.2113403883</v>
+      </c>
+      <c r="AS31">
+        <f t="shared" ref="AS31" si="103">AS29/(1+AS30)^(AS28)</f>
+        <v>1227044.0108003698</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" ref="AT31" si="104">AT29/(1+AT30)^(AT28)</f>
+        <v>1168613.3436193999</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" ref="AU31" si="105">AU29/(1+AU30)^(AU28)</f>
+        <v>1112965.0891613329</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" ref="AV31" si="106">AV29/(1+AV30)^(AV28)</f>
+        <v>1059966.7515822221</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" ref="AW31" si="107">AW29/(1+AW30)^(AW28)</f>
+        <v>1009492.1443640208</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" ref="AX31" si="108">AX29/(1+AX30)^(AX28)</f>
+        <v>961421.08987049607</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" ref="AY31" si="109">AY29/(1+AY30)^(AY28)</f>
+        <v>915639.13320999616</v>
+      </c>
+      <c r="AZ31">
+        <f t="shared" ref="AZ31" si="110">AZ29/(1+AZ30)^(AZ28)</f>
+        <v>872037.26972380595</v>
+      </c>
+      <c r="BA31" s="2">
+        <f>SUM(B31:AZ31)</f>
+        <v>82137137.615822315</v>
+      </c>
+      <c r="BB31" s="14">
+        <f>IRR(B29:AZ29)</f>
+        <v>0.11465198883547489</v>
+      </c>
+      <c r="BC31">
+        <f>BA31/B29</f>
+        <v>-1.3689522935970386</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CFDA77-5A2D-4C2A-8980-092F1D983A51}">
+  <dimension ref="A16:I39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>-343000</v>
+      </c>
+      <c r="D20">
+        <v>100000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f>C20*B21</f>
+        <v>-1715000</v>
+      </c>
+      <c r="D21">
+        <f>D20*5</f>
+        <v>500000</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f>H20*G21</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <f>C21</f>
+        <v>-1715000</v>
+      </c>
+      <c r="C24">
+        <f>D21</f>
+        <v>500000</v>
+      </c>
+      <c r="D24">
+        <f>C24</f>
+        <v>500000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:G24" si="0">D24</f>
+        <v>500000</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <f>$A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:G25" si="1">$A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <f>B24/(1+B25)^(B23)</f>
+        <v>-1715000</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="2">C24/(1+C25)^(C23)</f>
+        <v>454545.45454545453</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>413223.1404958677</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>375657.40045078879</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>341506.72768253525</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>310460.66152957745</v>
+      </c>
+      <c r="H26" s="2">
+        <f>SUM(B26:G26)</f>
+        <v>180393.38470422378</v>
+      </c>
+      <c r="I26" s="1">
+        <f>IRR(B24:G24)</f>
+        <v>0.14037367543887735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="24">
+        <f>H21</f>
+        <v>100000</v>
+      </c>
+      <c r="C28">
+        <f>H21</f>
+        <v>100000</v>
+      </c>
+      <c r="D28">
+        <f>C28</f>
+        <v>100000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:G28" si="3">D28</f>
+        <v>100000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <f>$A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:G29" si="4">$A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <f>B28/(1+B29)^(B27)</f>
+        <v>100000</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:G30" si="5">C28/(1+C29)^(C27)</f>
+        <v>90909.090909090897</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>82644.62809917354</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>75131.480090157755</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>68301.345536507055</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>62092.132305915497</v>
+      </c>
+      <c r="H30" s="2">
+        <f>SUM(B30:G30)</f>
+        <v>479078.67694084474</v>
+      </c>
+      <c r="I30" s="1">
+        <v>115826064.281312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="24">
+        <f>H21</f>
+        <v>100000</v>
+      </c>
+      <c r="C35">
+        <f>B35</f>
+        <v>100000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:G35" si="6">C35</f>
+        <v>100000</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="G35">
+        <f>F35+40000*G21</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <f>$A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:G36" si="7">$A$22</f>
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f>B35/(1+B36)^(B34)</f>
+        <v>100000</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="8">C35/(1+C36)^(C34)</f>
+        <v>90909.090909090897</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37" si="9">D35/(1+D36)^(D34)</f>
+        <v>82644.62809917354</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="10">E35/(1+E36)^(E34)</f>
+        <v>75131.480090157755</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="11">F35/(1+F36)^(F34)</f>
+        <v>68301.345536507055</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37" si="12">G35/(1+G36)^(G34)</f>
+        <v>310460.66152957745</v>
+      </c>
+      <c r="H37" s="2">
+        <f>SUM(B37:G37)</f>
+        <v>727447.20616450673</v>
+      </c>
+      <c r="I37" s="1">
+        <v>115826064.281312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E0ACB-123C-4F90-B976-99680DE6121A}">
+  <dimension ref="A11:AG21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <f>60-B11</f>
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <f>60-C11</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <v>17</v>
+      </c>
+      <c r="T12">
+        <v>18</v>
+      </c>
+      <c r="U12">
+        <v>19</v>
+      </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <v>21</v>
+      </c>
+      <c r="X12">
+        <v>22</v>
+      </c>
+      <c r="Y12">
+        <v>23</v>
+      </c>
+      <c r="Z12">
+        <v>24</v>
+      </c>
+      <c r="AA12">
+        <v>25</v>
+      </c>
+      <c r="AB12">
+        <v>26</v>
+      </c>
+      <c r="AC12">
+        <v>27</v>
+      </c>
+      <c r="AD12">
+        <v>28</v>
+      </c>
+      <c r="AE12">
+        <v>29</v>
+      </c>
+      <c r="AF12">
+        <v>30</v>
+      </c>
+      <c r="AG12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-25000</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>130000</v>
+      </c>
+      <c r="E13">
+        <f>D13+5000</f>
+        <v>135000</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:AD13" si="0">E13+5000</f>
+        <v>140000</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>145000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>155000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>165000</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>175000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>185000</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>195000</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>205000</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>215000</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>225000</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>235000</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>245000</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>255000</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>100000</v>
+      </c>
+      <c r="C18">
+        <f>B18+5000</f>
+        <v>105000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:I18" si="1">C18+5000</f>
+        <v>110000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>115000</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>25000</v>
+      </c>
+      <c r="C21">
+        <f>B21*(1+$A$11)^(C12)</f>
+        <v>28125</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:G21" si="2">C21*(1+$A$11)^(D12)</f>
+        <v>35595.703125</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>50682.163238525391</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>81183.025636710227</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>146294.44826727608</v>
+      </c>
+      <c r="H21">
+        <f>G21*(1+$A$11)^(H12)</f>
+        <v>296580.76431888377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89F9C0D-FB00-40AB-A561-95E189CD5BDE}">
+  <dimension ref="A9:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>-2500</v>
+      </c>
+      <c r="C11">
+        <v>-1100</v>
+      </c>
+      <c r="D11">
+        <v>-1100</v>
+      </c>
+      <c r="E11">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>1100</v>
+      </c>
+      <c r="D12">
+        <f>C12</f>
+        <v>1100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:G12" si="0">D12</f>
+        <v>1100</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f>B11+B12</f>
+        <v>-2500</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:G13" si="1">C11+C12</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <f>B13/(1+$A$9)^(B10)</f>
+        <v>-2500</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:G14" si="2">C13/(1+$A$9)^(C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>751.31480090157754</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>683.01345536507051</v>
+      </c>
+      <c r="H14" s="2">
+        <f>SUM(B14:G14)</f>
+        <v>-1065.6717437333518</v>
+      </c>
+      <c r="I14" s="1">
+        <f>IRR(B13:G13)</f>
+        <v>-2.7985965463025231E-2</v>
+      </c>
+      <c r="J14">
+        <f>H14/B11</f>
+        <v>0.42626869749334073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>-1100</v>
+      </c>
+      <c r="D18">
+        <v>-1100</v>
+      </c>
+      <c r="E18">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:G19" si="3">D19</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f>B18+B19</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20" si="4">C18+C19</f>
+        <v>-1100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="5">D18+D19</f>
+        <v>-1100</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="6">E18+E19</f>
+        <v>-1100</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="7">F18+F19</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="8">G18+G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <f>B20/(1+$A$9)^(B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21" si="9">C20/(1+$A$9)^(C17)</f>
+        <v>-999.99999999999989</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="10">D20/(1+$A$9)^(D17)</f>
+        <v>-909.09090909090889</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="11">E20/(1+$A$9)^(E17)</f>
+        <v>-826.44628099173531</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="12">F20/(1+$A$9)^(F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="13">G20/(1+$A$9)^(G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <f>SUM(B21:G21)</f>
+        <v>-2735.537190082644</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA51B6A-D1ED-406E-88C7-E3A2E2791494}">
+  <dimension ref="A11:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14">
+        <v>350</v>
+      </c>
+      <c r="D14">
+        <f>C14*(1+H14)</f>
+        <v>415.80000000000007</v>
+      </c>
+      <c r="E14">
+        <f>D14*(1+H14)</f>
+        <v>493.97040000000015</v>
+      </c>
+      <c r="H14">
+        <f>(1+0.08)*(1+0.1)-1</f>
+        <v>0.18800000000000017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>-50</v>
+      </c>
+      <c r="D15">
+        <f>C15*(1+$H$14)</f>
+        <v>-59.400000000000006</v>
+      </c>
+      <c r="E15">
+        <f>D15*(1+$H$14)</f>
+        <v>-70.567200000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16">
+        <v>-250</v>
+      </c>
+      <c r="D16">
+        <f>C16*(1+H14)</f>
+        <v>-297.00000000000006</v>
+      </c>
+      <c r="E16">
+        <f>D16*(1+H14)</f>
+        <v>-352.83600000000013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>-25000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <f>C13*C14</f>
+        <v>7000</v>
+      </c>
+      <c r="D20">
+        <f>D13*D14</f>
+        <v>16632.000000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="D20:E20" si="0">E13*E14</f>
+        <v>24698.520000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <f>C13*C15</f>
+        <v>-1000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:E21" si="1">D13*D15</f>
+        <v>-2376</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-3528.3600000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <f>C16</f>
+        <v>-250</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:E22" si="2">D16</f>
+        <v>-297.00000000000006</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-352.83600000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <f>B19</f>
+        <v>-25000</v>
+      </c>
+      <c r="C23">
+        <f>C20+C21+C22</f>
+        <v>5750</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:E23" si="3">D20+D21+D22</f>
+        <v>13959.000000000004</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>20817.324000000008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f>$H$14</f>
+        <v>0.18800000000000017</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:E24" si="4">$H$14</f>
+        <v>0.18800000000000017</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>0.18800000000000017</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>0.18800000000000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2">
+        <f>B23/(1+B24)^(B18)</f>
+        <v>-25000</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:E25" si="5">C23/(1+C24)^(C18)</f>
+        <v>4840.0673400673395</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="5"/>
+        <v>9890.5723905723898</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="5"/>
+        <v>12415.824915824916</v>
+      </c>
+      <c r="F25" s="2">
+        <f>SUM(B25:E25)</f>
+        <v>2146.4646464646466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-27146.464646464647</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <f>C13*C14</f>
+        <v>7000</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:E30" si="6">D13*D14</f>
+        <v>16632.000000000004</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>24698.520000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31">
+        <f>C13*C15</f>
+        <v>-1000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:E31" si="7">D13*D15</f>
+        <v>-2376</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="7"/>
+        <v>-3528.3600000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <f>C16</f>
+        <v>-250</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:E32" si="8">D16</f>
+        <v>-297.00000000000006</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="8"/>
+        <v>-352.83600000000013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <f>B29</f>
+        <v>-27146.464646464647</v>
+      </c>
+      <c r="C33">
+        <f>C30+C31+C32</f>
+        <v>5750</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="9">D30+D31+D32</f>
+        <v>13959.000000000004</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="10">E30+E31+E32</f>
+        <v>20817.324000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <f>$H$14</f>
+        <v>0.18800000000000017</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:E34" si="11">$H$14</f>
+        <v>0.18800000000000017</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>0.18800000000000017</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>0.18800000000000017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <f>B33/(1+B34)^(B28)</f>
+        <v>-27146.464646464647</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35" si="12">C33/(1+C34)^(C28)</f>
+        <v>4840.0673400673395</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="13">D33/(1+D34)^(D28)</f>
+        <v>9890.5723905723898</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="14">E33/(1+E34)^(E28)</f>
+        <v>12415.824915824916</v>
+      </c>
+      <c r="F35" s="2">
+        <f>SUM(B35:E35)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B04462-3399-4CCC-82FB-9E92D7B3D040}">
   <dimension ref="A10:J26"/>
@@ -6059,7 +14692,7 @@
         <v>459.09090909090907</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="D16:F16" si="1">E14/(1+E15)^(E13)</f>
+        <f t="shared" ref="E16:F16" si="1">E14/(1+E15)^(E13)</f>
         <v>417.35537190082636</v>
       </c>
       <c r="F16">
@@ -6229,8 +14862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C943F40C-1E57-4A91-BCAB-6FC6B0110466}">
   <dimension ref="A6:G13"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF58F5F-572C-4287-BA6E-D39CE2044E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A16ED5-A946-42A9-B909-561B47C0680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="24" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -18,26 +18,26 @@
     <sheet name="ex3" sheetId="3" r:id="rId3"/>
     <sheet name="ex4" sheetId="4" r:id="rId4"/>
     <sheet name="ex5" sheetId="5" r:id="rId5"/>
-    <sheet name="ex6" sheetId="6" r:id="rId6"/>
-    <sheet name="ex7" sheetId="7" r:id="rId7"/>
+    <sheet name="ex6g" sheetId="6" r:id="rId6"/>
+    <sheet name="ex7g" sheetId="7" r:id="rId7"/>
     <sheet name="ex8" sheetId="8" r:id="rId8"/>
     <sheet name="ex9d" sheetId="9" r:id="rId9"/>
     <sheet name="ex10" sheetId="10" r:id="rId10"/>
     <sheet name="ex11" sheetId="11" r:id="rId11"/>
-    <sheet name="ex12d" sheetId="12" r:id="rId12"/>
+    <sheet name="ex12dg" sheetId="12" r:id="rId12"/>
     <sheet name="ex13" sheetId="13" r:id="rId13"/>
     <sheet name="ex14" sheetId="14" r:id="rId14"/>
-    <sheet name="ex15d" sheetId="15" r:id="rId15"/>
+    <sheet name="ex15dg" sheetId="15" r:id="rId15"/>
     <sheet name="ex16" sheetId="16" r:id="rId16"/>
     <sheet name="ex17" sheetId="17" r:id="rId17"/>
     <sheet name="ex18d" sheetId="18" r:id="rId18"/>
     <sheet name="ex19" sheetId="19" r:id="rId19"/>
     <sheet name="ex20" sheetId="20" r:id="rId20"/>
-    <sheet name="ex21d" sheetId="21" r:id="rId21"/>
+    <sheet name="ex21dg" sheetId="21" r:id="rId21"/>
     <sheet name="ex22" sheetId="22" r:id="rId22"/>
     <sheet name="ex23d" sheetId="23" r:id="rId23"/>
-    <sheet name="ex24" sheetId="24" r:id="rId24"/>
-    <sheet name="ex25" sheetId="25" r:id="rId25"/>
+    <sheet name="ex24g" sheetId="24" r:id="rId24"/>
+    <sheet name="ex25g" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="101">
   <si>
     <t>Flujo</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">Por lo tanto, a menos q el gasto anual sea igual a la inversión inicial, siempre conviene la opción barata </t>
+  </si>
+  <si>
+    <t>si la TIR es mayor q el costo de op, realmente importa cuánto?</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ex15d!$B$30:$AE$30</c:f>
+              <c:f>ex15dg!$B$30:$AE$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -760,7 +763,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ex15d!$B$31:$AE$31</c:f>
+              <c:f>ex15dg!$B$31:$AE$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -884,7 +887,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>ex15d!$B$32:$AE$32</c:f>
+              <c:f>ex15dg!$B$32:$AE$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1303,7 +1306,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ex15d!$A$40:$A$59</c:f>
+              <c:f>ex15dg!$A$40:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1372,7 +1375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ex15d!$B$40:$B$59</c:f>
+              <c:f>ex15dg!$B$40:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -4694,7 +4697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE71B3D-07DB-403D-B078-251ACAEB728E}">
   <dimension ref="A10:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4901,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA64920-31ED-4322-8AF2-7FC8CD0FFC72}">
   <dimension ref="A10:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:K20"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,10 +5246,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBC4EE4-AA93-4AEF-A565-63F12DD2D796}">
-  <dimension ref="B6:I17"/>
+  <dimension ref="B6:I20"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5465,6 +5468,11 @@
       <c r="H17">
         <f>F17/C15</f>
         <v>-0.65306122448979576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6336,8 +6344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675E4367-2A6A-4CD7-9D9C-9C5B4CDF4F9C}">
   <dimension ref="A14:AE59"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6845,119 +6853,119 @@
         <v>-3184.9327231746461</v>
       </c>
       <c r="C31">
-        <f>C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" ref="B31:AE31" si="9">C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
         <v>-3474.4720616450686</v>
       </c>
       <c r="D31">
-        <f>D30+(D30*$A$30)/(1+$A$24)^(1)+(D30*$A$30)/(1+$A$24)^(2)+(D30*$A$30)/(1+$A$24)^(3)+(D30*$A$30)/(1+$A$24)^(4)+(D30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-3764.0114001154911</v>
       </c>
       <c r="E31">
-        <f>E30+(E30*$A$30)/(1+$A$24)^(1)+(E30*$A$30)/(1+$A$24)^(2)+(E30*$A$30)/(1+$A$24)^(3)+(E30*$A$30)/(1+$A$24)^(4)+(E30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-4053.5507385859137</v>
       </c>
       <c r="F31">
-        <f>F30+(F30*$A$30)/(1+$A$24)^(1)+(F30*$A$30)/(1+$A$24)^(2)+(F30*$A$30)/(1+$A$24)^(3)+(F30*$A$30)/(1+$A$24)^(4)+(F30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-4343.0900770563358</v>
       </c>
       <c r="G31">
-        <f>G30+(G30*$A$30)/(1+$A$24)^(1)+(G30*$A$30)/(1+$A$24)^(2)+(G30*$A$30)/(1+$A$24)^(3)+(G30*$A$30)/(1+$A$24)^(4)+(G30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-4632.6294155267578</v>
       </c>
       <c r="H31">
-        <f>H30+(H30*$A$30)/(1+$A$24)^(1)+(H30*$A$30)/(1+$A$24)^(2)+(H30*$A$30)/(1+$A$24)^(3)+(H30*$A$30)/(1+$A$24)^(4)+(H30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-4922.1687539971799</v>
       </c>
       <c r="I31">
-        <f>I30+(I30*$A$30)/(1+$A$24)^(1)+(I30*$A$30)/(1+$A$24)^(2)+(I30*$A$30)/(1+$A$24)^(3)+(I30*$A$30)/(1+$A$24)^(4)+(I30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-5211.7080924676029</v>
       </c>
       <c r="J31">
-        <f>J30+(J30*$A$30)/(1+$A$24)^(1)+(J30*$A$30)/(1+$A$24)^(2)+(J30*$A$30)/(1+$A$24)^(3)+(J30*$A$30)/(1+$A$24)^(4)+(J30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-5501.247430938025</v>
       </c>
       <c r="K31">
-        <f>K30+(K30*$A$30)/(1+$A$24)^(1)+(K30*$A$30)/(1+$A$24)^(2)+(K30*$A$30)/(1+$A$24)^(3)+(K30*$A$30)/(1+$A$24)^(4)+(K30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-5790.7867694084471</v>
       </c>
       <c r="L31">
-        <f>L30+(L30*$A$30)/(1+$A$24)^(1)+(L30*$A$30)/(1+$A$24)^(2)+(L30*$A$30)/(1+$A$24)^(3)+(L30*$A$30)/(1+$A$24)^(4)+(L30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-6080.3261078788701</v>
       </c>
       <c r="M31">
-        <f>M30+(M30*$A$30)/(1+$A$24)^(1)+(M30*$A$30)/(1+$A$24)^(2)+(M30*$A$30)/(1+$A$24)^(3)+(M30*$A$30)/(1+$A$24)^(4)+(M30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-6369.8654463492921</v>
       </c>
       <c r="N31">
-        <f>N30+(N30*$A$30)/(1+$A$24)^(1)+(N30*$A$30)/(1+$A$24)^(2)+(N30*$A$30)/(1+$A$24)^(3)+(N30*$A$30)/(1+$A$24)^(4)+(N30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-6659.4047848197142</v>
       </c>
       <c r="O31">
-        <f>O30+(O30*$A$30)/(1+$A$24)^(1)+(O30*$A$30)/(1+$A$24)^(2)+(O30*$A$30)/(1+$A$24)^(3)+(O30*$A$30)/(1+$A$24)^(4)+(O30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-6948.9441232901372</v>
       </c>
       <c r="P31">
-        <f>P30+(P30*$A$30)/(1+$A$24)^(1)+(P30*$A$30)/(1+$A$24)^(2)+(P30*$A$30)/(1+$A$24)^(3)+(P30*$A$30)/(1+$A$24)^(4)+(P30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-7238.4834617605602</v>
       </c>
       <c r="Q31">
-        <f>Q30+(Q30*$A$30)/(1+$A$24)^(1)+(Q30*$A$30)/(1+$A$24)^(2)+(Q30*$A$30)/(1+$A$24)^(3)+(Q30*$A$30)/(1+$A$24)^(4)+(Q30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-7528.0228002309823</v>
       </c>
       <c r="R31">
-        <f>R30+(R30*$A$30)/(1+$A$24)^(1)+(R30*$A$30)/(1+$A$24)^(2)+(R30*$A$30)/(1+$A$24)^(3)+(R30*$A$30)/(1+$A$24)^(4)+(R30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-7817.5621387014044</v>
       </c>
       <c r="S31">
-        <f>S30+(S30*$A$30)/(1+$A$24)^(1)+(S30*$A$30)/(1+$A$24)^(2)+(S30*$A$30)/(1+$A$24)^(3)+(S30*$A$30)/(1+$A$24)^(4)+(S30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-8107.1014771718274</v>
       </c>
       <c r="T31">
-        <f>T30+(T30*$A$30)/(1+$A$24)^(1)+(T30*$A$30)/(1+$A$24)^(2)+(T30*$A$30)/(1+$A$24)^(3)+(T30*$A$30)/(1+$A$24)^(4)+(T30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-8396.6408156422476</v>
       </c>
       <c r="U31">
-        <f>U30+(U30*$A$30)/(1+$A$24)^(1)+(U30*$A$30)/(1+$A$24)^(2)+(U30*$A$30)/(1+$A$24)^(3)+(U30*$A$30)/(1+$A$24)^(4)+(U30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-8686.1801541126715</v>
       </c>
       <c r="V31">
-        <f>V30+(V30*$A$30)/(1+$A$24)^(1)+(V30*$A$30)/(1+$A$24)^(2)+(V30*$A$30)/(1+$A$24)^(3)+(V30*$A$30)/(1+$A$24)^(4)+(V30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-8975.7194925830936</v>
       </c>
       <c r="W31">
-        <f>W30+(W30*$A$30)/(1+$A$24)^(1)+(W30*$A$30)/(1+$A$24)^(2)+(W30*$A$30)/(1+$A$24)^(3)+(W30*$A$30)/(1+$A$24)^(4)+(W30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-9265.2588310535157</v>
       </c>
       <c r="X31">
-        <f>X30+(X30*$A$30)/(1+$A$24)^(1)+(X30*$A$30)/(1+$A$24)^(2)+(X30*$A$30)/(1+$A$24)^(3)+(X30*$A$30)/(1+$A$24)^(4)+(X30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-9554.7981695239378</v>
       </c>
       <c r="Y31">
-        <f>Y30+(Y30*$A$30)/(1+$A$24)^(1)+(Y30*$A$30)/(1+$A$24)^(2)+(Y30*$A$30)/(1+$A$24)^(3)+(Y30*$A$30)/(1+$A$24)^(4)+(Y30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-9844.3375079943598</v>
       </c>
       <c r="Z31">
-        <f>Z30+(Z30*$A$30)/(1+$A$24)^(1)+(Z30*$A$30)/(1+$A$24)^(2)+(Z30*$A$30)/(1+$A$24)^(3)+(Z30*$A$30)/(1+$A$24)^(4)+(Z30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-10133.876846464784</v>
       </c>
       <c r="AA31">
-        <f>AA30+(AA30*$A$30)/(1+$A$24)^(1)+(AA30*$A$30)/(1+$A$24)^(2)+(AA30*$A$30)/(1+$A$24)^(3)+(AA30*$A$30)/(1+$A$24)^(4)+(AA30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-10423.416184935206</v>
       </c>
       <c r="AB31">
-        <f>AB30+(AB30*$A$30)/(1+$A$24)^(1)+(AB30*$A$30)/(1+$A$24)^(2)+(AB30*$A$30)/(1+$A$24)^(3)+(AB30*$A$30)/(1+$A$24)^(4)+(AB30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-10712.955523405628</v>
       </c>
       <c r="AC31">
-        <f>AC30+(AC30*$A$30)/(1+$A$24)^(1)+(AC30*$A$30)/(1+$A$24)^(2)+(AC30*$A$30)/(1+$A$24)^(3)+(AC30*$A$30)/(1+$A$24)^(4)+(AC30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-11002.49486187605</v>
       </c>
       <c r="AD31">
-        <f>AD30+(AD30*$A$30)/(1+$A$24)^(1)+(AD30*$A$30)/(1+$A$24)^(2)+(AD30*$A$30)/(1+$A$24)^(3)+(AD30*$A$30)/(1+$A$24)^(4)+(AD30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-11292.034200346472</v>
       </c>
       <c r="AE31">
-        <f>AE30+(AE30*$A$30)/(1+$A$24)^(1)+(AE30*$A$30)/(1+$A$24)^(2)+(AE30*$A$30)/(1+$A$24)^(3)+(AE30*$A$30)/(1+$A$24)^(4)+(AE30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" si="9"/>
         <v>-11581.573538816894</v>
       </c>
     </row>
@@ -6966,39 +6974,39 @@
         <v>90</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:J32" si="9">(B30+1000)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
+        <f t="shared" ref="B32:J32" si="10">(B30+1000)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
         <v>-1551.8713326834354</v>
       </c>
       <c r="C32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1841.4106711538579</v>
       </c>
       <c r="D32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2130.95000962428</v>
       </c>
       <c r="E32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2420.4893480947026</v>
       </c>
       <c r="F32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2710.0286865651251</v>
       </c>
       <c r="G32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2999.5680250355472</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3289.1073635059693</v>
       </c>
       <c r="I32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3578.6467019763913</v>
       </c>
       <c r="J32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-3868.1860404468143</v>
       </c>
       <c r="K32">
@@ -7006,83 +7014,83 @@
         <v>-4157.7253789172364</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:AE32" si="10">(L30+1000)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
+        <f t="shared" ref="L32:AE32" si="11">(L30+1000)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
         <v>-4447.2647173876594</v>
       </c>
       <c r="M32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4736.8040558580815</v>
       </c>
       <c r="N32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5026.3433943285036</v>
       </c>
       <c r="O32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5315.8827327989266</v>
       </c>
       <c r="P32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5605.4220712693495</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5894.9614097397716</v>
       </c>
       <c r="R32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6184.5007482101937</v>
       </c>
       <c r="S32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6474.0400866806167</v>
       </c>
       <c r="T32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6763.5794251510388</v>
       </c>
       <c r="U32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-7053.1187636214618</v>
       </c>
       <c r="V32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-7342.6581020918838</v>
       </c>
       <c r="W32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-7632.1974405623041</v>
       </c>
       <c r="X32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-7921.7367790327271</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-8211.2761175031501</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-8500.8154559735722</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-8790.3547944439943</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9079.8941329144182</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9369.4334713848402</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9658.9728098552623</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9948.5121483256844</v>
       </c>
     </row>
@@ -7095,119 +7103,119 @@
         <v>1633.0613904912107</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:AE33" si="11">ABS(C31)-ABS(C32)</f>
+        <f t="shared" ref="C33:AE33" si="12">ABS(C31)-ABS(C32)</f>
         <v>1633.0613904912107</v>
       </c>
       <c r="D33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912111</v>
       </c>
       <c r="E33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912111</v>
       </c>
       <c r="F33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="G33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="H33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="I33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912116</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="K33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="L33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="M33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="N33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="O33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="P33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="R33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="S33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="T33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912088</v>
       </c>
       <c r="U33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
       <c r="V33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
       <c r="W33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912116</v>
       </c>
       <c r="X33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912107</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912116</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912116</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1633.0613904912097</v>
       </c>
     </row>
@@ -7267,7 +7275,7 @@
         <v>0.1</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B59" si="12">1000+(1000*A41-333)/(1+$A$24)^(1)+(1000*A41-333)/(1+$A$24)^(2)+(1000*A41-333)/(1+$A$24)^(3)+(1000*A41-333)/(1+$A$24)^(4)+(1000*A41-333)/(1+$A$24)^(5)</f>
+        <f t="shared" ref="B41:B58" si="13">1000+(1000*A41-333)/(1+$A$24)^(1)+(1000*A41-333)/(1+$A$24)^(2)+(1000*A41-333)/(1+$A$24)^(3)+(1000*A41-333)/(1+$A$24)^(4)+(1000*A41-333)/(1+$A$24)^(5)</f>
         <v>116.7466827278318</v>
       </c>
     </row>
@@ -7276,7 +7284,7 @@
         <v>0.2</v>
       </c>
       <c r="B42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>495.82535966867641</v>
       </c>
     </row>
@@ -7285,7 +7293,7 @@
         <v>0.3</v>
       </c>
       <c r="B43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>874.9040366095212</v>
       </c>
     </row>
@@ -7294,7 +7302,7 @@
         <v>0.4</v>
       </c>
       <c r="B44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1253.9827135503663</v>
       </c>
     </row>
@@ -7303,7 +7311,7 @@
         <v>0.5</v>
       </c>
       <c r="B45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1633.0613904912109</v>
       </c>
     </row>
@@ -7312,7 +7320,7 @@
         <v>0.6</v>
       </c>
       <c r="B46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2012.1400674320555</v>
       </c>
     </row>
@@ -7321,7 +7329,7 @@
         <v>0.7</v>
       </c>
       <c r="B47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2391.2187443728999</v>
       </c>
     </row>
@@ -7330,7 +7338,7 @@
         <v>0.8</v>
       </c>
       <c r="B48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2770.297421313745</v>
       </c>
     </row>
@@ -7339,7 +7347,7 @@
         <v>0.9</v>
       </c>
       <c r="B49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3149.3760982545896</v>
       </c>
     </row>
@@ -7348,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3528.4547751954342</v>
       </c>
     </row>
@@ -7357,7 +7365,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3907.5334521362793</v>
       </c>
     </row>
@@ -7366,7 +7374,7 @@
         <v>1.2</v>
       </c>
       <c r="B52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4286.6121290771234</v>
       </c>
     </row>
@@ -7375,7 +7383,7 @@
         <v>1.3</v>
       </c>
       <c r="B53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4665.6908060179685</v>
       </c>
     </row>
@@ -7384,7 +7392,7 @@
         <v>1.4</v>
       </c>
       <c r="B54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5044.7694829588127</v>
       </c>
       <c r="D54" t="s">
@@ -7396,7 +7404,7 @@
         <v>1.5</v>
       </c>
       <c r="B55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5423.8481598996586</v>
       </c>
       <c r="D55" t="s">
@@ -7408,7 +7416,7 @@
         <v>1.6</v>
       </c>
       <c r="B56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5802.9268368405028</v>
       </c>
     </row>
@@ -7417,7 +7425,7 @@
         <v>1.7</v>
       </c>
       <c r="B57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6182.0055137813479</v>
       </c>
     </row>
@@ -7426,7 +7434,7 @@
         <v>1.8</v>
       </c>
       <c r="B58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6561.0841907221929</v>
       </c>
     </row>
@@ -7642,7 +7650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078CDAC9-A9F9-4F9F-A48B-FF2696E6D7F7}">
   <dimension ref="B10:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -8026,7 +8034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E52AB25-B78C-4726-B2F8-04AD68AFD30F}">
   <dimension ref="A12:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -8359,7 +8367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2E7DE8-B89D-4BF1-9672-84B2D32A0E78}">
   <dimension ref="A10:K20"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -8653,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA657E1F-4727-4CE7-94F3-AC92CB58CD41}">
   <dimension ref="A9:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -8792,7 +8800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69098D6C-CCF0-4E20-87FA-FD5D71473494}">
   <dimension ref="A11:BC33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -9578,7 +9586,7 @@
         <v>18000000</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" ref="E16:K16" si="2">D16-2000000</f>
+        <f t="shared" ref="E16:G16" si="2">D16-2000000</f>
         <v>16000000</v>
       </c>
       <c r="F16" s="15">
@@ -10231,7 +10239,7 @@
         <v>18000000</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" ref="E23:K23" si="6">D23-2000000</f>
+        <f t="shared" ref="E23:G23" si="6">D23-2000000</f>
         <v>16000000</v>
       </c>
       <c r="F23" s="15">
@@ -11061,7 +11069,7 @@
         <v>18000000</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29:AZ29" si="59">J29-2000000</f>
+        <f t="shared" ref="K29:N29" si="59">J29-2000000</f>
         <v>16000000</v>
       </c>
       <c r="L29" s="15">
@@ -11674,7 +11682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CFDA77-5A2D-4C2A-8980-092F1D983A51}">
   <dimension ref="A16:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -12041,7 +12049,7 @@
         <v>100000</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:G35" si="6">C35</f>
+        <f t="shared" ref="D35:F35" si="6">C35</f>
         <v>100000</v>
       </c>
       <c r="E35">
@@ -12140,7 +12148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E0ACB-123C-4F90-B976-99680DE6121A}">
   <dimension ref="A11:AG21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -12507,8 +12515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89F9C0D-FB00-40AB-A561-95E189CD5BDE}">
   <dimension ref="A9:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12812,8 +12820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA51B6A-D1ED-406E-88C7-E3A2E2791494}">
   <dimension ref="A11:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12944,7 +12952,7 @@
         <v>16632.000000000004</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="D20:E20" si="0">E13*E14</f>
+        <f t="shared" ref="E20" si="0">E13*E14</f>
         <v>24698.520000000008</v>
       </c>
     </row>
@@ -13975,7 +13983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DCAFAB-475C-4BF5-894E-B0180A6A5BD7}">
   <dimension ref="A10:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -14371,7 +14379,7 @@
   <dimension ref="A8:H12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14423,7 +14431,7 @@
       <c r="F10">
         <v>10000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="13">
         <v>0.249999999997427</v>
       </c>
     </row>
@@ -14601,7 +14609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A808DC9-30B1-460D-B672-8085098FA0B2}">
   <dimension ref="B12:K22"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -14862,7 +14870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C943F40C-1E57-4A91-BCAB-6FC6B0110466}">
   <dimension ref="A6:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A16ED5-A946-42A9-B909-561B47C0680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41126E8E-CC77-4F9B-80DB-B4D1DF7A2A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="24" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="24" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="ex23d" sheetId="23" r:id="rId23"/>
     <sheet name="ex24g" sheetId="24" r:id="rId24"/>
     <sheet name="ex25g" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet3" sheetId="28" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3451,8 +3452,8 @@
       <xdr:rowOff>51289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>199420</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605268</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>131090</xdr:rowOff>
     </xdr:to>
@@ -4416,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB313FC-AC4B-46FC-B38E-EA19A5AC14D4}">
   <dimension ref="A10:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5485,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B3B48-F25F-47D5-80F7-85E2CA34257E}">
   <dimension ref="B17:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -6345,7 +6346,7 @@
   <dimension ref="A14:AE59"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6853,7 +6854,7 @@
         <v>-3184.9327231746461</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="B31:AE31" si="9">C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" ref="C31:AE31" si="9">C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
         <v>-3474.4720616450686</v>
       </c>
       <c r="D31">
@@ -8034,7 +8035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E52AB25-B78C-4726-B2F8-04AD68AFD30F}">
   <dimension ref="A12:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -8368,7 +8369,7 @@
   <dimension ref="A10:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8801,12 +8802,13 @@
   <dimension ref="A11:BC33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
@@ -9359,11 +9361,11 @@
         <v>-60000000</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AZ15" si="1">C13/(1+C14)^(C12)</f>
+        <f>C13/(1+C14)^(C12)</f>
         <v>14285714.285714285</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C15:AZ15" si="1">D13/(1+D14)^(D12)</f>
         <v>13605442.176870748</v>
       </c>
       <c r="E15">
@@ -12515,7 +12517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89F9C0D-FB00-40AB-A561-95E189CD5BDE}">
   <dimension ref="A9:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -12821,7 +12823,7 @@
   <dimension ref="A11:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13206,6 +13208,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A930DD-712F-467F-9998-87C096D42CE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13983,7 +13997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DCAFAB-475C-4BF5-894E-B0180A6A5BD7}">
   <dimension ref="A10:I30"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -14379,7 +14393,7 @@
   <dimension ref="A8:H12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14609,7 +14623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A808DC9-30B1-460D-B672-8085098FA0B2}">
   <dimension ref="B12:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41126E8E-CC77-4F9B-80DB-B4D1DF7A2A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF13F5B-2C54-4082-8AE5-989431D81694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="24" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
@@ -21,21 +21,21 @@
     <sheet name="ex6g" sheetId="6" r:id="rId6"/>
     <sheet name="ex7g" sheetId="7" r:id="rId7"/>
     <sheet name="ex8" sheetId="8" r:id="rId8"/>
-    <sheet name="ex9d" sheetId="9" r:id="rId9"/>
+    <sheet name="ex9dg" sheetId="9" r:id="rId9"/>
     <sheet name="ex10" sheetId="10" r:id="rId10"/>
     <sheet name="ex11" sheetId="11" r:id="rId11"/>
     <sheet name="ex12dg" sheetId="12" r:id="rId12"/>
-    <sheet name="ex13" sheetId="13" r:id="rId13"/>
+    <sheet name="ex13g" sheetId="13" r:id="rId13"/>
     <sheet name="ex14" sheetId="14" r:id="rId14"/>
     <sheet name="ex15dg" sheetId="15" r:id="rId15"/>
     <sheet name="ex16" sheetId="16" r:id="rId16"/>
     <sheet name="ex17" sheetId="17" r:id="rId17"/>
-    <sheet name="ex18d" sheetId="18" r:id="rId18"/>
+    <sheet name="ex18dg" sheetId="18" r:id="rId18"/>
     <sheet name="ex19" sheetId="19" r:id="rId19"/>
     <sheet name="ex20" sheetId="20" r:id="rId20"/>
     <sheet name="ex21dg" sheetId="21" r:id="rId21"/>
     <sheet name="ex22" sheetId="22" r:id="rId22"/>
-    <sheet name="ex23d" sheetId="23" r:id="rId23"/>
+    <sheet name="ex23g" sheetId="23" r:id="rId23"/>
     <sheet name="ex24g" sheetId="24" r:id="rId24"/>
     <sheet name="ex25g" sheetId="25" r:id="rId25"/>
     <sheet name="Sheet3" sheetId="28" r:id="rId26"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="139">
   <si>
     <t>Flujo</t>
   </si>
@@ -222,19 +222,10 @@
     <t>sub</t>
   </si>
   <si>
-    <t>La A, ya que tiene una TIR mayor que la B y te da 3.56 veces lo que inviertes, cuando la B te da 1.18 veces lo que inviertes. Incluso la A pide inversión inicial menor.</t>
-  </si>
-  <si>
-    <t>No se que dice</t>
-  </si>
-  <si>
     <t>suponiendo anticipado</t>
   </si>
   <si>
     <t>si va aquí?</t>
-  </si>
-  <si>
-    <t>No, si se compara con construir solo la de tajo, no debe ser reemplazada, porque esto reduce la TIR de 25% a 11%, y en lugar de regresarte 3.56 veces tu inversión, sólo te regresa 1.37.</t>
   </si>
   <si>
     <t>reemplazar microbuses por 5 autobuses</t>
@@ -267,9 +258,6 @@
     <t>no se deben adquirir los autobuses, ya que al ya tenerse no requiere inversión, haciendo que la TIR sea infinito, e incluso la VPN es mayor en el caso de seguir con microbuses</t>
   </si>
   <si>
-    <t>con mayor razón, la misma decisión</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -291,12 +279,6 @@
     <t>conviene echarla a andar, ya que ambas opciones tienen VPN neg, pero si la echamos a andar se pierde menos dinero</t>
   </si>
   <si>
-    <t>venta u</t>
-  </si>
-  <si>
-    <t>precio u</t>
-  </si>
-  <si>
     <t>costo v</t>
   </si>
   <si>
@@ -304,21 +286,6 @@
   </si>
   <si>
     <t>TN</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>el valor máximo q se puede pagar por la inversión (o sea invertir) sin que perdamos es -27146.5</t>
-  </si>
-  <si>
-    <t>pago el curso</t>
-  </si>
-  <si>
-    <t>a 5 años</t>
   </si>
   <si>
     <t>barata</t>
@@ -348,30 +315,178 @@
     <t>g cara</t>
   </si>
   <si>
-    <t>1000 + VP de 1000*0.5- 333 en 5 años</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
     <t>factor (g = i*factor)</t>
   </si>
   <si>
-    <t xml:space="preserve">a menos q el gasto anual sea igual a la inversión inicial, siempre la VPN de la opcion barata implicará menos pérdida. </t>
+    <t>si la TIR es mayor q el costo de op, realmente importa cuánto?</t>
   </si>
   <si>
-    <t xml:space="preserve">Por lo tanto, a menos q el gasto anual sea igual a la inversión inicial, siempre conviene la opción barata </t>
+    <t>este</t>
   </si>
   <si>
-    <t>si la TIR es mayor q el costo de op, realmente importa cuánto?</t>
+    <t>entre mayor la r, menor el vpn</t>
+  </si>
+  <si>
+    <t>combinas 2 inversiones sumando los flujos y la inversión, la c es mejor q la a + b (si tengo 11k meto la c o la a y b?)</t>
+  </si>
+  <si>
+    <t>elijes con TIR</t>
+  </si>
+  <si>
+    <t>B-A</t>
+  </si>
+  <si>
+    <t>la tir no cambia</t>
+  </si>
+  <si>
+    <t>cambia la tasa</t>
+  </si>
+  <si>
+    <t>Jesus Rodriguez Franco</t>
+  </si>
+  <si>
+    <t>1a ed</t>
+  </si>
+  <si>
+    <t>Mate fin</t>
+  </si>
+  <si>
+    <t>calcula la tir de la dif</t>
+  </si>
+  <si>
+    <t>No se puede si -vo</t>
+  </si>
+  <si>
+    <t>te esperas al año 6 para iniciar, pero tengo q comprar 1.6M para surtirle a mi jefe</t>
+  </si>
+  <si>
+    <t>correcto</t>
+  </si>
+  <si>
+    <t>no gana en 0</t>
+  </si>
+  <si>
+    <t>los vendo en el 0</t>
+  </si>
+  <si>
+    <t>años</t>
+  </si>
+  <si>
+    <t>con curso</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>como si tuvieras 39 y solo haces 21 periodos</t>
+  </si>
+  <si>
+    <t>sin curso</t>
+  </si>
+  <si>
+    <t>no aquí pq no es un año sino un instante</t>
+  </si>
+  <si>
+    <t>flujo con-sin y sacas TIR, porque el tomar el curso no me hace ganar 130, sino la resta con - sin</t>
+  </si>
+  <si>
+    <t>noches/mes</t>
+  </si>
+  <si>
+    <t>meses</t>
+  </si>
+  <si>
+    <t>noche</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>si no lo pongo aquí, en el banco me da 11%</t>
+  </si>
+  <si>
+    <t>menos gasto de op (30%)</t>
+  </si>
+  <si>
+    <t>si no hay inflación, la tir nominal (flujo neto) y la tir real (con inflación)</t>
+  </si>
+  <si>
+    <t>1000 + VP - 333 en 5 años</t>
+  </si>
+  <si>
+    <t>Siempre la cara involucra menos pérdida</t>
+  </si>
+  <si>
+    <t>Sí conviene</t>
+  </si>
+  <si>
+    <t>No, ya que la de tajo sin reemplazo es menor pérdida</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>autobuses</t>
+  </si>
+  <si>
+    <t>ahora, conviene los autobuses</t>
+  </si>
+  <si>
+    <t>b)tomar el curso</t>
+  </si>
+  <si>
+    <t>c)no tomar curso</t>
+  </si>
+  <si>
+    <t>flujo (a-b)</t>
+  </si>
+  <si>
+    <t>inversión</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>precio/u</t>
+  </si>
+  <si>
+    <t>costo/u</t>
+  </si>
+  <si>
+    <t>cost f</t>
+  </si>
+  <si>
+    <t>inflación</t>
+  </si>
+  <si>
+    <t>tR</t>
+  </si>
+  <si>
+    <t>Ingreso</t>
+  </si>
+  <si>
+    <t>costo tot</t>
+  </si>
+  <si>
+    <t>TIR nom</t>
+  </si>
+  <si>
+    <t>TIR real</t>
+  </si>
+  <si>
+    <t>o flujo incr de la A con respecto a B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -403,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +541,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -515,14 +636,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -550,9 +687,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,94 +910,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-3184.9327231746461</c:v>
+                  <c:v>-5269.8654463492921</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3474.4720616450686</c:v>
+                  <c:v>-5748.9441232901372</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3764.0114001154911</c:v>
+                  <c:v>-6228.0228002309823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4053.5507385859137</c:v>
+                  <c:v>-6707.1014771718274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4343.0900770563358</c:v>
+                  <c:v>-7186.1801541126697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4632.6294155267578</c:v>
+                  <c:v>-7665.2588310535157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4922.1687539971799</c:v>
+                  <c:v>-8144.3375079943598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5211.7080924676029</c:v>
+                  <c:v>-8623.4161849352058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5501.247430938025</c:v>
+                  <c:v>-9102.49486187605</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5790.7867694084471</c:v>
+                  <c:v>-9581.573538816896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6080.3261078788701</c:v>
+                  <c:v>-10060.65221575774</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6369.8654463492921</c:v>
+                  <c:v>-10539.730892698584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6659.4047848197142</c:v>
+                  <c:v>-11018.809569639428</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6948.9441232901372</c:v>
+                  <c:v>-11497.888246580274</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7238.4834617605602</c:v>
+                  <c:v>-11976.966923521119</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7528.0228002309823</c:v>
+                  <c:v>-12456.045600461965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7817.5621387014044</c:v>
+                  <c:v>-12935.124277402809</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8107.1014771718274</c:v>
+                  <c:v>-13414.202954343655</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8396.6408156422476</c:v>
+                  <c:v>-13893.281631284497</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8686.1801541126715</c:v>
+                  <c:v>-14372.360308225339</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8975.7194925830936</c:v>
+                  <c:v>-14851.438985166187</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9265.2588310535157</c:v>
+                  <c:v>-15330.517662107031</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9554.7981695239378</c:v>
+                  <c:v>-15809.596339047876</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9844.3375079943598</c:v>
+                  <c:v>-16288.67501598872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-10133.876846464784</c:v>
+                  <c:v>-16767.753692929567</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-10423.416184935206</c:v>
+                  <c:v>-17246.832369870412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10712.955523405628</c:v>
+                  <c:v>-17725.911046811256</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-11002.49486187605</c:v>
+                  <c:v>-18204.9897237521</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-11292.034200346472</c:v>
+                  <c:v>-18684.068400692944</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-11581.573538816894</c:v>
+                  <c:v>-19163.147077633792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,94 +1034,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-1551.8713326834354</c:v>
+                  <c:v>-5532.1974405623041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1841.4106711538579</c:v>
+                  <c:v>-6011.2761175031492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2130.95000962428</c:v>
+                  <c:v>-6490.3547944439943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2420.4893480947026</c:v>
+                  <c:v>-6969.4334713848384</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2710.0286865651251</c:v>
+                  <c:v>-7448.5121483256835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2999.5680250355472</c:v>
+                  <c:v>-7927.5908252665286</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3289.1073635059693</c:v>
+                  <c:v>-8406.6695022073727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3578.6467019763913</c:v>
+                  <c:v>-8885.7481791482187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3868.1860404468143</c:v>
+                  <c:v>-9364.8268560890629</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4157.7253789172364</c:v>
+                  <c:v>-9843.905533029907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4447.2647173876594</c:v>
+                  <c:v>-10322.984209970753</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4736.8040558580815</c:v>
+                  <c:v>-10802.062886911597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5026.3433943285036</c:v>
+                  <c:v>-11281.141563852441</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5315.8827327989266</c:v>
+                  <c:v>-11760.220240793287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-5605.4220712693495</c:v>
+                  <c:v>-12239.298917734131</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5894.9614097397716</c:v>
+                  <c:v>-12718.377594674976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6184.5007482101937</c:v>
+                  <c:v>-13197.456271615822</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-6474.0400866806167</c:v>
+                  <c:v>-13676.534948556666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6763.5794251510388</c:v>
+                  <c:v>-14155.61362549751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7053.1187636214618</c:v>
+                  <c:v>-14634.692302438356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7342.6581020918838</c:v>
+                  <c:v>-15113.7709793792</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7632.1974405623041</c:v>
+                  <c:v>-15592.849656320046</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-7921.7367790327271</c:v>
+                  <c:v>-16071.928333260888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8211.2761175031501</c:v>
+                  <c:v>-16551.007010201734</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8500.8154559735722</c:v>
+                  <c:v>-17030.085687142579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8790.3547944439943</c:v>
+                  <c:v>-17509.164364083423</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9079.8941329144182</c:v>
+                  <c:v>-17988.243041024267</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9369.4334713848402</c:v>
+                  <c:v>-18467.321717965111</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9658.9728098552623</c:v>
+                  <c:v>-18946.400394905959</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9948.5121483256844</c:v>
+                  <c:v>-19425.479071846803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,61 +1525,61 @@
                   <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.7466827278318</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>495.82535966867641</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>874.9040366095212</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1253.9827135503663</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1633.0613904912109</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2012.1400674320555</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2391.2187443728999</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2770.297421313745</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3149.3760982545896</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3528.4547751954342</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3907.5334521362793</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4286.6121290771234</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4665.6908060179685</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5044.7694829588127</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5423.8481598996586</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5802.9268368405028</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6182.0055137813479</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6561.0841907221929</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6940.1628676630371</c:v>
+                  <c:v>-262.33199421301299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3496,8 +3637,8 @@
       <xdr:rowOff>51287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>379000</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>693739</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>153864</xdr:rowOff>
     </xdr:to>
@@ -3736,8 +3877,8 @@
       <xdr:rowOff>72449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>240316</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588792</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>99328</xdr:rowOff>
     </xdr:to>
@@ -4415,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB313FC-AC4B-46FC-B38E-EA19A5AC14D4}">
-  <dimension ref="A10:I20"/>
+  <dimension ref="A10:I22"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,7 +4653,7 @@
         <v>-1000000</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:H14" si="1">D12/(1+D13)^(D11)</f>
+        <f t="shared" ref="D14:G14" si="1">D12/(1+D13)^(D11)</f>
         <v>90909.090909090897</v>
       </c>
       <c r="E14">
@@ -4528,7 +4669,7 @@
         <v>68301.345536507055</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f>H12/(1+H13)^(H11)</f>
         <v>683013.45536507049</v>
       </c>
       <c r="I14" s="2">
@@ -4686,6 +4827,12 @@
       <c r="I20" s="2">
         <f>SUM(C20:H20)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <f>IRR(C15:H15)</f>
+        <v>9.9999286562188372E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4903,14 +5050,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA64920-31ED-4322-8AF2-7FC8CD0FFC72}">
-  <dimension ref="A10:K20"/>
+  <dimension ref="A8:K20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.2</v>
@@ -5473,7 +5625,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5484,14 +5636,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372B3B48-F25F-47D5-80F7-85E2CA34257E}">
-  <dimension ref="B17:R35"/>
+  <dimension ref="B16:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="16" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>32</v>
@@ -5602,7 +5759,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <v>0.05</v>
@@ -5614,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>0.05</v>
@@ -5651,16 +5808,16 @@
         <v>-18954</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21" si="1">J19/(1+J20)^(J18)</f>
+        <f>J19/(1+J20)</f>
         <v>9523.8095238095229</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21" si="2">K19/(1+K20)^(K18)</f>
-        <v>8264.4628099173533</v>
+        <f>K19/((1+K20)*(1+J20))</f>
+        <v>8658.0086580086554</v>
       </c>
       <c r="L21" s="2">
         <f>SUM(I21:K21)</f>
-        <v>-1165.7276662731238</v>
+        <v>-772.18181818182165</v>
       </c>
       <c r="N21" t="s">
         <v>21</v>
@@ -5670,16 +5827,16 @@
         <v>-18954</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21" si="3">P19/(1+P20)^(P18)</f>
+        <f t="shared" ref="P21" si="1">P19/(1+P20)^(P18)</f>
         <v>9523.8095238095229</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="4">Q19/(1+Q20)^(Q18)</f>
-        <v>9611.6878123798542</v>
+        <f>Q19/((1+Q20)*(1+P20))</f>
+        <v>9337.0681605975715</v>
       </c>
       <c r="R21" s="2">
         <f>SUM(O21:Q21)</f>
-        <v>181.49733618937717</v>
+        <v>-93.122315592905579</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
@@ -5784,7 +5941,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>0.05</v>
@@ -5796,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>0.05</v>
@@ -5814,11 +5971,11 @@
         <v>-18140</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26" si="5">D24/(1+D25)^(D23)</f>
+        <f t="shared" ref="D26" si="2">D24/(1+D25)^(D23)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="6">E24/(1+E25)^(E23)</f>
+        <f t="shared" ref="E26" si="3">E24/(1+E25)^(E23)</f>
         <v>18140.589569160999</v>
       </c>
       <c r="F26" s="2">
@@ -5833,16 +5990,16 @@
         <v>-18140</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="7">J24/(1+J25)^(J23)</f>
+        <f t="shared" ref="J26" si="4">J24/(1+J25)^(J23)</f>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26" si="8">K24/(1+K25)^(K23)</f>
-        <v>16528.925619834707</v>
+        <f>K24/((1+K25)*(1+J25))</f>
+        <v>17316.017316017311</v>
       </c>
       <c r="L26" s="2">
         <f>SUM(I26:K26)</f>
-        <v>-1611.0743801652934</v>
+        <v>-823.9826839826892</v>
       </c>
       <c r="N26" t="s">
         <v>21</v>
@@ -5852,16 +6009,16 @@
         <v>-18140</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="9">P24/(1+P25)^(P23)</f>
+        <f t="shared" ref="P26" si="5">P24/(1+P25)^(P23)</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" si="10">Q24/(1+Q25)^(Q23)</f>
-        <v>19223.375624759708</v>
+        <f>Q24/((1+Q25)*(1+P25))</f>
+        <v>18674.136321195143</v>
       </c>
       <c r="R26" s="2">
         <f>SUM(O26:Q26)</f>
-        <v>1083.3756247597084</v>
+        <v>534.13632119514295</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
@@ -5966,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0.05</v>
@@ -5978,7 +6135,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
         <v>0.05</v>
@@ -5996,11 +6153,11 @@
         <v>-19080</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="11">D29/(1+D30)^(D28)</f>
+        <f t="shared" ref="D31" si="6">D29/(1+D30)^(D28)</f>
         <v>19047.619047619046</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="12">E29/(1+E30)^(E28)</f>
+        <f t="shared" ref="E31" si="7">E29/(1+E30)^(E28)</f>
         <v>0</v>
       </c>
       <c r="F31" s="2">
@@ -6015,11 +6172,11 @@
         <v>-19080</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31" si="13">J29/(1+J30)^(J28)</f>
+        <f t="shared" ref="J31" si="8">J29/(1+J30)^(J28)</f>
         <v>19047.619047619046</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31" si="14">K29/(1+K30)^(K28)</f>
+        <f>K29/((1+K30)*(1+J30))</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
@@ -6034,11 +6191,11 @@
         <v>-19080</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31" si="15">P29/(1+P30)^(P28)</f>
+        <f t="shared" ref="P31" si="9">P29/(1+P30)^(P28)</f>
         <v>19047.619047619046</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31" si="16">Q29/(1+Q30)^(Q28)</f>
+        <f t="shared" ref="Q31" si="10">Q29/(1+Q30)^(Q28)</f>
         <v>0</v>
       </c>
       <c r="R31" s="2">
@@ -6069,10 +6226,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA85EBA0-2810-41C2-B263-50AD7145673F}">
-  <dimension ref="A10:F26"/>
+  <dimension ref="A10:H26"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6177,7 +6334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>4</v>
       </c>
@@ -6192,7 +6349,7 @@
       </c>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6364,7 @@
       </c>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>2</v>
       </c>
@@ -6228,7 +6385,7 @@
         <v>1.0335174841544865</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -6252,9 +6409,14 @@
         <v>1.0335174547386701</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
-        <v>0.199999944002687</v>
+        <v>0.1</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6265,8 +6427,11 @@
       <c r="F22" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>5</v>
       </c>
@@ -6280,8 +6445,11 @@
         <v>2</v>
       </c>
       <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
@@ -6293,25 +6461,25 @@
       </c>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="1">
         <f>$A$22</f>
-        <v>0.199999944002687</v>
+        <v>0.1</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ref="C25:D25" si="4">$A$22</f>
-        <v>0.199999944002687</v>
+        <v>0.1</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="4"/>
-        <v>0.199999944002687</v>
+        <v>0.1</v>
       </c>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>21</v>
       </c>
@@ -6320,16 +6488,16 @@
         <v>-10000</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" ref="C26:D26" si="5">C24/(1+C25)^(C23)</f>
-        <v>10000.000466644296</v>
+        <f>C24/(1+C25)^(C23)</f>
+        <v>10909.090909090908</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D26" si="5">D24/(1+D25)^(D23)</f>
         <v>0</v>
       </c>
       <c r="E26" s="20">
         <f>SUM(B26:D26)</f>
-        <v>4.6664429646625649E-4</v>
+        <v>909.0909090909081</v>
       </c>
       <c r="F26" s="22">
         <v>0.199999944002687</v>
@@ -6346,7 +6514,7 @@
   <dimension ref="A14:AE59"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6393,19 +6561,19 @@
         <v>-2000</v>
       </c>
       <c r="C16" s="15">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="D16" s="15">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="E16" s="15">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="F16" s="15">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="G16" s="15">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -6436,6 +6604,9 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
+      <c r="M17" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -6447,35 +6618,32 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:G18" si="1">C16/(1+C17)^(C15)</f>
-        <v>909.09090909090901</v>
+        <v>-909.09090909090901</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>826.44628099173542</v>
+        <v>-826.44628099173542</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>751.31480090157754</v>
+        <v>-751.31480090157754</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>683.01345536507051</v>
+        <v>-683.01345536507051</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>620.92132305915493</v>
+        <v>-620.92132305915493</v>
       </c>
       <c r="H18">
         <f>SUM(B18:G18)</f>
-        <v>1790.7867694084475</v>
-      </c>
-      <c r="I18" s="1">
-        <f>IRR(B16:G16)</f>
-        <v>0.41041496500867924</v>
-      </c>
+        <v>-5790.7867694084471</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18">
         <f>H18/B16</f>
-        <v>-0.8953933847042238</v>
+        <v>2.8953933847042235</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -6487,24 +6655,24 @@
         <v>-1000</v>
       </c>
       <c r="C19" s="15">
-        <f>C16+333</f>
-        <v>1333</v>
+        <f>C16-333</f>
+        <v>-1333</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" ref="D19:G19" si="2">D16+333</f>
-        <v>1333</v>
+        <f t="shared" ref="D19:G19" si="2">D16-333</f>
+        <v>-1333</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="2"/>
-        <v>1333</v>
+        <v>-1333</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="2"/>
-        <v>1333</v>
+        <v>-1333</v>
       </c>
       <c r="G19" s="15">
         <f t="shared" si="2"/>
-        <v>1333</v>
+        <v>-1333</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -6546,35 +6714,32 @@
       </c>
       <c r="C21">
         <f t="shared" ref="C21:G21" si="4">C19/(1+C20)^(C15)</f>
-        <v>1211.8181818181818</v>
+        <v>-1211.8181818181818</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
-        <v>1101.6528925619832</v>
+        <f>D19/(1+D20)^(D15)</f>
+        <v>-1101.6528925619832</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
-        <v>1001.5026296018028</v>
+        <v>-1001.5026296018028</v>
       </c>
       <c r="F21">
         <f t="shared" si="4"/>
-        <v>910.45693600163895</v>
+        <v>-910.45693600163895</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>827.68812363785355</v>
+        <v>-827.68812363785355</v>
       </c>
       <c r="H21" s="2">
         <f>SUM(B21:G21)</f>
-        <v>4053.1187636214604</v>
-      </c>
-      <c r="I21" s="14">
-        <f>IRR(B19:G19)</f>
-        <v>1.3128588384075131</v>
-      </c>
+        <v>-6053.1187636214618</v>
+      </c>
+      <c r="I21" s="14"/>
       <c r="J21" s="2">
         <f>H21/B19</f>
-        <v>-4.0531187636214607</v>
+        <v>6.0531187636214616</v>
       </c>
       <c r="L21" t="s">
         <v>39</v>
@@ -6582,13 +6747,13 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>-2000</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D23">
         <f>B23*0.5</f>
@@ -6623,7 +6788,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B25" s="15">
         <f>$B$23</f>
@@ -6685,31 +6850,31 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B27" s="15">
         <f>$B$23+1000</f>
         <v>-1000</v>
       </c>
       <c r="C27" s="15">
-        <f>$D$23*$A$30-333</f>
-        <v>-833</v>
+        <f>C25-333</f>
+        <v>-1333</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" ref="D27:G27" si="7">$D$23*$A$30-333</f>
-        <v>-833</v>
+        <f t="shared" ref="D27:G27" si="7">D25-333</f>
+        <v>-1333</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="7"/>
-        <v>-833</v>
+        <v>-1333</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="7"/>
-        <v>-833</v>
+        <v>-1333</v>
       </c>
       <c r="G27" s="15">
         <f t="shared" si="7"/>
-        <v>-833</v>
+        <v>-1333</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -6722,37 +6887,37 @@
       </c>
       <c r="C28">
         <f t="shared" ref="C28:G28" si="8">C27/(1+$A$24)^(C24)</f>
-        <v>-757.27272727272725</v>
+        <v>-1211.8181818181818</v>
       </c>
       <c r="D28">
         <f t="shared" si="8"/>
-        <v>-688.42975206611561</v>
+        <v>-1101.6528925619832</v>
       </c>
       <c r="E28">
         <f t="shared" si="8"/>
-        <v>-625.84522915101411</v>
+        <v>-1001.5026296018028</v>
       </c>
       <c r="F28">
         <f t="shared" si="8"/>
-        <v>-568.95020831910369</v>
+        <v>-910.45693600163895</v>
       </c>
       <c r="G28">
         <f t="shared" si="8"/>
-        <v>-517.22746210827609</v>
+        <v>-827.68812363785355</v>
       </c>
       <c r="H28">
         <f>SUM(B28:G28)</f>
-        <v>-4157.7253789172364</v>
+        <v>-6053.1187636214618</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B30">
         <v>-1100</v>
@@ -6847,252 +7012,252 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <f>B30+(B30*$A$30)/(1+$A$24)^(1)+(B30*$A$30)/(1+$A$24)^(2)+(B30*$A$30)/(1+$A$24)^(3)+(B30*$A$30)/(1+$A$24)^(4)+(B30*$A$30)/(1+$A$24)^(5)</f>
-        <v>-3184.9327231746461</v>
+        <v>-5269.8654463492921</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:AE31" si="9">C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
-        <v>-3474.4720616450686</v>
+        <f>C30+(C30*$A$30)/(1+$A$24)^(1)+(C30*$A$30)/(1+$A$24)^(2)+(C30*$A$30)/(1+$A$24)^(3)+(C30*$A$30)/(1+$A$24)^(4)+(C30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-5748.9441232901372</v>
       </c>
       <c r="D31">
-        <f t="shared" si="9"/>
-        <v>-3764.0114001154911</v>
+        <f t="shared" ref="C31:AE31" si="9">D30+(D30*$A$30)/(1+$A$24)^(1)+(D30*$A$30)/(1+$A$24)^(2)+(D30*$A$30)/(1+$A$24)^(3)+(D30*$A$30)/(1+$A$24)^(4)+(D30*$A$30)/(1+$A$24)^(5)</f>
+        <v>-6228.0228002309823</v>
       </c>
       <c r="E31">
         <f t="shared" si="9"/>
-        <v>-4053.5507385859137</v>
+        <v>-6707.1014771718274</v>
       </c>
       <c r="F31">
         <f t="shared" si="9"/>
-        <v>-4343.0900770563358</v>
+        <v>-7186.1801541126697</v>
       </c>
       <c r="G31">
         <f t="shared" si="9"/>
-        <v>-4632.6294155267578</v>
+        <v>-7665.2588310535157</v>
       </c>
       <c r="H31">
         <f t="shared" si="9"/>
-        <v>-4922.1687539971799</v>
+        <v>-8144.3375079943598</v>
       </c>
       <c r="I31">
         <f t="shared" si="9"/>
-        <v>-5211.7080924676029</v>
+        <v>-8623.4161849352058</v>
       </c>
       <c r="J31">
         <f t="shared" si="9"/>
-        <v>-5501.247430938025</v>
+        <v>-9102.49486187605</v>
       </c>
       <c r="K31">
         <f t="shared" si="9"/>
-        <v>-5790.7867694084471</v>
+        <v>-9581.573538816896</v>
       </c>
       <c r="L31">
         <f t="shared" si="9"/>
-        <v>-6080.3261078788701</v>
+        <v>-10060.65221575774</v>
       </c>
       <c r="M31">
         <f t="shared" si="9"/>
-        <v>-6369.8654463492921</v>
+        <v>-10539.730892698584</v>
       </c>
       <c r="N31">
         <f t="shared" si="9"/>
-        <v>-6659.4047848197142</v>
+        <v>-11018.809569639428</v>
       </c>
       <c r="O31">
         <f t="shared" si="9"/>
-        <v>-6948.9441232901372</v>
+        <v>-11497.888246580274</v>
       </c>
       <c r="P31">
         <f t="shared" si="9"/>
-        <v>-7238.4834617605602</v>
+        <v>-11976.966923521119</v>
       </c>
       <c r="Q31">
         <f t="shared" si="9"/>
-        <v>-7528.0228002309823</v>
+        <v>-12456.045600461965</v>
       </c>
       <c r="R31">
         <f t="shared" si="9"/>
-        <v>-7817.5621387014044</v>
+        <v>-12935.124277402809</v>
       </c>
       <c r="S31">
         <f t="shared" si="9"/>
-        <v>-8107.1014771718274</v>
+        <v>-13414.202954343655</v>
       </c>
       <c r="T31">
         <f t="shared" si="9"/>
-        <v>-8396.6408156422476</v>
+        <v>-13893.281631284497</v>
       </c>
       <c r="U31">
         <f t="shared" si="9"/>
-        <v>-8686.1801541126715</v>
+        <v>-14372.360308225339</v>
       </c>
       <c r="V31">
         <f t="shared" si="9"/>
-        <v>-8975.7194925830936</v>
+        <v>-14851.438985166187</v>
       </c>
       <c r="W31">
         <f t="shared" si="9"/>
-        <v>-9265.2588310535157</v>
+        <v>-15330.517662107031</v>
       </c>
       <c r="X31">
         <f t="shared" si="9"/>
-        <v>-9554.7981695239378</v>
+        <v>-15809.596339047876</v>
       </c>
       <c r="Y31">
         <f t="shared" si="9"/>
-        <v>-9844.3375079943598</v>
+        <v>-16288.67501598872</v>
       </c>
       <c r="Z31">
         <f t="shared" si="9"/>
-        <v>-10133.876846464784</v>
+        <v>-16767.753692929567</v>
       </c>
       <c r="AA31">
         <f t="shared" si="9"/>
-        <v>-10423.416184935206</v>
+        <v>-17246.832369870412</v>
       </c>
       <c r="AB31">
         <f t="shared" si="9"/>
-        <v>-10712.955523405628</v>
+        <v>-17725.911046811256</v>
       </c>
       <c r="AC31">
         <f t="shared" si="9"/>
-        <v>-11002.49486187605</v>
+        <v>-18204.9897237521</v>
       </c>
       <c r="AD31">
         <f t="shared" si="9"/>
-        <v>-11292.034200346472</v>
+        <v>-18684.068400692944</v>
       </c>
       <c r="AE31">
         <f t="shared" si="9"/>
-        <v>-11581.573538816894</v>
+        <v>-19163.147077633792</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:J32" si="10">(B30+1000)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((B30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
-        <v>-1551.8713326834354</v>
+        <f>(B30+1000)+((B30*$A$30)-333)/(1+$A$24)^(1)+((B30*$A$30)-333)/(1+$A$24)^(2)+((B30*$A$30)-333)/(1+$A$24)^(3)+((B30*$A$30)-333)/(1+$A$24)^(4)+((B30*$A$30)-333)/(1+$A$24)^(5)</f>
+        <v>-5532.1974405623041</v>
       </c>
       <c r="C32">
-        <f t="shared" si="10"/>
-        <v>-1841.4106711538579</v>
+        <f t="shared" ref="C32:AE32" si="10">(C30+1000)+((C30*$A$30)-333)/(1+$A$24)^(1)+((C30*$A$30)-333)/(1+$A$24)^(2)+((C30*$A$30)-333)/(1+$A$24)^(3)+((C30*$A$30)-333)/(1+$A$24)^(4)+((C30*$A$30)-333)/(1+$A$24)^(5)</f>
+        <v>-6011.2761175031492</v>
       </c>
       <c r="D32">
         <f t="shared" si="10"/>
-        <v>-2130.95000962428</v>
+        <v>-6490.3547944439943</v>
       </c>
       <c r="E32">
         <f t="shared" si="10"/>
-        <v>-2420.4893480947026</v>
+        <v>-6969.4334713848384</v>
       </c>
       <c r="F32">
         <f t="shared" si="10"/>
-        <v>-2710.0286865651251</v>
+        <v>-7448.5121483256835</v>
       </c>
       <c r="G32">
         <f t="shared" si="10"/>
-        <v>-2999.5680250355472</v>
+        <v>-7927.5908252665286</v>
       </c>
       <c r="H32">
         <f t="shared" si="10"/>
-        <v>-3289.1073635059693</v>
+        <v>-8406.6695022073727</v>
       </c>
       <c r="I32">
         <f t="shared" si="10"/>
-        <v>-3578.6467019763913</v>
+        <v>-8885.7481791482187</v>
       </c>
       <c r="J32">
         <f t="shared" si="10"/>
-        <v>-3868.1860404468143</v>
+        <v>-9364.8268560890629</v>
       </c>
       <c r="K32">
-        <f>(K30+1000)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((K30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
-        <v>-4157.7253789172364</v>
+        <f t="shared" si="10"/>
+        <v>-9843.905533029907</v>
       </c>
       <c r="L32">
-        <f t="shared" ref="L32:AE32" si="11">(L30+1000)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(1)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(2)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(3)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(4)+(((L30+1000)*$A$30)-333)/(1+$A$24)^(5)</f>
-        <v>-4447.2647173876594</v>
+        <f t="shared" si="10"/>
+        <v>-10322.984209970753</v>
       </c>
       <c r="M32">
-        <f t="shared" si="11"/>
-        <v>-4736.8040558580815</v>
+        <f t="shared" si="10"/>
+        <v>-10802.062886911597</v>
       </c>
       <c r="N32">
-        <f t="shared" si="11"/>
-        <v>-5026.3433943285036</v>
+        <f t="shared" si="10"/>
+        <v>-11281.141563852441</v>
       </c>
       <c r="O32">
-        <f t="shared" si="11"/>
-        <v>-5315.8827327989266</v>
+        <f t="shared" si="10"/>
+        <v>-11760.220240793287</v>
       </c>
       <c r="P32">
-        <f t="shared" si="11"/>
-        <v>-5605.4220712693495</v>
+        <f t="shared" si="10"/>
+        <v>-12239.298917734131</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="11"/>
-        <v>-5894.9614097397716</v>
+        <f t="shared" si="10"/>
+        <v>-12718.377594674976</v>
       </c>
       <c r="R32">
-        <f t="shared" si="11"/>
-        <v>-6184.5007482101937</v>
+        <f t="shared" si="10"/>
+        <v>-13197.456271615822</v>
       </c>
       <c r="S32">
-        <f t="shared" si="11"/>
-        <v>-6474.0400866806167</v>
+        <f t="shared" si="10"/>
+        <v>-13676.534948556666</v>
       </c>
       <c r="T32">
-        <f t="shared" si="11"/>
-        <v>-6763.5794251510388</v>
+        <f t="shared" si="10"/>
+        <v>-14155.61362549751</v>
       </c>
       <c r="U32">
-        <f t="shared" si="11"/>
-        <v>-7053.1187636214618</v>
+        <f t="shared" si="10"/>
+        <v>-14634.692302438356</v>
       </c>
       <c r="V32">
-        <f t="shared" si="11"/>
-        <v>-7342.6581020918838</v>
+        <f t="shared" si="10"/>
+        <v>-15113.7709793792</v>
       </c>
       <c r="W32">
-        <f t="shared" si="11"/>
-        <v>-7632.1974405623041</v>
+        <f t="shared" si="10"/>
+        <v>-15592.849656320046</v>
       </c>
       <c r="X32">
-        <f t="shared" si="11"/>
-        <v>-7921.7367790327271</v>
+        <f t="shared" si="10"/>
+        <v>-16071.928333260888</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="11"/>
-        <v>-8211.2761175031501</v>
+        <f t="shared" si="10"/>
+        <v>-16551.007010201734</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="11"/>
-        <v>-8500.8154559735722</v>
+        <f t="shared" si="10"/>
+        <v>-17030.085687142579</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="11"/>
-        <v>-8790.3547944439943</v>
+        <f t="shared" si="10"/>
+        <v>-17509.164364083423</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="11"/>
-        <v>-9079.8941329144182</v>
+        <f t="shared" si="10"/>
+        <v>-17988.243041024267</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="11"/>
-        <v>-9369.4334713848402</v>
+        <f t="shared" si="10"/>
+        <v>-18467.321717965111</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="11"/>
-        <v>-9658.9728098552623</v>
+        <f t="shared" si="10"/>
+        <v>-18946.400394905959</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="11"/>
-        <v>-9948.5121483256844</v>
+        <f t="shared" si="10"/>
+        <v>-19425.479071846803</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -7101,137 +7266,137 @@
       </c>
       <c r="B33">
         <f>ABS(B31)-ABS(B32)</f>
-        <v>1633.0613904912107</v>
+        <v>-262.33199421301197</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:AE33" si="12">ABS(C31)-ABS(C32)</f>
-        <v>1633.0613904912107</v>
+        <f t="shared" ref="C33:AE33" si="11">ABS(C31)-ABS(C32)</f>
+        <v>-262.33199421301197</v>
       </c>
       <c r="D33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912111</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301197</v>
       </c>
       <c r="E33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912111</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="F33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301379</v>
       </c>
       <c r="G33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="H33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="I33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912116</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="J33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="K33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="L33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="M33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="N33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="O33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="P33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="R33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="S33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="T33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912088</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="U33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301651</v>
       </c>
       <c r="V33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="W33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912116</v>
+        <f t="shared" si="11"/>
+        <v>-262.3319942130147</v>
       </c>
       <c r="X33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912107</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301288</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.3319942130147</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912116</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912116</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.3319942130147</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="12"/>
-        <v>1633.0613904912097</v>
+        <f t="shared" si="11"/>
+        <v>-262.33199421301106</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B34">
-        <f>1000+(1000*$A$30-333)/(1+$A$24)^(1)+(1000*$A$30-333)/(1+$A$24)^(2)+(1000*$A$30-333)/(1+$A$24)^(3)+(1000*$A$30-333)/(1+$A$24)^(4)+(1000*$A$30-333)/(1+$A$24)^(5)</f>
-        <v>1633.0613904912109</v>
+        <f>1000+(-333)/(1+$A$24)^(1)+(-333)/(1+$A$24)^(2)+(-333)/(1+$A$24)^(3)+(-333)/(1+$A$24)^(4)+(-333)/(1+$A$24)^(5)</f>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <v>-1100</v>
@@ -7239,11 +7404,11 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <f>B35*A30</f>
-        <v>-550</v>
+        <v>-1100</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
@@ -7251,15 +7416,15 @@
         <v>0.5</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
@@ -7267,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <f>1000+(1000*A40-333)/(1+$A$24)^(1)+(1000*A40-333)/(1+$A$24)^(2)+(1000*A40-333)/(1+$A$24)^(3)+(1000*A40-333)/(1+$A$24)^(4)+(1000*A40-333)/(1+$A$24)^(5)</f>
+        <f>1000+(-333)/(1+$A$24)^(1)+(-333)/(1+$A$24)^(2)+(-333)/(1+$A$24)^(3)+(-333)/(1+$A$24)^(4)+(-333)/(1+$A$24)^(5)</f>
         <v>-262.33199421301299</v>
       </c>
     </row>
@@ -7276,8 +7441,8 @@
         <v>0.1</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B58" si="13">1000+(1000*A41-333)/(1+$A$24)^(1)+(1000*A41-333)/(1+$A$24)^(2)+(1000*A41-333)/(1+$A$24)^(3)+(1000*A41-333)/(1+$A$24)^(4)+(1000*A41-333)/(1+$A$24)^(5)</f>
-        <v>116.7466827278318</v>
+        <f t="shared" ref="B41:B59" si="12">1000+(-333)/(1+$A$24)^(1)+(-333)/(1+$A$24)^(2)+(-333)/(1+$A$24)^(3)+(-333)/(1+$A$24)^(4)+(-333)/(1+$A$24)^(5)</f>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
@@ -7285,8 +7450,8 @@
         <v>0.2</v>
       </c>
       <c r="B42">
-        <f t="shared" si="13"/>
-        <v>495.82535966867641</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -7294,8 +7459,8 @@
         <v>0.3</v>
       </c>
       <c r="B43">
-        <f t="shared" si="13"/>
-        <v>874.9040366095212</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -7303,8 +7468,8 @@
         <v>0.4</v>
       </c>
       <c r="B44">
-        <f t="shared" si="13"/>
-        <v>1253.9827135503663</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -7312,8 +7477,8 @@
         <v>0.5</v>
       </c>
       <c r="B45">
-        <f t="shared" si="13"/>
-        <v>1633.0613904912109</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -7321,8 +7486,8 @@
         <v>0.6</v>
       </c>
       <c r="B46">
-        <f t="shared" si="13"/>
-        <v>2012.1400674320555</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
@@ -7330,8 +7495,8 @@
         <v>0.7</v>
       </c>
       <c r="B47">
-        <f t="shared" si="13"/>
-        <v>2391.2187443728999</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -7339,8 +7504,8 @@
         <v>0.8</v>
       </c>
       <c r="B48">
-        <f t="shared" si="13"/>
-        <v>2770.297421313745</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -7348,8 +7513,8 @@
         <v>0.9</v>
       </c>
       <c r="B49">
-        <f t="shared" si="13"/>
-        <v>3149.3760982545896</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -7357,8 +7522,8 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <f t="shared" si="13"/>
-        <v>3528.4547751954342</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -7366,8 +7531,8 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B51">
-        <f t="shared" si="13"/>
-        <v>3907.5334521362793</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -7375,8 +7540,8 @@
         <v>1.2</v>
       </c>
       <c r="B52">
-        <f t="shared" si="13"/>
-        <v>4286.6121290771234</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -7384,8 +7549,8 @@
         <v>1.3</v>
       </c>
       <c r="B53">
-        <f t="shared" si="13"/>
-        <v>4665.6908060179685</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -7393,11 +7558,8 @@
         <v>1.4</v>
       </c>
       <c r="B54">
-        <f t="shared" si="13"/>
-        <v>5044.7694829588127</v>
-      </c>
-      <c r="D54" t="s">
-        <v>98</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -7405,11 +7567,11 @@
         <v>1.5</v>
       </c>
       <c r="B55">
-        <f t="shared" si="13"/>
-        <v>5423.8481598996586</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -7417,8 +7579,8 @@
         <v>1.6</v>
       </c>
       <c r="B56">
-        <f t="shared" si="13"/>
-        <v>5802.9268368405028</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -7426,8 +7588,8 @@
         <v>1.7</v>
       </c>
       <c r="B57">
-        <f t="shared" si="13"/>
-        <v>6182.0055137813479</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -7435,8 +7597,8 @@
         <v>1.8</v>
       </c>
       <c r="B58">
-        <f t="shared" si="13"/>
-        <v>6561.0841907221929</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7444,8 +7606,8 @@
         <v>1.9</v>
       </c>
       <c r="B59">
-        <f>1000+(1000*A59-333)/(1+$A$24)^(1)+(1000*A59-333)/(1+$A$24)^(2)+(1000*A59-333)/(1+$A$24)^(3)+(1000*A59-333)/(1+$A$24)^(4)+(1000*A59-333)/(1+$A$24)^(5)</f>
-        <v>6940.1628676630371</v>
+        <f t="shared" si="12"/>
+        <v>-262.33199421301299</v>
       </c>
     </row>
   </sheetData>
@@ -8033,20 +8195,25 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E52AB25-B78C-4726-B2F8-04AD68AFD30F}">
-  <dimension ref="A12:H25"/>
+  <dimension ref="A9:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -8070,7 +8237,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
@@ -8084,7 +8251,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -8101,7 +8268,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -8802,7 +8969,7 @@
   <dimension ref="A11:BC33"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:H34"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8811,8 +8978,13 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8820,6 +8992,9 @@
       <c r="A11" s="1">
         <v>0.05</v>
       </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -8993,154 +9168,154 @@
         <v>-60000000</v>
       </c>
       <c r="C13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="D13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="E13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="F13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="G13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="H13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="I13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="J13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="K13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="L13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="M13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="N13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="O13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="P13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="Q13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="R13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="S13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="T13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="U13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="V13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="W13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="X13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="Y13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="Z13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AA13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AB13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AC13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AD13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AE13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AF13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AG13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AH13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AI13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AJ13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AK13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AL13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AM13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AN13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AO13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AP13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AQ13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AR13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AS13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AT13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AU13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AV13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AW13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AX13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AY13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="AZ13" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
@@ -9362,215 +9537,214 @@
       </c>
       <c r="C15">
         <f>C13/(1+C14)^(C12)</f>
-        <v>14285714.285714285</v>
+        <v>-14285714.285714285</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="C15:AZ15" si="1">D13/(1+D14)^(D12)</f>
-        <v>13605442.176870748</v>
+        <f t="shared" ref="D15:AZ15" si="1">D13/(1+D14)^(D12)</f>
+        <v>-13605442.176870748</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>12957563.977972141</v>
+        <v>-12957563.977972141</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>12340537.121878229</v>
+        <v>-12340537.121878229</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>11752892.497026885</v>
+        <v>-11752892.497026885</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>11193230.949549414</v>
+        <v>-11193230.949549414</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>10660219.951951822</v>
+        <v>-10660219.951951822</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>10152590.430430308</v>
+        <v>-10152590.430430308</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>9669133.7432669587</v>
+        <v>-9669133.7432669587</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>9208698.8031113893</v>
+        <v>-9208698.8031113893</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>8770189.3362965602</v>
+        <v>-8770189.3362965602</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>8352561.2726633931</v>
+        <v>-8352561.2726633931</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>7954820.2596794199</v>
+        <v>-7954820.2596794199</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>7576019.2949327826</v>
+        <v>-7576019.2949327826</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>7215256.4713645531</v>
+        <v>-7215256.4713645531</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>6871672.8298710035</v>
+        <v>-6871672.8298710035</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>6544450.3141628597</v>
+        <v>-6544450.3141628597</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>6232809.8230122468</v>
+        <v>-6232809.8230122468</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>5936009.3552497588</v>
+        <v>-5936009.3552497588</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>5653342.2430950087</v>
+        <v>-5653342.2430950087</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>5384135.4696142944</v>
+        <v>-5384135.4696142944</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>5127748.0662993286</v>
+        <v>-5127748.0662993286</v>
       </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>4883569.5869517401</v>
+        <v>-4883569.5869517401</v>
       </c>
       <c r="Z15">
         <f t="shared" si="1"/>
-        <v>4651018.6542397533</v>
+        <v>-4651018.6542397533</v>
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
-        <v>4429541.5754664317</v>
+        <v>-4429541.5754664317</v>
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
-        <v>4218611.0242537446</v>
+        <v>-4218611.0242537446</v>
       </c>
       <c r="AC15">
         <f t="shared" si="1"/>
-        <v>4017724.7850035657</v>
+        <v>-4017724.7850035657</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>3826404.5571462535</v>
+        <v>-3826404.5571462535</v>
       </c>
       <c r="AE15">
         <f t="shared" si="1"/>
-        <v>3644194.8163297647</v>
+        <v>-3644194.8163297647</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
-        <v>3470661.7298378721</v>
+        <v>-3470661.7298378721</v>
       </c>
       <c r="AG15">
         <f t="shared" si="1"/>
-        <v>3305392.1236551153</v>
+        <v>-3305392.1236551153</v>
       </c>
       <c r="AH15">
         <f t="shared" si="1"/>
-        <v>3147992.4987191572</v>
+        <v>-3147992.4987191572</v>
       </c>
       <c r="AI15">
         <f t="shared" si="1"/>
-        <v>2998088.0940182451</v>
+        <v>-2998088.0940182451</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="1"/>
-        <v>2855321.9943030905</v>
+        <v>-2855321.9943030905</v>
       </c>
       <c r="AK15">
         <f t="shared" si="1"/>
-        <v>2719354.2802886572</v>
+        <v>-2719354.2802886572</v>
       </c>
       <c r="AL15">
         <f t="shared" si="1"/>
-        <v>2589861.219322531</v>
+        <v>-2589861.219322531</v>
       </c>
       <c r="AM15">
         <f t="shared" si="1"/>
-        <v>2466534.4945928864</v>
+        <v>-2466534.4945928864</v>
       </c>
       <c r="AN15">
         <f t="shared" si="1"/>
-        <v>2349080.4710408449</v>
+        <v>-2349080.4710408449</v>
       </c>
       <c r="AO15">
         <f t="shared" si="1"/>
-        <v>2237219.4962293757</v>
+        <v>-2237219.4962293757</v>
       </c>
       <c r="AP15">
         <f t="shared" si="1"/>
-        <v>2130685.2345041675</v>
+        <v>-2130685.2345041675</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="1"/>
-        <v>2029224.0328611117</v>
+        <v>-2029224.0328611117</v>
       </c>
       <c r="AR15">
         <f t="shared" si="1"/>
-        <v>1932594.3170105827</v>
+        <v>-1932594.3170105827</v>
       </c>
       <c r="AS15">
         <f t="shared" si="1"/>
-        <v>1840566.0162005546</v>
+        <v>-1840566.0162005546</v>
       </c>
       <c r="AT15">
         <f t="shared" si="1"/>
-        <v>1752920.0154290998</v>
+        <v>-1752920.0154290998</v>
       </c>
       <c r="AU15">
         <f t="shared" si="1"/>
-        <v>1669447.6337419995</v>
+        <v>-1669447.6337419995</v>
       </c>
       <c r="AV15">
         <f t="shared" si="1"/>
-        <v>1589950.1273733333</v>
+        <v>-1589950.1273733333</v>
       </c>
       <c r="AW15">
         <f t="shared" si="1"/>
-        <v>1514238.2165460312</v>
+        <v>-1514238.2165460312</v>
       </c>
       <c r="AX15">
         <f t="shared" si="1"/>
-        <v>1442131.634805744</v>
+        <v>-1442131.634805744</v>
       </c>
       <c r="AY15">
         <f t="shared" si="1"/>
-        <v>1373458.6998149944</v>
+        <v>-1373458.6998149944</v>
       </c>
       <c r="AZ15">
         <f t="shared" si="1"/>
-        <v>1308055.9045857089</v>
+        <v>-1308055.9045857089</v>
       </c>
       <c r="BA15" s="2">
         <f>SUM(B15:AZ15)</f>
-        <v>213838881.90828577</v>
-      </c>
-      <c r="BB15" s="14">
-        <f>IRR(B13:AZ13)</f>
-        <v>0.24999643137139937</v>
+        <v>-333838881.90828562</v>
+      </c>
+      <c r="BB15" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="BC15">
         <f>BA15/B13</f>
-        <v>-3.5639813651380963</v>
+        <v>5.563981365138094</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
@@ -9581,203 +9755,204 @@
         <v>-100000000</v>
       </c>
       <c r="C16" s="15">
-        <v>20000000</v>
+        <f>20000000*C11</f>
+        <v>-20000000</v>
       </c>
       <c r="D16" s="15">
-        <f>C16-2000000</f>
-        <v>18000000</v>
+        <f>C16+2000000</f>
+        <v>-18000000</v>
       </c>
       <c r="E16" s="15">
-        <f t="shared" ref="E16:G16" si="2">D16-2000000</f>
-        <v>16000000</v>
+        <f t="shared" ref="E16:H16" si="2">D16+2000000</f>
+        <v>-16000000</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="2"/>
-        <v>14000000</v>
+        <v>-14000000</v>
       </c>
       <c r="G16" s="15">
         <f t="shared" si="2"/>
-        <v>12000000</v>
+        <v>-12000000</v>
       </c>
       <c r="H16" s="15">
-        <f>G16-2000000</f>
-        <v>10000000</v>
+        <f t="shared" si="2"/>
+        <v>-10000000</v>
       </c>
       <c r="I16" s="15">
         <f>H16</f>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" ref="J16:AZ16" si="3">I16</f>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="L16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="N16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Q16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="R16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="T16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="V16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="W16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="X16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Y16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Z16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AA16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AB16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AC16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AD16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AE16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AF16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AG16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AH16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AI16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AJ16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AK16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AL16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AM16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AN16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AO16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AP16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AQ16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AR16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AS16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AT16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AU16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AV16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AW16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AX16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AY16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AZ16" s="15">
         <f t="shared" si="3"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
@@ -9999,215 +10174,212 @@
       </c>
       <c r="C18">
         <f t="shared" ref="C18:AZ18" si="5">C16/(1+C17)^(C12)</f>
-        <v>19047619.047619049</v>
+        <v>-19047619.047619049</v>
       </c>
       <c r="D18">
         <f t="shared" si="5"/>
-        <v>16326530.612244897</v>
+        <v>-16326530.612244897</v>
       </c>
       <c r="E18">
         <f t="shared" si="5"/>
-        <v>13821401.576503616</v>
+        <v>-13821401.576503616</v>
       </c>
       <c r="F18">
         <f t="shared" si="5"/>
-        <v>11517834.647086348</v>
+        <v>-11517834.647086348</v>
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>9402313.9976215083</v>
+        <v>-9402313.9976215083</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>7462153.9663662771</v>
+        <v>-7462153.9663662771</v>
       </c>
       <c r="I18">
         <f t="shared" si="5"/>
-        <v>7106813.3013012148</v>
+        <v>-7106813.3013012148</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>6768393.6202868717</v>
+        <v>-6768393.6202868717</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>6446089.1621779725</v>
+        <v>-6446089.1621779725</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>6139132.5354075935</v>
+        <v>-6139132.5354075935</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>5846792.8908643741</v>
+        <v>-5846792.8908643741</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>5568374.1817755951</v>
+        <v>-5568374.1817755951</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>5303213.5064529469</v>
+        <v>-5303213.5064529469</v>
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
-        <v>5050679.5299551887</v>
+        <v>-5050679.5299551887</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>4810170.9809097014</v>
+        <v>-4810170.9809097014</v>
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>4581115.2199140023</v>
+        <v>-4581115.2199140023</v>
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
-        <v>4362966.8761085728</v>
+        <v>-4362966.8761085728</v>
       </c>
       <c r="T18">
         <f t="shared" si="5"/>
-        <v>4155206.5486748316</v>
+        <v>-4155206.5486748316</v>
       </c>
       <c r="U18">
         <f t="shared" si="5"/>
-        <v>3957339.5701665063</v>
+        <v>-3957339.5701665063</v>
       </c>
       <c r="V18">
         <f t="shared" si="5"/>
-        <v>3768894.8287300058</v>
+        <v>-3768894.8287300058</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
-        <v>3589423.6464095297</v>
+        <v>-3589423.6464095297</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>3418498.7108662189</v>
+        <v>-3418498.7108662189</v>
       </c>
       <c r="Y18">
         <f t="shared" si="5"/>
-        <v>3255713.0579678267</v>
+        <v>-3255713.0579678267</v>
       </c>
       <c r="Z18">
         <f t="shared" si="5"/>
-        <v>3100679.1028265022</v>
+        <v>-3100679.1028265022</v>
       </c>
       <c r="AA18">
         <f t="shared" si="5"/>
-        <v>2953027.716977621</v>
+        <v>-2953027.716977621</v>
       </c>
       <c r="AB18">
         <f t="shared" si="5"/>
-        <v>2812407.349502496</v>
+        <v>-2812407.349502496</v>
       </c>
       <c r="AC18">
         <f t="shared" si="5"/>
-        <v>2678483.1900023771</v>
+        <v>-2678483.1900023771</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>2550936.3714308357</v>
+        <v>-2550936.3714308357</v>
       </c>
       <c r="AE18">
         <f t="shared" si="5"/>
-        <v>2429463.2108865096</v>
+        <v>-2429463.2108865096</v>
       </c>
       <c r="AF18">
         <f t="shared" si="5"/>
-        <v>2313774.4865585812</v>
+        <v>-2313774.4865585812</v>
       </c>
       <c r="AG18">
         <f t="shared" si="5"/>
-        <v>2203594.7491034102</v>
+        <v>-2203594.7491034102</v>
       </c>
       <c r="AH18">
         <f t="shared" si="5"/>
-        <v>2098661.6658127718</v>
+        <v>-2098661.6658127718</v>
       </c>
       <c r="AI18">
         <f t="shared" si="5"/>
-        <v>1998725.3960121635</v>
+        <v>-1998725.3960121635</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="5"/>
-        <v>1903547.9962020605</v>
+        <v>-1903547.9962020605</v>
       </c>
       <c r="AK18">
         <f t="shared" si="5"/>
-        <v>1812902.8535257715</v>
+        <v>-1812902.8535257715</v>
       </c>
       <c r="AL18">
         <f t="shared" si="5"/>
-        <v>1726574.1462150207</v>
+        <v>-1726574.1462150207</v>
       </c>
       <c r="AM18">
         <f t="shared" si="5"/>
-        <v>1644356.329728591</v>
+        <v>-1644356.329728591</v>
       </c>
       <c r="AN18">
         <f t="shared" si="5"/>
-        <v>1566053.6473605633</v>
+        <v>-1566053.6473605633</v>
       </c>
       <c r="AO18">
         <f t="shared" si="5"/>
-        <v>1491479.664152917</v>
+        <v>-1491479.664152917</v>
       </c>
       <c r="AP18">
         <f t="shared" si="5"/>
-        <v>1420456.8230027782</v>
+        <v>-1420456.8230027782</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="5"/>
-        <v>1352816.0219074078</v>
+        <v>-1352816.0219074078</v>
       </c>
       <c r="AR18">
         <f t="shared" si="5"/>
-        <v>1288396.2113403883</v>
+        <v>-1288396.2113403883</v>
       </c>
       <c r="AS18">
         <f t="shared" si="5"/>
-        <v>1227044.0108003698</v>
+        <v>-1227044.0108003698</v>
       </c>
       <c r="AT18">
         <f t="shared" si="5"/>
-        <v>1168613.3436193999</v>
+        <v>-1168613.3436193999</v>
       </c>
       <c r="AU18">
         <f t="shared" si="5"/>
-        <v>1112965.0891613329</v>
+        <v>-1112965.0891613329</v>
       </c>
       <c r="AV18">
         <f t="shared" si="5"/>
-        <v>1059966.7515822221</v>
+        <v>-1059966.7515822221</v>
       </c>
       <c r="AW18">
         <f t="shared" si="5"/>
-        <v>1009492.1443640208</v>
+        <v>-1009492.1443640208</v>
       </c>
       <c r="AX18">
         <f t="shared" si="5"/>
-        <v>961421.08987049607</v>
+        <v>-961421.08987049607</v>
       </c>
       <c r="AY18">
         <f t="shared" si="5"/>
-        <v>915639.13320999616</v>
+        <v>-915639.13320999616</v>
       </c>
       <c r="AZ18">
         <f t="shared" si="5"/>
-        <v>872037.26972380595</v>
+        <v>-872037.26972380595</v>
       </c>
       <c r="BA18" s="2">
         <f>SUM(B18:AZ18)</f>
-        <v>109380187.78029107</v>
-      </c>
-      <c r="BB18" s="14">
-        <f>IRR(B16:AZ16)</f>
-        <v>0.12930760823284193</v>
-      </c>
+        <v>-309380187.78029108</v>
+      </c>
+      <c r="BB18" s="14"/>
       <c r="BC18">
         <f>BA18/B16</f>
-        <v>-1.0938018778029106</v>
+        <v>3.0938018778029108</v>
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
@@ -10215,15 +10387,173 @@
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>16</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="U22">
+        <v>19</v>
+      </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>21</v>
+      </c>
+      <c r="X22">
+        <v>22</v>
+      </c>
+      <c r="Y22">
+        <v>23</v>
+      </c>
+      <c r="Z22">
+        <v>24</v>
+      </c>
+      <c r="AA22">
+        <v>25</v>
+      </c>
+      <c r="AB22">
+        <v>26</v>
+      </c>
+      <c r="AC22">
+        <v>27</v>
+      </c>
+      <c r="AD22">
+        <v>28</v>
+      </c>
+      <c r="AE22">
+        <v>29</v>
+      </c>
+      <c r="AF22">
+        <v>30</v>
+      </c>
+      <c r="AG22">
+        <v>31</v>
+      </c>
+      <c r="AH22">
+        <v>32</v>
+      </c>
+      <c r="AI22">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="AJ22">
+        <v>34</v>
+      </c>
+      <c r="AK22">
+        <v>35</v>
+      </c>
+      <c r="AL22">
+        <v>36</v>
+      </c>
+      <c r="AM22">
+        <v>37</v>
+      </c>
+      <c r="AN22">
+        <v>38</v>
+      </c>
+      <c r="AO22">
+        <v>39</v>
+      </c>
+      <c r="AP22">
+        <v>40</v>
+      </c>
+      <c r="AQ22">
+        <v>41</v>
+      </c>
+      <c r="AR22">
+        <v>42</v>
+      </c>
+      <c r="AS22">
+        <v>43</v>
+      </c>
+      <c r="AT22">
+        <v>44</v>
+      </c>
+      <c r="AU22">
+        <v>45</v>
+      </c>
+      <c r="AV22">
+        <v>46</v>
+      </c>
+      <c r="AW22">
+        <v>47</v>
+      </c>
+      <c r="AX22">
+        <v>48</v>
+      </c>
+      <c r="AY22">
+        <v>49</v>
+      </c>
+      <c r="AZ22">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
@@ -10231,206 +10561,203 @@
         <v>52</v>
       </c>
       <c r="B23" s="15">
-        <v>-100000000</v>
+        <v>0</v>
       </c>
       <c r="C23" s="15">
-        <v>20000000</v>
+        <v>-1600000</v>
       </c>
       <c r="D23" s="15">
-        <f>C23-2000000</f>
-        <v>18000000</v>
+        <v>-1600000</v>
       </c>
       <c r="E23" s="15">
-        <f t="shared" ref="E23:G23" si="6">D23-2000000</f>
-        <v>16000000</v>
+        <v>-1600000</v>
       </c>
       <c r="F23" s="15">
+        <v>-1600000</v>
+      </c>
+      <c r="G23" s="15">
+        <f>F23+B16</f>
+        <v>-101600000</v>
+      </c>
+      <c r="H23" s="15">
+        <f>C16</f>
+        <v>-20000000</v>
+      </c>
+      <c r="I23" s="15">
+        <f>C16+2000000</f>
+        <v>-18000000</v>
+      </c>
+      <c r="J23" s="15">
+        <f>I23+2000000</f>
+        <v>-16000000</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" ref="K23:N23" si="6">J23+2000000</f>
+        <v>-14000000</v>
+      </c>
+      <c r="L23" s="15">
         <f t="shared" si="6"/>
-        <v>14000000</v>
-      </c>
-      <c r="G23" s="15">
+        <v>-12000000</v>
+      </c>
+      <c r="M23" s="15">
         <f t="shared" si="6"/>
-        <v>12000000</v>
-      </c>
-      <c r="H23" s="15">
-        <f>G23-2000000</f>
-        <v>10000000</v>
-      </c>
-      <c r="I23" s="15">
-        <f>H23</f>
-        <v>10000000</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" ref="J23:AZ23" si="7">I23</f>
-        <v>10000000</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
-      </c>
-      <c r="M23" s="15">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="N23" s="15">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
+        <f>M23</f>
+        <v>-10000000</v>
       </c>
       <c r="O23" s="15">
-        <f t="shared" si="7"/>
-        <v>10000000</v>
+        <f t="shared" ref="O23:AZ23" si="7">N23</f>
+        <v>-10000000</v>
       </c>
       <c r="P23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Q23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="R23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="S23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="T23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="U23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="V23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="W23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="X23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Y23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="Z23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AA23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AB23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AC23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AD23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AE23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AF23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AG23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AH23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AI23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AJ23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AK23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AL23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AM23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AN23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AO23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AP23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AQ23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AR23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AS23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AT23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AU23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AV23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AW23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AX23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AY23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AZ23" s="15">
         <f t="shared" si="7"/>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
@@ -10648,230 +10975,223 @@
       </c>
       <c r="B25">
         <f>B23/(1+B24)^(B19)</f>
-        <v>-100000000</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="9">C23/(1+C24)^(C19)</f>
-        <v>20000000</v>
+        <f>C23/(1+C24)^(C22)</f>
+        <v>-1523809.5238095238</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="10">D23/(1+D24)^(D19)</f>
-        <v>18000000</v>
+        <f t="shared" ref="D25:AZ25" si="9">D23/(1+D24)^(D22)</f>
+        <v>-1451247.1655328798</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="11">E23/(1+E24)^(E19)</f>
-        <v>16000000</v>
+        <f t="shared" si="9"/>
+        <v>-1382140.1576503615</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="12">F23/(1+F24)^(F19)</f>
-        <v>14000000</v>
+        <f t="shared" si="9"/>
+        <v>-1316323.9596670112</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="13">G23/(1+G24)^(G19)</f>
-        <v>12000000</v>
+        <f>G23/(1+G24)^(G22)</f>
+        <v>-79606258.513195425</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25" si="14">H23/(1+H24)^(H19)</f>
-        <v>10000000</v>
+        <f>H23/(1+H24)^(H22)</f>
+        <v>-14924307.932732554</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="15">I23/(1+I24)^(I19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-12792263.942342186</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="16">J23/(1+J24)^(J19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-10829429.792458994</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25" si="17">K23/(1+K24)^(K19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-9024524.8270491622</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25" si="18">L23/(1+L24)^(L19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-7366959.0424891114</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25" si="19">M23/(1+M24)^(M19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-5846792.8908643741</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25" si="20">N23/(1+N24)^(N19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-5568374.1817755951</v>
       </c>
       <c r="O25">
-        <f t="shared" ref="O25" si="21">O23/(1+O24)^(O19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-5303213.5064529469</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25" si="22">P23/(1+P24)^(P19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-5050679.5299551887</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25" si="23">Q23/(1+Q24)^(Q19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-4810170.9809097014</v>
       </c>
       <c r="R25">
-        <f t="shared" ref="R25" si="24">R23/(1+R24)^(R19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-4581115.2199140023</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25" si="25">S23/(1+S24)^(S19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-4362966.8761085728</v>
       </c>
       <c r="T25">
-        <f t="shared" ref="T25" si="26">T23/(1+T24)^(T19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-4155206.5486748316</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25" si="27">U23/(1+U24)^(U19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-3957339.5701665063</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25" si="28">V23/(1+V24)^(V19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-3768894.8287300058</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25" si="29">W23/(1+W24)^(W19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-3589423.6464095297</v>
       </c>
       <c r="X25">
-        <f t="shared" ref="X25" si="30">X23/(1+X24)^(X19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-3418498.7108662189</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25" si="31">Y23/(1+Y24)^(Y19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-3255713.0579678267</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25" si="32">Z23/(1+Z24)^(Z19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-3100679.1028265022</v>
       </c>
       <c r="AA25">
-        <f t="shared" ref="AA25" si="33">AA23/(1+AA24)^(AA19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2953027.716977621</v>
       </c>
       <c r="AB25">
-        <f t="shared" ref="AB25" si="34">AB23/(1+AB24)^(AB19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2812407.349502496</v>
       </c>
       <c r="AC25">
-        <f t="shared" ref="AC25" si="35">AC23/(1+AC24)^(AC19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2678483.1900023771</v>
       </c>
       <c r="AD25">
-        <f t="shared" ref="AD25" si="36">AD23/(1+AD24)^(AD19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2550936.3714308357</v>
       </c>
       <c r="AE25">
-        <f t="shared" ref="AE25" si="37">AE23/(1+AE24)^(AE19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2429463.2108865096</v>
       </c>
       <c r="AF25">
-        <f t="shared" ref="AF25" si="38">AF23/(1+AF24)^(AF19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2313774.4865585812</v>
       </c>
       <c r="AG25">
-        <f t="shared" ref="AG25" si="39">AG23/(1+AG24)^(AG19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2203594.7491034102</v>
       </c>
       <c r="AH25">
-        <f t="shared" ref="AH25" si="40">AH23/(1+AH24)^(AH19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-2098661.6658127718</v>
       </c>
       <c r="AI25">
-        <f t="shared" ref="AI25" si="41">AI23/(1+AI24)^(AI19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1998725.3960121635</v>
       </c>
       <c r="AJ25">
-        <f t="shared" ref="AJ25" si="42">AJ23/(1+AJ24)^(AJ19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1903547.9962020605</v>
       </c>
       <c r="AK25">
-        <f t="shared" ref="AK25" si="43">AK23/(1+AK24)^(AK19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1812902.8535257715</v>
       </c>
       <c r="AL25">
-        <f t="shared" ref="AL25" si="44">AL23/(1+AL24)^(AL19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1726574.1462150207</v>
       </c>
       <c r="AM25">
-        <f t="shared" ref="AM25" si="45">AM23/(1+AM24)^(AM19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1644356.329728591</v>
       </c>
       <c r="AN25">
-        <f t="shared" ref="AN25" si="46">AN23/(1+AN24)^(AN19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1566053.6473605633</v>
       </c>
       <c r="AO25">
-        <f t="shared" ref="AO25" si="47">AO23/(1+AO24)^(AO19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1491479.664152917</v>
       </c>
       <c r="AP25">
-        <f t="shared" ref="AP25" si="48">AP23/(1+AP24)^(AP19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1420456.8230027782</v>
       </c>
       <c r="AQ25">
-        <f t="shared" ref="AQ25" si="49">AQ23/(1+AQ24)^(AQ19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1352816.0219074078</v>
       </c>
       <c r="AR25">
-        <f t="shared" ref="AR25" si="50">AR23/(1+AR24)^(AR19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1288396.2113403883</v>
       </c>
       <c r="AS25">
-        <f t="shared" ref="AS25" si="51">AS23/(1+AS24)^(AS19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1227044.0108003698</v>
       </c>
       <c r="AT25">
-        <f t="shared" ref="AT25" si="52">AT23/(1+AT24)^(AT19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1168613.3436193999</v>
       </c>
       <c r="AU25">
-        <f t="shared" ref="AU25" si="53">AU23/(1+AU24)^(AU19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1112965.0891613329</v>
       </c>
       <c r="AV25">
-        <f t="shared" ref="AV25" si="54">AV23/(1+AV24)^(AV19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1059966.7515822221</v>
       </c>
       <c r="AW25">
-        <f t="shared" ref="AW25" si="55">AW23/(1+AW24)^(AW19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-1009492.1443640208</v>
       </c>
       <c r="AX25">
-        <f t="shared" ref="AX25" si="56">AX23/(1+AX24)^(AX19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-961421.08987049607</v>
       </c>
       <c r="AY25">
-        <f t="shared" ref="AY25" si="57">AY23/(1+AY24)^(AY19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-915639.13320999616</v>
       </c>
       <c r="AZ25">
-        <f t="shared" ref="AZ25" si="58">AZ23/(1+AZ24)^(AZ19)</f>
-        <v>10000000</v>
+        <f t="shared" si="9"/>
+        <v>-872037.26972380595</v>
       </c>
       <c r="BA25" s="2">
         <f>SUM(B25:AZ25)</f>
-        <v>430000000</v>
-      </c>
-      <c r="BB25" s="14">
-        <f>IRR(B23:AZ23)</f>
-        <v>0.12930760823284193</v>
-      </c>
-      <c r="BC25">
-        <f>BA25/B23</f>
-        <v>-4.3</v>
-      </c>
+        <v>-245559170.17060295</v>
+      </c>
+      <c r="BB25" s="14"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
@@ -11046,197 +11366,198 @@
         <v>-60000000</v>
       </c>
       <c r="C29" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="D29" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="E29" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="F29" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="G29" s="15">
-        <v>15000000</v>
+        <v>-15000000</v>
       </c>
       <c r="H29" s="15">
-        <v>-100000000</v>
+        <f>G29+B16</f>
+        <v>-115000000</v>
       </c>
       <c r="I29" s="15">
-        <v>20000000</v>
+        <v>-20000000</v>
       </c>
       <c r="J29" s="15">
-        <f>I29-2000000</f>
-        <v>18000000</v>
+        <f>I29+2000000</f>
+        <v>-18000000</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" ref="K29:N29" si="59">J29-2000000</f>
-        <v>16000000</v>
+        <f>J29+2000000</f>
+        <v>-16000000</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="59"/>
-        <v>14000000</v>
+        <f t="shared" ref="L29:N29" si="10">K29+2000000</f>
+        <v>-14000000</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="59"/>
-        <v>12000000</v>
+        <f t="shared" si="10"/>
+        <v>-12000000</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="59"/>
-        <v>10000000</v>
+        <f t="shared" si="10"/>
+        <v>-10000000</v>
       </c>
       <c r="O29" s="15">
         <f>N29</f>
-        <v>10000000</v>
+        <v>-10000000</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" ref="P29:AZ29" si="60">O29</f>
-        <v>10000000</v>
+        <f t="shared" ref="P29:AZ29" si="11">O29</f>
+        <v>-10000000</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AM29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AN29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AO29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AP29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AQ29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AR29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AS29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AT29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AU29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AV29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AW29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AX29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AY29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
       <c r="AZ29" s="15">
-        <f t="shared" si="60"/>
-        <v>10000000</v>
+        <f t="shared" si="11"/>
+        <v>-10000000</v>
       </c>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
@@ -11248,203 +11569,203 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:AZ30" si="61">$A$11</f>
+        <f t="shared" ref="C30:AZ30" si="12">$A$11</f>
         <v>0.05</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AM30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AN30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AO30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AP30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AQ30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AR30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AS30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AT30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AU30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AV30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AW30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AX30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AY30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
       <c r="AZ30" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="12"/>
         <v>0.05</v>
       </c>
     </row>
@@ -11457,221 +11778,218 @@
         <v>-60000000</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31" si="62">C29/(1+C30)^(C28)</f>
-        <v>14285714.285714285</v>
+        <f t="shared" ref="C31" si="13">C29/(1+C30)^(C28)</f>
+        <v>-14285714.285714285</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31" si="63">D29/(1+D30)^(D28)</f>
-        <v>13605442.176870748</v>
+        <f t="shared" ref="D31" si="14">D29/(1+D30)^(D28)</f>
+        <v>-13605442.176870748</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31" si="64">E29/(1+E30)^(E28)</f>
-        <v>12957563.977972141</v>
+        <f t="shared" ref="E31" si="15">E29/(1+E30)^(E28)</f>
+        <v>-12957563.977972141</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31" si="65">F29/(1+F30)^(F28)</f>
-        <v>12340537.121878229</v>
+        <f t="shared" ref="F31" si="16">F29/(1+F30)^(F28)</f>
+        <v>-12340537.121878229</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31" si="66">G29/(1+G30)^(G28)</f>
-        <v>11752892.497026885</v>
+        <f>G29/(1+G30)^(G28)</f>
+        <v>-11752892.497026885</v>
       </c>
       <c r="H31">
         <f>H29/(1+H30)^(H28)</f>
-        <v>-74621539.663662761</v>
+        <v>-85814770.613212183</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31" si="67">I29/(1+I30)^(I28)</f>
-        <v>14213626.60260243</v>
+        <f t="shared" ref="I31" si="17">I29/(1+I30)^(I28)</f>
+        <v>-14213626.60260243</v>
       </c>
       <c r="J31">
-        <f t="shared" ref="J31" si="68">J29/(1+J30)^(J28)</f>
-        <v>12183108.516516369</v>
+        <f t="shared" ref="J31" si="18">J29/(1+J30)^(J28)</f>
+        <v>-12183108.516516369</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31" si="69">K29/(1+K30)^(K28)</f>
-        <v>10313742.659484757</v>
+        <f t="shared" ref="K31" si="19">K29/(1+K30)^(K28)</f>
+        <v>-10313742.659484757</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31" si="70">L29/(1+L30)^(L28)</f>
-        <v>8594785.5495706312</v>
+        <f t="shared" ref="L31" si="20">L29/(1+L30)^(L28)</f>
+        <v>-8594785.5495706312</v>
       </c>
       <c r="M31">
-        <f t="shared" ref="M31" si="71">M29/(1+M30)^(M28)</f>
-        <v>7016151.4690372488</v>
+        <f t="shared" ref="M31" si="21">M29/(1+M30)^(M28)</f>
+        <v>-7016151.4690372488</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31" si="72">N29/(1+N30)^(N28)</f>
-        <v>5568374.1817755951</v>
+        <f t="shared" ref="N31" si="22">N29/(1+N30)^(N28)</f>
+        <v>-5568374.1817755951</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31" si="73">O29/(1+O30)^(O28)</f>
-        <v>5303213.5064529469</v>
+        <f t="shared" ref="O31" si="23">O29/(1+O30)^(O28)</f>
+        <v>-5303213.5064529469</v>
       </c>
       <c r="P31">
-        <f t="shared" ref="P31" si="74">P29/(1+P30)^(P28)</f>
-        <v>5050679.5299551887</v>
+        <f t="shared" ref="P31" si="24">P29/(1+P30)^(P28)</f>
+        <v>-5050679.5299551887</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31" si="75">Q29/(1+Q30)^(Q28)</f>
-        <v>4810170.9809097014</v>
+        <f t="shared" ref="Q31" si="25">Q29/(1+Q30)^(Q28)</f>
+        <v>-4810170.9809097014</v>
       </c>
       <c r="R31">
-        <f t="shared" ref="R31" si="76">R29/(1+R30)^(R28)</f>
-        <v>4581115.2199140023</v>
+        <f t="shared" ref="R31" si="26">R29/(1+R30)^(R28)</f>
+        <v>-4581115.2199140023</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31" si="77">S29/(1+S30)^(S28)</f>
-        <v>4362966.8761085728</v>
+        <f t="shared" ref="S31" si="27">S29/(1+S30)^(S28)</f>
+        <v>-4362966.8761085728</v>
       </c>
       <c r="T31">
-        <f t="shared" ref="T31" si="78">T29/(1+T30)^(T28)</f>
-        <v>4155206.5486748316</v>
+        <f t="shared" ref="T31" si="28">T29/(1+T30)^(T28)</f>
+        <v>-4155206.5486748316</v>
       </c>
       <c r="U31">
-        <f t="shared" ref="U31" si="79">U29/(1+U30)^(U28)</f>
-        <v>3957339.5701665063</v>
+        <f t="shared" ref="U31" si="29">U29/(1+U30)^(U28)</f>
+        <v>-3957339.5701665063</v>
       </c>
       <c r="V31">
-        <f t="shared" ref="V31" si="80">V29/(1+V30)^(V28)</f>
-        <v>3768894.8287300058</v>
+        <f t="shared" ref="V31" si="30">V29/(1+V30)^(V28)</f>
+        <v>-3768894.8287300058</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31" si="81">W29/(1+W30)^(W28)</f>
-        <v>3589423.6464095297</v>
+        <f t="shared" ref="W31" si="31">W29/(1+W30)^(W28)</f>
+        <v>-3589423.6464095297</v>
       </c>
       <c r="X31">
-        <f t="shared" ref="X31" si="82">X29/(1+X30)^(X28)</f>
-        <v>3418498.7108662189</v>
+        <f t="shared" ref="X31" si="32">X29/(1+X30)^(X28)</f>
+        <v>-3418498.7108662189</v>
       </c>
       <c r="Y31">
-        <f t="shared" ref="Y31" si="83">Y29/(1+Y30)^(Y28)</f>
-        <v>3255713.0579678267</v>
+        <f t="shared" ref="Y31" si="33">Y29/(1+Y30)^(Y28)</f>
+        <v>-3255713.0579678267</v>
       </c>
       <c r="Z31">
-        <f t="shared" ref="Z31" si="84">Z29/(1+Z30)^(Z28)</f>
-        <v>3100679.1028265022</v>
+        <f t="shared" ref="Z31" si="34">Z29/(1+Z30)^(Z28)</f>
+        <v>-3100679.1028265022</v>
       </c>
       <c r="AA31">
-        <f t="shared" ref="AA31" si="85">AA29/(1+AA30)^(AA28)</f>
-        <v>2953027.716977621</v>
+        <f t="shared" ref="AA31" si="35">AA29/(1+AA30)^(AA28)</f>
+        <v>-2953027.716977621</v>
       </c>
       <c r="AB31">
-        <f t="shared" ref="AB31" si="86">AB29/(1+AB30)^(AB28)</f>
-        <v>2812407.349502496</v>
+        <f t="shared" ref="AB31" si="36">AB29/(1+AB30)^(AB28)</f>
+        <v>-2812407.349502496</v>
       </c>
       <c r="AC31">
-        <f t="shared" ref="AC31" si="87">AC29/(1+AC30)^(AC28)</f>
-        <v>2678483.1900023771</v>
+        <f t="shared" ref="AC31" si="37">AC29/(1+AC30)^(AC28)</f>
+        <v>-2678483.1900023771</v>
       </c>
       <c r="AD31">
-        <f t="shared" ref="AD31" si="88">AD29/(1+AD30)^(AD28)</f>
-        <v>2550936.3714308357</v>
+        <f t="shared" ref="AD31" si="38">AD29/(1+AD30)^(AD28)</f>
+        <v>-2550936.3714308357</v>
       </c>
       <c r="AE31">
-        <f t="shared" ref="AE31" si="89">AE29/(1+AE30)^(AE28)</f>
-        <v>2429463.2108865096</v>
+        <f t="shared" ref="AE31" si="39">AE29/(1+AE30)^(AE28)</f>
+        <v>-2429463.2108865096</v>
       </c>
       <c r="AF31">
-        <f t="shared" ref="AF31" si="90">AF29/(1+AF30)^(AF28)</f>
-        <v>2313774.4865585812</v>
+        <f t="shared" ref="AF31" si="40">AF29/(1+AF30)^(AF28)</f>
+        <v>-2313774.4865585812</v>
       </c>
       <c r="AG31">
-        <f t="shared" ref="AG31" si="91">AG29/(1+AG30)^(AG28)</f>
-        <v>2203594.7491034102</v>
+        <f t="shared" ref="AG31" si="41">AG29/(1+AG30)^(AG28)</f>
+        <v>-2203594.7491034102</v>
       </c>
       <c r="AH31">
-        <f t="shared" ref="AH31" si="92">AH29/(1+AH30)^(AH28)</f>
-        <v>2098661.6658127718</v>
+        <f t="shared" ref="AH31" si="42">AH29/(1+AH30)^(AH28)</f>
+        <v>-2098661.6658127718</v>
       </c>
       <c r="AI31">
-        <f t="shared" ref="AI31" si="93">AI29/(1+AI30)^(AI28)</f>
-        <v>1998725.3960121635</v>
+        <f t="shared" ref="AI31" si="43">AI29/(1+AI30)^(AI28)</f>
+        <v>-1998725.3960121635</v>
       </c>
       <c r="AJ31">
-        <f t="shared" ref="AJ31" si="94">AJ29/(1+AJ30)^(AJ28)</f>
-        <v>1903547.9962020605</v>
+        <f t="shared" ref="AJ31" si="44">AJ29/(1+AJ30)^(AJ28)</f>
+        <v>-1903547.9962020605</v>
       </c>
       <c r="AK31">
-        <f t="shared" ref="AK31" si="95">AK29/(1+AK30)^(AK28)</f>
-        <v>1812902.8535257715</v>
+        <f t="shared" ref="AK31" si="45">AK29/(1+AK30)^(AK28)</f>
+        <v>-1812902.8535257715</v>
       </c>
       <c r="AL31">
-        <f t="shared" ref="AL31" si="96">AL29/(1+AL30)^(AL28)</f>
-        <v>1726574.1462150207</v>
+        <f t="shared" ref="AL31" si="46">AL29/(1+AL30)^(AL28)</f>
+        <v>-1726574.1462150207</v>
       </c>
       <c r="AM31">
-        <f t="shared" ref="AM31" si="97">AM29/(1+AM30)^(AM28)</f>
-        <v>1644356.329728591</v>
+        <f t="shared" ref="AM31" si="47">AM29/(1+AM30)^(AM28)</f>
+        <v>-1644356.329728591</v>
       </c>
       <c r="AN31">
-        <f t="shared" ref="AN31" si="98">AN29/(1+AN30)^(AN28)</f>
-        <v>1566053.6473605633</v>
+        <f t="shared" ref="AN31" si="48">AN29/(1+AN30)^(AN28)</f>
+        <v>-1566053.6473605633</v>
       </c>
       <c r="AO31">
-        <f t="shared" ref="AO31" si="99">AO29/(1+AO30)^(AO28)</f>
-        <v>1491479.664152917</v>
+        <f t="shared" ref="AO31" si="49">AO29/(1+AO30)^(AO28)</f>
+        <v>-1491479.664152917</v>
       </c>
       <c r="AP31">
-        <f t="shared" ref="AP31" si="100">AP29/(1+AP30)^(AP28)</f>
-        <v>1420456.8230027782</v>
+        <f t="shared" ref="AP31" si="50">AP29/(1+AP30)^(AP28)</f>
+        <v>-1420456.8230027782</v>
       </c>
       <c r="AQ31">
-        <f t="shared" ref="AQ31" si="101">AQ29/(1+AQ30)^(AQ28)</f>
-        <v>1352816.0219074078</v>
+        <f t="shared" ref="AQ31" si="51">AQ29/(1+AQ30)^(AQ28)</f>
+        <v>-1352816.0219074078</v>
       </c>
       <c r="AR31">
-        <f t="shared" ref="AR31" si="102">AR29/(1+AR30)^(AR28)</f>
-        <v>1288396.2113403883</v>
+        <f t="shared" ref="AR31" si="52">AR29/(1+AR30)^(AR28)</f>
+        <v>-1288396.2113403883</v>
       </c>
       <c r="AS31">
-        <f t="shared" ref="AS31" si="103">AS29/(1+AS30)^(AS28)</f>
-        <v>1227044.0108003698</v>
+        <f t="shared" ref="AS31" si="53">AS29/(1+AS30)^(AS28)</f>
+        <v>-1227044.0108003698</v>
       </c>
       <c r="AT31">
-        <f t="shared" ref="AT31" si="104">AT29/(1+AT30)^(AT28)</f>
-        <v>1168613.3436193999</v>
+        <f t="shared" ref="AT31" si="54">AT29/(1+AT30)^(AT28)</f>
+        <v>-1168613.3436193999</v>
       </c>
       <c r="AU31">
-        <f t="shared" ref="AU31" si="105">AU29/(1+AU30)^(AU28)</f>
-        <v>1112965.0891613329</v>
+        <f t="shared" ref="AU31" si="55">AU29/(1+AU30)^(AU28)</f>
+        <v>-1112965.0891613329</v>
       </c>
       <c r="AV31">
-        <f t="shared" ref="AV31" si="106">AV29/(1+AV30)^(AV28)</f>
-        <v>1059966.7515822221</v>
+        <f t="shared" ref="AV31" si="56">AV29/(1+AV30)^(AV28)</f>
+        <v>-1059966.7515822221</v>
       </c>
       <c r="AW31">
-        <f t="shared" ref="AW31" si="107">AW29/(1+AW30)^(AW28)</f>
-        <v>1009492.1443640208</v>
+        <f t="shared" ref="AW31" si="57">AW29/(1+AW30)^(AW28)</f>
+        <v>-1009492.1443640208</v>
       </c>
       <c r="AX31">
-        <f t="shared" ref="AX31" si="108">AX29/(1+AX30)^(AX28)</f>
-        <v>961421.08987049607</v>
+        <f t="shared" ref="AX31" si="58">AX29/(1+AX30)^(AX28)</f>
+        <v>-961421.08987049607</v>
       </c>
       <c r="AY31">
-        <f t="shared" ref="AY31" si="109">AY29/(1+AY30)^(AY28)</f>
-        <v>915639.13320999616</v>
+        <f t="shared" ref="AY31" si="59">AY29/(1+AY30)^(AY28)</f>
+        <v>-915639.13320999616</v>
       </c>
       <c r="AZ31">
-        <f t="shared" ref="AZ31" si="110">AZ29/(1+AZ30)^(AZ28)</f>
-        <v>872037.26972380595</v>
+        <f t="shared" ref="AZ31" si="60">AZ29/(1+AZ30)^(AZ28)</f>
+        <v>-872037.26972380595</v>
       </c>
       <c r="BA31" s="2">
         <f>SUM(B31:AZ31)</f>
-        <v>82137137.615822315</v>
-      </c>
-      <c r="BB31" s="14">
-        <f>IRR(B29:AZ29)</f>
-        <v>0.11465198883547489</v>
-      </c>
+        <v>-362573447.89269716</v>
+      </c>
+      <c r="BB31" s="14"/>
       <c r="BC31">
         <f>BA31/B29</f>
-        <v>-1.3689522935970386</v>
+        <v>6.0428907982116193</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -11682,36 +12000,37 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CFDA77-5A2D-4C2A-8980-092F1D983A51}">
-  <dimension ref="A16:I39"/>
+  <dimension ref="A16:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>61</v>
       </c>
       <c r="C20">
         <v>-343000</v>
@@ -11720,16 +12039,16 @@
         <v>100000</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H20">
         <v>10000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -11749,14 +12068,14 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11783,7 +12102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -11812,7 +12131,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -11841,7 +12160,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -11877,10 +12196,13 @@
         <f>IRR(B24:G24)</f>
         <v>0.14037367543887735</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11907,36 +12229,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="24">
-        <f>H21</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>100000</v>
       </c>
-      <c r="C28">
-        <f>H21</f>
+      <c r="D28">
         <v>100000</v>
       </c>
-      <c r="D28">
-        <f>C28</f>
+      <c r="E28">
         <v>100000</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28:G28" si="3">D28</f>
+      <c r="F28">
         <v>100000</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
+      <c r="G28">
         <v>100000</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -11945,73 +12264,81 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:G29" si="4">$A$22</f>
+        <f t="shared" ref="C29:G29" si="3">$A$22</f>
         <v>0.1</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30">
         <f>B28/(1+B29)^(B27)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:G30" si="5">C28/(1+C29)^(C27)</f>
+        <f>C28/(1+C29)^(C27)</f>
         <v>90909.090909090897</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D30:G30" si="4">D28/(1+D29)^(D27)</f>
         <v>82644.62809917354</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75131.480090157755</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68301.345536507055</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f>G28/(1+G29)^(G27)</f>
         <v>62092.132305915497</v>
       </c>
       <c r="H30" s="2">
         <f>SUM(B30:G30)</f>
-        <v>479078.67694084474</v>
+        <v>379078.67694084474</v>
       </c>
       <c r="I30" s="1">
         <v>115826064.281312</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12038,36 +12365,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="24">
-        <f>H21</f>
-        <v>100000</v>
+        <f>400000+B24</f>
+        <v>-1315000</v>
       </c>
       <c r="C35">
-        <f>B35</f>
-        <v>100000</v>
+        <f>C24</f>
+        <v>500000</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:F35" si="6">C35</f>
-        <v>100000</v>
+        <f>C35</f>
+        <v>500000</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
-        <v>100000</v>
+        <f t="shared" ref="E35:F35" si="5">D35</f>
+        <v>500000</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
-        <v>100000</v>
+        <f t="shared" si="5"/>
+        <v>500000</v>
       </c>
       <c r="G35">
-        <f>F35+40000*G21</f>
+        <f>F35</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -12076,68 +12403,71 @@
         <v>0.1</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" ref="C36:G36" si="7">$A$22</f>
+        <f t="shared" ref="C36:G36" si="6">$A$22</f>
         <v>0.1</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <f>B35/(1+B36)^(B34)</f>
-        <v>100000</v>
+        <v>-1315000</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" si="8">C35/(1+C36)^(C34)</f>
-        <v>90909.090909090897</v>
+        <f>C35/(1+C36)^(C34)</f>
+        <v>454545.45454545453</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="9">D35/(1+D36)^(D34)</f>
-        <v>82644.62809917354</v>
+        <f t="shared" ref="D37:G37" si="7">D35/(1+D36)^(D34)</f>
+        <v>413223.1404958677</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="10">E35/(1+E36)^(E34)</f>
-        <v>75131.480090157755</v>
+        <f t="shared" si="7"/>
+        <v>375657.40045078879</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="11">F35/(1+F36)^(F34)</f>
-        <v>68301.345536507055</v>
+        <f t="shared" si="7"/>
+        <v>341506.72768253525</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="12">G35/(1+G36)^(G34)</f>
+        <f t="shared" si="7"/>
         <v>310460.66152957745</v>
       </c>
       <c r="H37" s="2">
         <f>SUM(B37:G37)</f>
-        <v>727447.20616450673</v>
+        <v>580393.38470422383</v>
       </c>
       <c r="I37" s="1">
         <v>115826064.281312</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -12148,363 +12478,1153 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E0ACB-123C-4F90-B976-99680DE6121A}">
-  <dimension ref="A11:AG21"/>
+  <dimension ref="A8:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="W10" s="2">
+        <f>SUM(B15:W15)</f>
+        <v>1001813.6955633393</v>
+      </c>
+    </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.125</v>
+      <c r="A11" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B11">
         <v>29</v>
       </c>
       <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>38</v>
+      </c>
+      <c r="L11">
         <v>39</v>
       </c>
-      <c r="D11">
-        <f>60-B11</f>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>41</v>
+      </c>
+      <c r="O11">
+        <v>42</v>
+      </c>
+      <c r="P11">
+        <v>43</v>
+      </c>
+      <c r="Q11">
+        <v>44</v>
+      </c>
+      <c r="R11">
+        <v>45</v>
+      </c>
+      <c r="S11">
+        <v>46</v>
+      </c>
+      <c r="T11">
+        <v>47</v>
+      </c>
+      <c r="U11">
+        <v>48</v>
+      </c>
+      <c r="V11">
+        <v>49</v>
+      </c>
+      <c r="W11">
+        <v>50</v>
+      </c>
+      <c r="X11">
+        <v>51</v>
+      </c>
+      <c r="Y11">
+        <v>52</v>
+      </c>
+      <c r="Z11">
+        <v>53</v>
+      </c>
+      <c r="AA11">
+        <v>54</v>
+      </c>
+      <c r="AB11">
+        <v>55</v>
+      </c>
+      <c r="AC11">
+        <v>56</v>
+      </c>
+      <c r="AD11">
+        <v>57</v>
+      </c>
+      <c r="AE11">
+        <v>58</v>
+      </c>
+      <c r="AF11">
+        <v>59</v>
+      </c>
+      <c r="AG11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <v>19</v>
+      </c>
+      <c r="V13">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>21</v>
+      </c>
+      <c r="X13">
+        <v>22</v>
+      </c>
+      <c r="Y13">
+        <v>23</v>
+      </c>
+      <c r="Z13">
+        <v>24</v>
+      </c>
+      <c r="AA13">
+        <v>25</v>
+      </c>
+      <c r="AB13">
+        <v>26</v>
+      </c>
+      <c r="AC13">
+        <v>27</v>
+      </c>
+      <c r="AD13">
+        <v>28</v>
+      </c>
+      <c r="AE13">
+        <v>29</v>
+      </c>
+      <c r="AF13">
+        <v>30</v>
+      </c>
+      <c r="AG13">
         <v>31</v>
       </c>
-      <c r="E11">
-        <f>60-C11</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B12">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-25000</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>9</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>11</v>
-      </c>
-      <c r="N12">
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <v>13</v>
-      </c>
-      <c r="P12">
-        <v>14</v>
-      </c>
-      <c r="Q12">
-        <v>15</v>
-      </c>
-      <c r="R12">
-        <v>16</v>
-      </c>
-      <c r="S12">
-        <v>17</v>
-      </c>
-      <c r="T12">
-        <v>18</v>
-      </c>
-      <c r="U12">
-        <v>19</v>
-      </c>
-      <c r="V12">
-        <v>20</v>
-      </c>
-      <c r="W12">
-        <v>21</v>
-      </c>
-      <c r="X12">
-        <v>22</v>
-      </c>
-      <c r="Y12">
-        <v>23</v>
-      </c>
-      <c r="Z12">
-        <v>24</v>
-      </c>
-      <c r="AA12">
-        <v>25</v>
-      </c>
-      <c r="AB12">
-        <v>26</v>
-      </c>
-      <c r="AC12">
-        <v>27</v>
-      </c>
-      <c r="AD12">
-        <v>28</v>
-      </c>
-      <c r="AE12">
-        <v>29</v>
-      </c>
-      <c r="AF12">
-        <v>30</v>
-      </c>
-      <c r="AG12">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>-25000</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="D14">
+        <f>130000</f>
         <v>130000</v>
       </c>
-      <c r="E13">
-        <f>D13+5000</f>
+      <c r="E14">
+        <f t="shared" ref="E14:AG14" si="0">D14+5000</f>
         <v>135000</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:AD13" si="0">E13+5000</f>
+      <c r="F14">
+        <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>145000</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>155000</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>165000</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <f t="shared" si="0"/>
         <v>185000</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>190000</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>195000</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f t="shared" si="0"/>
         <v>205000</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>215000</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f t="shared" si="0"/>
         <v>225000</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f t="shared" si="0"/>
         <v>235000</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <f t="shared" si="0"/>
         <v>245000</v>
       </c>
-      <c r="AB13">
+      <c r="AB14">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="AC13">
+      <c r="AC14">
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="AD13">
+      <c r="AD14">
         <f t="shared" si="0"/>
         <v>260000</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>265000</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="0"/>
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <f>B14/(1+$B$12)^(B13)</f>
+        <v>-25000</v>
+      </c>
+      <c r="C15">
+        <f>C14/(1+$B$12)^(C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AG15" si="1">D14/(1+$B$12)^(D13)</f>
+        <v>102716.04938271605</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>94814.814814814818</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>87401.310775796373</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>80464.698809463327</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>73990.527640885819</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>67961.669833109932</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>62359.094900631339</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>57162.503658912065</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>52350.845101764578</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>47902.734080046022</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>43796.785444613502</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>40011.878060511102</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>36527.360151337467</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>33323.205752097339</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>30380.130600202701</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>27679.674546851351</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>25204.256497945942</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>22937.206971675674</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>20862.782568552549</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>18966.165971411407</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>17233.454512294811</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>15651.639846915094</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>14208.580853937106</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>12892.971515609597</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>11694.305229577867</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>10602.83674148393</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>9609.5426676629959</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>8706.0813912160484</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>7884.7529580824594</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>7138.4594682228017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="2">
+        <f>SUM(B15:AG15)</f>
+        <v>1117436.320748342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <f>C17+5000</f>
+        <v>105000</v>
+      </c>
+      <c r="E17">
+        <f>D17+5000</f>
+        <v>110000</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:AG17" si="2">E17+5000</f>
+        <v>115000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>125000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>130000</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>135000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>145000</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>155000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>160000</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>165000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>175000</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>180000</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>185000</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>190000</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>195000</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>205000</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="2"/>
+        <v>215000</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="2"/>
+        <v>220000</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>225000</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>230000</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>235000</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="2"/>
+        <v>240000</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>245000</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>B17/(1+$B$12)^(B13)</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:AG18" si="3">C17/(1+$B$12)^(C13)</f>
+        <v>88888.888888888891</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>82962.962962962964</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>77256.515775034291</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>71793.933851547015</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>66591.474876797234</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>61658.773034071513</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>57000.110182608332</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>52615.486322407691</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>48501.518256046598</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>44652.191410328611</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>41059.486354325163</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>37713.898577306078</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>34604.867511793389</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>31721.128552477272</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>29050.999886443831</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>26582.614275177362</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>24304.104480162161</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>22203.749771999996</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="3"/>
+        <v>20270.089881945943</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>18492.011822126125</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>16858.814196810141</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="3"/>
+        <v>15360.252934871463</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>13986.57177809434</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>12728.520348318658</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="3"/>
+        <v>11577.362177282088</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="3"/>
+        <v>10524.874706620079</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>9563.3429432992325</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="3"/>
+        <v>8685.5481803877083</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="3"/>
+        <v>7884.7529580824594</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="3"/>
+        <v>7154.683239741491</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>6489.5086074752744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG19" s="2">
+        <f>SUM(C18:AG18)</f>
+        <v>1058739.0387454336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D25">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="G17">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="H25">
         <v>6</v>
       </c>
-      <c r="I17">
+      <c r="I25">
         <v>7</v>
       </c>
-      <c r="J17">
+      <c r="J25">
         <v>8</v>
       </c>
-      <c r="K17">
+      <c r="K25">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="L25">
         <v>10</v>
       </c>
-      <c r="M17">
+      <c r="M25">
         <v>11</v>
       </c>
-      <c r="N17">
+      <c r="N25">
         <v>12</v>
       </c>
-      <c r="O17">
+      <c r="O25">
         <v>13</v>
       </c>
-      <c r="P17">
+      <c r="P25">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>100000</v>
-      </c>
-      <c r="C18">
-        <f>B18+5000</f>
-        <v>105000</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18:I18" si="1">C18+5000</f>
-        <v>110000</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>115000</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>125000</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>130000</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="Q25">
+        <v>15</v>
+      </c>
+      <c r="R25">
+        <v>16</v>
+      </c>
+      <c r="S25">
+        <v>17</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25">
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <v>22</v>
+      </c>
+      <c r="Y25">
+        <v>23</v>
+      </c>
+      <c r="Z25">
+        <v>24</v>
+      </c>
+      <c r="AA25">
+        <v>25</v>
+      </c>
+      <c r="AB25">
+        <v>26</v>
+      </c>
+      <c r="AC25">
+        <v>27</v>
+      </c>
+      <c r="AD25">
+        <v>28</v>
+      </c>
+      <c r="AE25">
+        <v>29</v>
+      </c>
+      <c r="AF25">
+        <v>30</v>
+      </c>
+      <c r="AG25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <f>B14+B17</f>
+        <v>-25000</v>
+      </c>
+      <c r="C26">
+        <f>C14-C17</f>
+        <v>-100000</v>
+      </c>
+      <c r="D26">
+        <f>D14-D17</f>
         <v>25000</v>
       </c>
-      <c r="C21">
-        <f>B21*(1+$A$11)^(C12)</f>
-        <v>28125</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:G21" si="2">C21*(1+$A$11)^(D12)</f>
-        <v>35595.703125</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>50682.163238525391</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
-        <v>81183.025636710227</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>146294.44826727608</v>
-      </c>
-      <c r="H21">
-        <f>G21*(1+$A$11)^(H12)</f>
-        <v>296580.76431888377</v>
+      <c r="E26">
+        <f t="shared" ref="D26:AG26" si="4">E14-E17</f>
+        <v>25000</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <f>B26/(1+$B$12)^(B25)</f>
+        <v>-25000</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:AH27" si="5">C26/(1+$B$12)^(C25)</f>
+        <v>-88888.888888888891</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>19753.086419753086</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>17558.299039780522</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>15607.376924249353</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>13873.223932666091</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>12331.754606814304</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>10961.559650501602</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>9743.608578223646</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>8660.9854028654645</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>7698.6536914359676</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>6843.2477257208602</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>6082.8868673074312</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>5407.010548717717</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>4806.2315988601931</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>4272.2058656535046</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>3797.5163250253377</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>3375.5700666891889</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>3000.5067259459452</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>2667.1170897297297</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>2370.7707464264263</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="5"/>
+        <v>2107.3517746012676</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>1873.2015774233491</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="5"/>
+        <v>1665.0680688207547</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>1480.0605056184486</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="5"/>
+        <v>1315.6093383275099</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>1169.4305229577867</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="5"/>
+        <v>1039.493798184699</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="5"/>
+        <v>923.99448727528807</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="5"/>
+        <v>821.32843313358944</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="5"/>
+        <v>730.06971834096839</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="5"/>
+        <v>648.95086074752749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG28" s="2">
+        <f>SUM(B27:AG27)</f>
+        <v>58697.282002908672</v>
       </c>
     </row>
   </sheetData>
@@ -12518,7 +13638,7 @@
   <dimension ref="A9:K23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12557,12 +13677,12 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>-2500</v>
@@ -12579,7 +13699,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>1100</v>
@@ -12630,7 +13750,7 @@
         <v>1100</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -12674,9 +13794,14 @@
         <v>0.42626869749334073</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12702,7 +13827,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12719,7 +13844,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -12804,12 +13929,17 @@
       </c>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -12820,390 +13950,291 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA51B6A-D1ED-406E-88C7-E3A2E2791494}">
-  <dimension ref="A11:H35"/>
+  <dimension ref="A4:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6">
+        <f>18.8%</f>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13">
+        <f>-25000</f>
         <v>-25000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>40</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>50</v>
       </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15">
         <v>350</v>
       </c>
-      <c r="D14">
-        <f>C14*(1+H14)</f>
-        <v>415.80000000000007</v>
-      </c>
-      <c r="E14">
-        <f>D14*(1+H14)</f>
-        <v>493.97040000000015</v>
-      </c>
-      <c r="H14">
-        <f>(1+0.08)*(1+0.1)-1</f>
-        <v>0.18800000000000017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
       <c r="C15">
-        <v>-50</v>
+        <f>$B$15*(1+$K$4)^(C12)</f>
+        <v>385.00000000000006</v>
       </c>
       <c r="D15">
-        <f>C15*(1+$H$14)</f>
-        <v>-59.400000000000006</v>
+        <f t="shared" ref="D15:E15" si="0">$B$15*(1+$K$4)^(D12)</f>
+        <v>423.50000000000006</v>
       </c>
       <c r="E15">
-        <f>D15*(1+$H$14)</f>
-        <v>-70.567200000000014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>465.85000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>-250</v>
+        <f>$B$16*(1+$K$4)^(C12)</f>
+        <v>55.000000000000007</v>
       </c>
       <c r="D16">
-        <f>C16*(1+H14)</f>
-        <v>-297.00000000000006</v>
+        <f t="shared" ref="D16:E16" si="1">$B$16*(1+$K$4)^(D12)</f>
+        <v>60.500000000000007</v>
       </c>
       <c r="E16">
-        <f>D16*(1+H14)</f>
-        <v>-352.83600000000013</v>
+        <f t="shared" si="1"/>
+        <v>66.550000000000026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <f>$B$17*(1+$K$4)^(C12)</f>
+        <v>275</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:E17" si="2">$B$17*(1+$K$4)^(D12)</f>
+        <v>302.50000000000006</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>332.75000000000011</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2">
+        <f>C14*C15</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:E18" si="3">D14*D15</f>
+        <v>16940.000000000004</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>23292.500000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24">
+        <f>C16*C14</f>
+        <v>1100.0000000000002</v>
+      </c>
+      <c r="D19" s="24">
+        <f t="shared" ref="D19:E19" si="4">D16*D14</f>
+        <v>2420.0000000000005</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="4"/>
+        <v>3327.5000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24">
+        <f>C17</f>
+        <v>275</v>
+      </c>
+      <c r="D20" s="24">
+        <f t="shared" ref="D20:E20" si="5">D17</f>
+        <v>302.50000000000006</v>
+      </c>
+      <c r="E20" s="24">
+        <f t="shared" si="5"/>
+        <v>332.75000000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24">
+        <f>C19+C20</f>
+        <v>1375.0000000000002</v>
+      </c>
+      <c r="D21" s="24">
+        <f t="shared" ref="D21:E21" si="6">D19+D20</f>
+        <v>2722.5000000000005</v>
+      </c>
+      <c r="E21" s="24">
+        <f t="shared" si="6"/>
+        <v>3660.2500000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="25">
+        <f>B13</f>
+        <v>-25000</v>
+      </c>
+      <c r="C22" s="25">
+        <f>C18-C21</f>
+        <v>6325.0000000000009</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" ref="D22:E22" si="7">D18-D21</f>
+        <v>14217.500000000004</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="7"/>
+        <v>19632.250000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="25">
+        <f>B22/(1+$K$6)^(B12)</f>
+        <v>-25000</v>
+      </c>
+      <c r="C23" s="25">
+        <f t="shared" ref="C23:E23" si="8">C22/(1+$K$6)^(C12)</f>
+        <v>5324.0740740740748</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="8"/>
+        <v>10073.731138545956</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="8"/>
+        <v>11709.025555047509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19">
-        <v>-25000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <f>C13*C14</f>
-        <v>7000</v>
-      </c>
-      <c r="D20">
-        <f>D13*D14</f>
-        <v>16632.000000000004</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20" si="0">E13*E14</f>
-        <v>24698.520000000008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21">
-        <f>C13*C15</f>
-        <v>-1000</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:E21" si="1">D13*D15</f>
-        <v>-2376</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-3528.3600000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22">
-        <f>C16</f>
-        <v>-250</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:E22" si="2">D16</f>
-        <v>-297.00000000000006</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>-352.83600000000013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <f>B19</f>
-        <v>-25000</v>
-      </c>
-      <c r="C23">
-        <f>C20+C21+C22</f>
-        <v>5750</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:E23" si="3">D20+D21+D22</f>
-        <v>13959.000000000004</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>20817.324000000008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <f>$H$14</f>
-        <v>0.18800000000000017</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:E24" si="4">$H$14</f>
-        <v>0.18800000000000017</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="4"/>
-        <v>0.18800000000000017</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>0.18800000000000017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="26">
+        <f>SUM(B23:E23)</f>
+        <v>2106.8307676675377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="2">
-        <f>B23/(1+B24)^(B18)</f>
-        <v>-25000</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25:E25" si="5">C23/(1+C24)^(C18)</f>
-        <v>4840.0673400673395</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="5"/>
-        <v>9890.5723905723898</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="5"/>
-        <v>12415.824915824916</v>
-      </c>
-      <c r="F25" s="2">
-        <f>SUM(B25:E25)</f>
-        <v>2146.4646464646466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="B25" s="14">
+        <f>IRR(B22:E22)</f>
+        <v>0.23199366446570835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="27">
+        <f>((1+B25)/(1+K4))-1</f>
+        <v>0.11999424042337115</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="2">
-        <v>-27146.464646464647</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <f>C13*C14</f>
-        <v>7000</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ref="D30:E30" si="6">D13*D14</f>
-        <v>16632.000000000004</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="6"/>
-        <v>24698.520000000008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31">
-        <f>C13*C15</f>
-        <v>-1000</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ref="D31:E31" si="7">D13*D15</f>
-        <v>-2376</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="7"/>
-        <v>-3528.3600000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32">
-        <f>C16</f>
-        <v>-250</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:E32" si="8">D16</f>
-        <v>-297.00000000000006</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="8"/>
-        <v>-352.83600000000013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33">
-        <f>B29</f>
-        <v>-27146.464646464647</v>
-      </c>
-      <c r="C33">
-        <f>C30+C31+C32</f>
-        <v>5750</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ref="D33" si="9">D30+D31+D32</f>
-        <v>13959.000000000004</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ref="E33" si="10">E30+E31+E32</f>
-        <v>20817.324000000008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34">
-        <f>$H$14</f>
-        <v>0.18800000000000017</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:E34" si="11">$H$14</f>
-        <v>0.18800000000000017</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="11"/>
-        <v>0.18800000000000017</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="11"/>
-        <v>0.18800000000000017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <f>B33/(1+B34)^(B28)</f>
-        <v>-27146.464646464647</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35" si="12">C33/(1+C34)^(C28)</f>
-        <v>4840.0673400673395</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35" si="13">D33/(1+D34)^(D28)</f>
-        <v>9890.5723905723898</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ref="E35" si="14">E33/(1+E34)^(E28)</f>
-        <v>12415.824915824916</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(B35:E35)</f>
-        <v>0</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13213,12 +14244,177 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A930DD-712F-467F-9998-87C096D42CE7}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>7000000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B4*B5*B6</f>
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <v>517000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-7000000</v>
+      </c>
+      <c r="B11">
+        <f>B8</f>
+        <v>517000</v>
+      </c>
+      <c r="C11">
+        <f>B11</f>
+        <v>517000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:H11" si="0">C11</f>
+        <v>517000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>517000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>517000</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>517000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>517000</v>
+      </c>
+      <c r="I11">
+        <f>H11+9000000</f>
+        <v>9517000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11/(1+$D$2)^(A10)</f>
+        <v>-7000000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:I12" si="1">B11/(1+$D$2)^(B10)</f>
+        <v>465765.76576576574</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>419608.79798717628</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>378025.94413259125</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>340563.91363296506</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>306814.33660627482</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>276409.3122579052</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>249017.39843054523</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>4129678.4652682636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="2">
+        <f>SUM(A12:I12)</f>
+        <v>-434116.06591851357</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13227,8 +14423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B04462-3399-4CCC-82FB-9E92D7B3D040}">
   <dimension ref="A10:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13365,11 +14561,11 @@
         <v>-900000</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" ref="E15:H15" si="2">D15+E12</f>
+        <f>D15+E12</f>
         <v>-800000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E15:H15" si="2">E15+F12</f>
         <v>-700000</v>
       </c>
       <c r="G15" s="7">
@@ -13383,7 +14579,9 @@
       <c r="I15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -13534,7 +14732,9 @@
       <c r="I20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
@@ -13672,6 +14872,9 @@
       </c>
       <c r="I25" s="8" t="s">
         <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -13717,7 +14920,7 @@
   <dimension ref="A10:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13997,8 +15200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DCAFAB-475C-4BF5-894E-B0180A6A5BD7}">
   <dimension ref="A10:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14344,6 +15547,9 @@
       <c r="E27">
         <f>'ex1'!I20</f>
         <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -14393,7 +15599,7 @@
   <dimension ref="A8:H12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14506,7 +15712,7 @@
   <dimension ref="A5:H12"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14621,10 +15827,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A808DC9-30B1-460D-B672-8085098FA0B2}">
-  <dimension ref="B12:K22"/>
+  <dimension ref="B12:K26"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14872,6 +16078,16 @@
       <c r="I22">
         <f>G22/C20</f>
         <v>-0.19911481456184663</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -14882,10 +16098,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C943F40C-1E57-4A91-BCAB-6FC6B0110466}">
-  <dimension ref="A6:G13"/>
+  <dimension ref="A6:G14"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14975,6 +16191,10 @@
         <f t="shared" si="0"/>
         <v>11495</v>
       </c>
+      <c r="G11" s="1">
+        <f>IRR(C11:F11)</f>
+        <v>0.19672958448229627</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -15006,20 +16226,25 @@
         <v>-9000</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:F13" si="2">D11/(1+B7)^(D8)</f>
-        <v>1495</v>
+        <f>D11/(1+$A$7)^(D8)</f>
+        <v>1359.090909090909</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>1495</v>
+        <f t="shared" ref="E13:F13" si="2">E11/(1+$A$7)^(E8)</f>
+        <v>1235.5371900826444</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>11495</v>
+        <v>8636.3636363636342</v>
       </c>
       <c r="G13" s="2">
         <f>SUM(C13:F13)</f>
-        <v>5485</v>
+        <v>2230.9917355371872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF13F5B-2C54-4082-8AE5-989431D81694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F36D94-EC80-41E3-867C-E5872C05CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="24" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="22" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -7023,7 +7023,7 @@
         <v>-5748.9441232901372</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="C31:AE31" si="9">D30+(D30*$A$30)/(1+$A$24)^(1)+(D30*$A$30)/(1+$A$24)^(2)+(D30*$A$30)/(1+$A$24)^(3)+(D30*$A$30)/(1+$A$24)^(4)+(D30*$A$30)/(1+$A$24)^(5)</f>
+        <f t="shared" ref="D31:AE31" si="9">D30+(D30*$A$30)/(1+$A$24)^(1)+(D30*$A$30)/(1+$A$24)^(2)+(D30*$A$30)/(1+$A$24)^(3)+(D30*$A$30)/(1+$A$24)^(4)+(D30*$A$30)/(1+$A$24)^(5)</f>
         <v>-6228.0228002309823</v>
       </c>
       <c r="E31">
@@ -10592,7 +10592,7 @@
         <v>-16000000</v>
       </c>
       <c r="K23" s="15">
-        <f t="shared" ref="K23:N23" si="6">J23+2000000</f>
+        <f t="shared" ref="K23:M23" si="6">J23+2000000</f>
         <v>-14000000</v>
       </c>
       <c r="L23" s="15">
@@ -12300,7 +12300,7 @@
         <v>90909.090909090897</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:G30" si="4">D28/(1+D29)^(D27)</f>
+        <f t="shared" ref="D30:F30" si="4">D28/(1+D29)^(D27)</f>
         <v>82644.62809917354</v>
       </c>
       <c r="E30">
@@ -12480,8 +12480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E0ACB-123C-4F90-B976-99680DE6121A}">
   <dimension ref="A8:AG28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13372,7 +13372,7 @@
         <v>25000</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="D26:AG26" si="4">E14-E17</f>
+        <f t="shared" ref="E26:AG26" si="4">E14-E17</f>
         <v>25000</v>
       </c>
       <c r="F26">
@@ -13497,7 +13497,7 @@
         <v>-25000</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:AH27" si="5">C26/(1+$B$12)^(C25)</f>
+        <f t="shared" ref="C27:AG27" si="5">C26/(1+$B$12)^(C25)</f>
         <v>-88888.888888888891</v>
       </c>
       <c r="D27">
@@ -13952,7 +13952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA51B6A-D1ED-406E-88C7-E3A2E2791494}">
   <dimension ref="A4:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -14565,7 +14565,7 @@
         <v>-800000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="E15:H15" si="2">E15+F12</f>
+        <f t="shared" ref="F15:H15" si="2">E15+F12</f>
         <v>-700000</v>
       </c>
       <c r="G15" s="7">

--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F36D94-EC80-41E3-867C-E5872C05CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D556470-1013-4483-B4D6-984453EE3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="22" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
@@ -12481,7 +12481,7 @@
   <dimension ref="A8:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PM2/econ/week5/hw2_MarianaAvalos.xlsx
+++ b/PM2/econ/week5/hw2_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D556470-1013-4483-B4D6-984453EE3B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421824D9-4BED-4754-A93B-857FA69DE8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="22" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="20" xr2:uid="{9F559EE0-24DC-4C0C-8898-02AA049EDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="1" r:id="rId1"/>
@@ -3877,8 +3877,8 @@
       <xdr:rowOff>72449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>588792</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>370414</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>99328</xdr:rowOff>
     </xdr:to>
@@ -8968,8 +8968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69098D6C-CCF0-4E20-87FA-FD5D71473494}">
   <dimension ref="A11:BC33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12480,7 +12480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E0ACB-123C-4F90-B976-99680DE6121A}">
   <dimension ref="A8:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -13953,12 +13953,12 @@
   <dimension ref="A4:K35"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -14190,11 +14190,11 @@
         <v>-25000</v>
       </c>
       <c r="C23" s="25">
-        <f t="shared" ref="C23:E23" si="8">C22/(1+$K$6)^(C12)</f>
+        <f>C22/(1+$K$6)^(C12)</f>
         <v>5324.0740740740748</v>
       </c>
       <c r="D23" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D23:E23" si="8">D22/(1+$K$6)^(D12)</f>
         <v>10073.731138545956</v>
       </c>
       <c r="E23" s="25">
